--- a/01.Document/08.Test Case/Geosensing Test Case .xlsx
+++ b/01.Document/08.Test Case/Geosensing Test Case .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login Test Case" sheetId="1" r:id="rId1"/>
-    <sheet name="Register Test Caes" sheetId="2" r:id="rId2"/>
+    <sheet name="Register Test Case" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
-  <si>
-    <t xml:space="preserve"> Project Name: </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
   <si>
     <t xml:space="preserve">Geosensing </t>
   </si>
@@ -98,7 +95,7 @@
   </si>
   <si>
     <t>Register_01</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Geosensing Register Module</t>
@@ -108,202 +105,297 @@
   </si>
   <si>
     <t>Test the Geosensing Register page</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Pre-conditions: </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Verify Register process</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Project Name: </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Geosensing </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Test Case ID: </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Fun_01</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Test Designed by: </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Wujun Song</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Test Priority (Low/Medium/High): </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Med</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Test Designed date:</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>20/04/2019</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Module Name: </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Geosensing Login Module</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Test Executed by:</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Test Title: </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Verify login with valid username and password</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Test Execution date: </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>21/04/2019</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Description: </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Test the Geosensing login page</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Step</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Test Steps</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Test Data</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Expected Result</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Actual Result</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Status (Pass/Fail)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Notes</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Navigate to login page</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/Hweb/login.jsp</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Login Page should be able to be opened</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Page opened</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Pass</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Provide valid username</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Email : minifrench01@gmail.com</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>There should be  no error alert</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>no error alert</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Provide valid password</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Password: 87654321C</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Click on Login button</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Request should be submited</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Request is submited</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>assert text</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">alert 'Login is successful!' </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Login succeed!</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Post-conditions: </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>User is validated with database and successfully login to account. The account session details are logged in database.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xuemin Guo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xuemin Guo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Project Name: Geosensing</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open the register page</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register page opend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/Hweb/register.jsp</t>
+  </si>
+  <si>
+    <t>Type information into firstname input box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>emma</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No error alert</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type information into lastname input box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type information into email input box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>emma03@guo.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type password2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type password1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type information into cc-name box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guoxuemin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type information into cc-number box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234123412341234</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type information into cc-cvv box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click 'register' botton</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect to login page</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,11 +426,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -385,6 +472,14 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -531,11 +626,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -552,10 +648,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,12 +717,129 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -638,12 +851,6 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -654,124 +861,20 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1072,732 +1175,732 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" style="40" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="40" customWidth="1"/>
-    <col min="7" max="256" width="8.88671875" style="40"/>
-    <col min="257" max="257" width="7.44140625" style="40" customWidth="1"/>
-    <col min="258" max="258" width="29.88671875" style="40" customWidth="1"/>
-    <col min="259" max="259" width="35.6640625" style="40" customWidth="1"/>
-    <col min="260" max="260" width="31.44140625" style="40" customWidth="1"/>
-    <col min="261" max="261" width="31.21875" style="40" customWidth="1"/>
-    <col min="262" max="262" width="18.21875" style="40" customWidth="1"/>
-    <col min="263" max="512" width="8.88671875" style="40"/>
-    <col min="513" max="513" width="7.44140625" style="40" customWidth="1"/>
-    <col min="514" max="514" width="29.88671875" style="40" customWidth="1"/>
-    <col min="515" max="515" width="35.6640625" style="40" customWidth="1"/>
-    <col min="516" max="516" width="31.44140625" style="40" customWidth="1"/>
-    <col min="517" max="517" width="31.21875" style="40" customWidth="1"/>
-    <col min="518" max="518" width="18.21875" style="40" customWidth="1"/>
-    <col min="519" max="768" width="8.88671875" style="40"/>
-    <col min="769" max="769" width="7.44140625" style="40" customWidth="1"/>
-    <col min="770" max="770" width="29.88671875" style="40" customWidth="1"/>
-    <col min="771" max="771" width="35.6640625" style="40" customWidth="1"/>
-    <col min="772" max="772" width="31.44140625" style="40" customWidth="1"/>
-    <col min="773" max="773" width="31.21875" style="40" customWidth="1"/>
-    <col min="774" max="774" width="18.21875" style="40" customWidth="1"/>
-    <col min="775" max="1024" width="8.88671875" style="40"/>
-    <col min="1025" max="1025" width="7.44140625" style="40" customWidth="1"/>
-    <col min="1026" max="1026" width="29.88671875" style="40" customWidth="1"/>
-    <col min="1027" max="1027" width="35.6640625" style="40" customWidth="1"/>
-    <col min="1028" max="1028" width="31.44140625" style="40" customWidth="1"/>
-    <col min="1029" max="1029" width="31.21875" style="40" customWidth="1"/>
-    <col min="1030" max="1030" width="18.21875" style="40" customWidth="1"/>
-    <col min="1031" max="1280" width="8.88671875" style="40"/>
-    <col min="1281" max="1281" width="7.44140625" style="40" customWidth="1"/>
-    <col min="1282" max="1282" width="29.88671875" style="40" customWidth="1"/>
-    <col min="1283" max="1283" width="35.6640625" style="40" customWidth="1"/>
-    <col min="1284" max="1284" width="31.44140625" style="40" customWidth="1"/>
-    <col min="1285" max="1285" width="31.21875" style="40" customWidth="1"/>
-    <col min="1286" max="1286" width="18.21875" style="40" customWidth="1"/>
-    <col min="1287" max="1536" width="8.88671875" style="40"/>
-    <col min="1537" max="1537" width="7.44140625" style="40" customWidth="1"/>
-    <col min="1538" max="1538" width="29.88671875" style="40" customWidth="1"/>
-    <col min="1539" max="1539" width="35.6640625" style="40" customWidth="1"/>
-    <col min="1540" max="1540" width="31.44140625" style="40" customWidth="1"/>
-    <col min="1541" max="1541" width="31.21875" style="40" customWidth="1"/>
-    <col min="1542" max="1542" width="18.21875" style="40" customWidth="1"/>
-    <col min="1543" max="1792" width="8.88671875" style="40"/>
-    <col min="1793" max="1793" width="7.44140625" style="40" customWidth="1"/>
-    <col min="1794" max="1794" width="29.88671875" style="40" customWidth="1"/>
-    <col min="1795" max="1795" width="35.6640625" style="40" customWidth="1"/>
-    <col min="1796" max="1796" width="31.44140625" style="40" customWidth="1"/>
-    <col min="1797" max="1797" width="31.21875" style="40" customWidth="1"/>
-    <col min="1798" max="1798" width="18.21875" style="40" customWidth="1"/>
-    <col min="1799" max="2048" width="8.88671875" style="40"/>
-    <col min="2049" max="2049" width="7.44140625" style="40" customWidth="1"/>
-    <col min="2050" max="2050" width="29.88671875" style="40" customWidth="1"/>
-    <col min="2051" max="2051" width="35.6640625" style="40" customWidth="1"/>
-    <col min="2052" max="2052" width="31.44140625" style="40" customWidth="1"/>
-    <col min="2053" max="2053" width="31.21875" style="40" customWidth="1"/>
-    <col min="2054" max="2054" width="18.21875" style="40" customWidth="1"/>
-    <col min="2055" max="2304" width="8.88671875" style="40"/>
-    <col min="2305" max="2305" width="7.44140625" style="40" customWidth="1"/>
-    <col min="2306" max="2306" width="29.88671875" style="40" customWidth="1"/>
-    <col min="2307" max="2307" width="35.6640625" style="40" customWidth="1"/>
-    <col min="2308" max="2308" width="31.44140625" style="40" customWidth="1"/>
-    <col min="2309" max="2309" width="31.21875" style="40" customWidth="1"/>
-    <col min="2310" max="2310" width="18.21875" style="40" customWidth="1"/>
-    <col min="2311" max="2560" width="8.88671875" style="40"/>
-    <col min="2561" max="2561" width="7.44140625" style="40" customWidth="1"/>
-    <col min="2562" max="2562" width="29.88671875" style="40" customWidth="1"/>
-    <col min="2563" max="2563" width="35.6640625" style="40" customWidth="1"/>
-    <col min="2564" max="2564" width="31.44140625" style="40" customWidth="1"/>
-    <col min="2565" max="2565" width="31.21875" style="40" customWidth="1"/>
-    <col min="2566" max="2566" width="18.21875" style="40" customWidth="1"/>
-    <col min="2567" max="2816" width="8.88671875" style="40"/>
-    <col min="2817" max="2817" width="7.44140625" style="40" customWidth="1"/>
-    <col min="2818" max="2818" width="29.88671875" style="40" customWidth="1"/>
-    <col min="2819" max="2819" width="35.6640625" style="40" customWidth="1"/>
-    <col min="2820" max="2820" width="31.44140625" style="40" customWidth="1"/>
-    <col min="2821" max="2821" width="31.21875" style="40" customWidth="1"/>
-    <col min="2822" max="2822" width="18.21875" style="40" customWidth="1"/>
-    <col min="2823" max="3072" width="8.88671875" style="40"/>
-    <col min="3073" max="3073" width="7.44140625" style="40" customWidth="1"/>
-    <col min="3074" max="3074" width="29.88671875" style="40" customWidth="1"/>
-    <col min="3075" max="3075" width="35.6640625" style="40" customWidth="1"/>
-    <col min="3076" max="3076" width="31.44140625" style="40" customWidth="1"/>
-    <col min="3077" max="3077" width="31.21875" style="40" customWidth="1"/>
-    <col min="3078" max="3078" width="18.21875" style="40" customWidth="1"/>
-    <col min="3079" max="3328" width="8.88671875" style="40"/>
-    <col min="3329" max="3329" width="7.44140625" style="40" customWidth="1"/>
-    <col min="3330" max="3330" width="29.88671875" style="40" customWidth="1"/>
-    <col min="3331" max="3331" width="35.6640625" style="40" customWidth="1"/>
-    <col min="3332" max="3332" width="31.44140625" style="40" customWidth="1"/>
-    <col min="3333" max="3333" width="31.21875" style="40" customWidth="1"/>
-    <col min="3334" max="3334" width="18.21875" style="40" customWidth="1"/>
-    <col min="3335" max="3584" width="8.88671875" style="40"/>
-    <col min="3585" max="3585" width="7.44140625" style="40" customWidth="1"/>
-    <col min="3586" max="3586" width="29.88671875" style="40" customWidth="1"/>
-    <col min="3587" max="3587" width="35.6640625" style="40" customWidth="1"/>
-    <col min="3588" max="3588" width="31.44140625" style="40" customWidth="1"/>
-    <col min="3589" max="3589" width="31.21875" style="40" customWidth="1"/>
-    <col min="3590" max="3590" width="18.21875" style="40" customWidth="1"/>
-    <col min="3591" max="3840" width="8.88671875" style="40"/>
-    <col min="3841" max="3841" width="7.44140625" style="40" customWidth="1"/>
-    <col min="3842" max="3842" width="29.88671875" style="40" customWidth="1"/>
-    <col min="3843" max="3843" width="35.6640625" style="40" customWidth="1"/>
-    <col min="3844" max="3844" width="31.44140625" style="40" customWidth="1"/>
-    <col min="3845" max="3845" width="31.21875" style="40" customWidth="1"/>
-    <col min="3846" max="3846" width="18.21875" style="40" customWidth="1"/>
-    <col min="3847" max="4096" width="8.88671875" style="40"/>
-    <col min="4097" max="4097" width="7.44140625" style="40" customWidth="1"/>
-    <col min="4098" max="4098" width="29.88671875" style="40" customWidth="1"/>
-    <col min="4099" max="4099" width="35.6640625" style="40" customWidth="1"/>
-    <col min="4100" max="4100" width="31.44140625" style="40" customWidth="1"/>
-    <col min="4101" max="4101" width="31.21875" style="40" customWidth="1"/>
-    <col min="4102" max="4102" width="18.21875" style="40" customWidth="1"/>
-    <col min="4103" max="4352" width="8.88671875" style="40"/>
-    <col min="4353" max="4353" width="7.44140625" style="40" customWidth="1"/>
-    <col min="4354" max="4354" width="29.88671875" style="40" customWidth="1"/>
-    <col min="4355" max="4355" width="35.6640625" style="40" customWidth="1"/>
-    <col min="4356" max="4356" width="31.44140625" style="40" customWidth="1"/>
-    <col min="4357" max="4357" width="31.21875" style="40" customWidth="1"/>
-    <col min="4358" max="4358" width="18.21875" style="40" customWidth="1"/>
-    <col min="4359" max="4608" width="8.88671875" style="40"/>
-    <col min="4609" max="4609" width="7.44140625" style="40" customWidth="1"/>
-    <col min="4610" max="4610" width="29.88671875" style="40" customWidth="1"/>
-    <col min="4611" max="4611" width="35.6640625" style="40" customWidth="1"/>
-    <col min="4612" max="4612" width="31.44140625" style="40" customWidth="1"/>
-    <col min="4613" max="4613" width="31.21875" style="40" customWidth="1"/>
-    <col min="4614" max="4614" width="18.21875" style="40" customWidth="1"/>
-    <col min="4615" max="4864" width="8.88671875" style="40"/>
-    <col min="4865" max="4865" width="7.44140625" style="40" customWidth="1"/>
-    <col min="4866" max="4866" width="29.88671875" style="40" customWidth="1"/>
-    <col min="4867" max="4867" width="35.6640625" style="40" customWidth="1"/>
-    <col min="4868" max="4868" width="31.44140625" style="40" customWidth="1"/>
-    <col min="4869" max="4869" width="31.21875" style="40" customWidth="1"/>
-    <col min="4870" max="4870" width="18.21875" style="40" customWidth="1"/>
-    <col min="4871" max="5120" width="8.88671875" style="40"/>
-    <col min="5121" max="5121" width="7.44140625" style="40" customWidth="1"/>
-    <col min="5122" max="5122" width="29.88671875" style="40" customWidth="1"/>
-    <col min="5123" max="5123" width="35.6640625" style="40" customWidth="1"/>
-    <col min="5124" max="5124" width="31.44140625" style="40" customWidth="1"/>
-    <col min="5125" max="5125" width="31.21875" style="40" customWidth="1"/>
-    <col min="5126" max="5126" width="18.21875" style="40" customWidth="1"/>
-    <col min="5127" max="5376" width="8.88671875" style="40"/>
-    <col min="5377" max="5377" width="7.44140625" style="40" customWidth="1"/>
-    <col min="5378" max="5378" width="29.88671875" style="40" customWidth="1"/>
-    <col min="5379" max="5379" width="35.6640625" style="40" customWidth="1"/>
-    <col min="5380" max="5380" width="31.44140625" style="40" customWidth="1"/>
-    <col min="5381" max="5381" width="31.21875" style="40" customWidth="1"/>
-    <col min="5382" max="5382" width="18.21875" style="40" customWidth="1"/>
-    <col min="5383" max="5632" width="8.88671875" style="40"/>
-    <col min="5633" max="5633" width="7.44140625" style="40" customWidth="1"/>
-    <col min="5634" max="5634" width="29.88671875" style="40" customWidth="1"/>
-    <col min="5635" max="5635" width="35.6640625" style="40" customWidth="1"/>
-    <col min="5636" max="5636" width="31.44140625" style="40" customWidth="1"/>
-    <col min="5637" max="5637" width="31.21875" style="40" customWidth="1"/>
-    <col min="5638" max="5638" width="18.21875" style="40" customWidth="1"/>
-    <col min="5639" max="5888" width="8.88671875" style="40"/>
-    <col min="5889" max="5889" width="7.44140625" style="40" customWidth="1"/>
-    <col min="5890" max="5890" width="29.88671875" style="40" customWidth="1"/>
-    <col min="5891" max="5891" width="35.6640625" style="40" customWidth="1"/>
-    <col min="5892" max="5892" width="31.44140625" style="40" customWidth="1"/>
-    <col min="5893" max="5893" width="31.21875" style="40" customWidth="1"/>
-    <col min="5894" max="5894" width="18.21875" style="40" customWidth="1"/>
-    <col min="5895" max="6144" width="8.88671875" style="40"/>
-    <col min="6145" max="6145" width="7.44140625" style="40" customWidth="1"/>
-    <col min="6146" max="6146" width="29.88671875" style="40" customWidth="1"/>
-    <col min="6147" max="6147" width="35.6640625" style="40" customWidth="1"/>
-    <col min="6148" max="6148" width="31.44140625" style="40" customWidth="1"/>
-    <col min="6149" max="6149" width="31.21875" style="40" customWidth="1"/>
-    <col min="6150" max="6150" width="18.21875" style="40" customWidth="1"/>
-    <col min="6151" max="6400" width="8.88671875" style="40"/>
-    <col min="6401" max="6401" width="7.44140625" style="40" customWidth="1"/>
-    <col min="6402" max="6402" width="29.88671875" style="40" customWidth="1"/>
-    <col min="6403" max="6403" width="35.6640625" style="40" customWidth="1"/>
-    <col min="6404" max="6404" width="31.44140625" style="40" customWidth="1"/>
-    <col min="6405" max="6405" width="31.21875" style="40" customWidth="1"/>
-    <col min="6406" max="6406" width="18.21875" style="40" customWidth="1"/>
-    <col min="6407" max="6656" width="8.88671875" style="40"/>
-    <col min="6657" max="6657" width="7.44140625" style="40" customWidth="1"/>
-    <col min="6658" max="6658" width="29.88671875" style="40" customWidth="1"/>
-    <col min="6659" max="6659" width="35.6640625" style="40" customWidth="1"/>
-    <col min="6660" max="6660" width="31.44140625" style="40" customWidth="1"/>
-    <col min="6661" max="6661" width="31.21875" style="40" customWidth="1"/>
-    <col min="6662" max="6662" width="18.21875" style="40" customWidth="1"/>
-    <col min="6663" max="6912" width="8.88671875" style="40"/>
-    <col min="6913" max="6913" width="7.44140625" style="40" customWidth="1"/>
-    <col min="6914" max="6914" width="29.88671875" style="40" customWidth="1"/>
-    <col min="6915" max="6915" width="35.6640625" style="40" customWidth="1"/>
-    <col min="6916" max="6916" width="31.44140625" style="40" customWidth="1"/>
-    <col min="6917" max="6917" width="31.21875" style="40" customWidth="1"/>
-    <col min="6918" max="6918" width="18.21875" style="40" customWidth="1"/>
-    <col min="6919" max="7168" width="8.88671875" style="40"/>
-    <col min="7169" max="7169" width="7.44140625" style="40" customWidth="1"/>
-    <col min="7170" max="7170" width="29.88671875" style="40" customWidth="1"/>
-    <col min="7171" max="7171" width="35.6640625" style="40" customWidth="1"/>
-    <col min="7172" max="7172" width="31.44140625" style="40" customWidth="1"/>
-    <col min="7173" max="7173" width="31.21875" style="40" customWidth="1"/>
-    <col min="7174" max="7174" width="18.21875" style="40" customWidth="1"/>
-    <col min="7175" max="7424" width="8.88671875" style="40"/>
-    <col min="7425" max="7425" width="7.44140625" style="40" customWidth="1"/>
-    <col min="7426" max="7426" width="29.88671875" style="40" customWidth="1"/>
-    <col min="7427" max="7427" width="35.6640625" style="40" customWidth="1"/>
-    <col min="7428" max="7428" width="31.44140625" style="40" customWidth="1"/>
-    <col min="7429" max="7429" width="31.21875" style="40" customWidth="1"/>
-    <col min="7430" max="7430" width="18.21875" style="40" customWidth="1"/>
-    <col min="7431" max="7680" width="8.88671875" style="40"/>
-    <col min="7681" max="7681" width="7.44140625" style="40" customWidth="1"/>
-    <col min="7682" max="7682" width="29.88671875" style="40" customWidth="1"/>
-    <col min="7683" max="7683" width="35.6640625" style="40" customWidth="1"/>
-    <col min="7684" max="7684" width="31.44140625" style="40" customWidth="1"/>
-    <col min="7685" max="7685" width="31.21875" style="40" customWidth="1"/>
-    <col min="7686" max="7686" width="18.21875" style="40" customWidth="1"/>
-    <col min="7687" max="7936" width="8.88671875" style="40"/>
-    <col min="7937" max="7937" width="7.44140625" style="40" customWidth="1"/>
-    <col min="7938" max="7938" width="29.88671875" style="40" customWidth="1"/>
-    <col min="7939" max="7939" width="35.6640625" style="40" customWidth="1"/>
-    <col min="7940" max="7940" width="31.44140625" style="40" customWidth="1"/>
-    <col min="7941" max="7941" width="31.21875" style="40" customWidth="1"/>
-    <col min="7942" max="7942" width="18.21875" style="40" customWidth="1"/>
-    <col min="7943" max="8192" width="8.88671875" style="40"/>
-    <col min="8193" max="8193" width="7.44140625" style="40" customWidth="1"/>
-    <col min="8194" max="8194" width="29.88671875" style="40" customWidth="1"/>
-    <col min="8195" max="8195" width="35.6640625" style="40" customWidth="1"/>
-    <col min="8196" max="8196" width="31.44140625" style="40" customWidth="1"/>
-    <col min="8197" max="8197" width="31.21875" style="40" customWidth="1"/>
-    <col min="8198" max="8198" width="18.21875" style="40" customWidth="1"/>
-    <col min="8199" max="8448" width="8.88671875" style="40"/>
-    <col min="8449" max="8449" width="7.44140625" style="40" customWidth="1"/>
-    <col min="8450" max="8450" width="29.88671875" style="40" customWidth="1"/>
-    <col min="8451" max="8451" width="35.6640625" style="40" customWidth="1"/>
-    <col min="8452" max="8452" width="31.44140625" style="40" customWidth="1"/>
-    <col min="8453" max="8453" width="31.21875" style="40" customWidth="1"/>
-    <col min="8454" max="8454" width="18.21875" style="40" customWidth="1"/>
-    <col min="8455" max="8704" width="8.88671875" style="40"/>
-    <col min="8705" max="8705" width="7.44140625" style="40" customWidth="1"/>
-    <col min="8706" max="8706" width="29.88671875" style="40" customWidth="1"/>
-    <col min="8707" max="8707" width="35.6640625" style="40" customWidth="1"/>
-    <col min="8708" max="8708" width="31.44140625" style="40" customWidth="1"/>
-    <col min="8709" max="8709" width="31.21875" style="40" customWidth="1"/>
-    <col min="8710" max="8710" width="18.21875" style="40" customWidth="1"/>
-    <col min="8711" max="8960" width="8.88671875" style="40"/>
-    <col min="8961" max="8961" width="7.44140625" style="40" customWidth="1"/>
-    <col min="8962" max="8962" width="29.88671875" style="40" customWidth="1"/>
-    <col min="8963" max="8963" width="35.6640625" style="40" customWidth="1"/>
-    <col min="8964" max="8964" width="31.44140625" style="40" customWidth="1"/>
-    <col min="8965" max="8965" width="31.21875" style="40" customWidth="1"/>
-    <col min="8966" max="8966" width="18.21875" style="40" customWidth="1"/>
-    <col min="8967" max="9216" width="8.88671875" style="40"/>
-    <col min="9217" max="9217" width="7.44140625" style="40" customWidth="1"/>
-    <col min="9218" max="9218" width="29.88671875" style="40" customWidth="1"/>
-    <col min="9219" max="9219" width="35.6640625" style="40" customWidth="1"/>
-    <col min="9220" max="9220" width="31.44140625" style="40" customWidth="1"/>
-    <col min="9221" max="9221" width="31.21875" style="40" customWidth="1"/>
-    <col min="9222" max="9222" width="18.21875" style="40" customWidth="1"/>
-    <col min="9223" max="9472" width="8.88671875" style="40"/>
-    <col min="9473" max="9473" width="7.44140625" style="40" customWidth="1"/>
-    <col min="9474" max="9474" width="29.88671875" style="40" customWidth="1"/>
-    <col min="9475" max="9475" width="35.6640625" style="40" customWidth="1"/>
-    <col min="9476" max="9476" width="31.44140625" style="40" customWidth="1"/>
-    <col min="9477" max="9477" width="31.21875" style="40" customWidth="1"/>
-    <col min="9478" max="9478" width="18.21875" style="40" customWidth="1"/>
-    <col min="9479" max="9728" width="8.88671875" style="40"/>
-    <col min="9729" max="9729" width="7.44140625" style="40" customWidth="1"/>
-    <col min="9730" max="9730" width="29.88671875" style="40" customWidth="1"/>
-    <col min="9731" max="9731" width="35.6640625" style="40" customWidth="1"/>
-    <col min="9732" max="9732" width="31.44140625" style="40" customWidth="1"/>
-    <col min="9733" max="9733" width="31.21875" style="40" customWidth="1"/>
-    <col min="9734" max="9734" width="18.21875" style="40" customWidth="1"/>
-    <col min="9735" max="9984" width="8.88671875" style="40"/>
-    <col min="9985" max="9985" width="7.44140625" style="40" customWidth="1"/>
-    <col min="9986" max="9986" width="29.88671875" style="40" customWidth="1"/>
-    <col min="9987" max="9987" width="35.6640625" style="40" customWidth="1"/>
-    <col min="9988" max="9988" width="31.44140625" style="40" customWidth="1"/>
-    <col min="9989" max="9989" width="31.21875" style="40" customWidth="1"/>
-    <col min="9990" max="9990" width="18.21875" style="40" customWidth="1"/>
-    <col min="9991" max="10240" width="8.88671875" style="40"/>
-    <col min="10241" max="10241" width="7.44140625" style="40" customWidth="1"/>
-    <col min="10242" max="10242" width="29.88671875" style="40" customWidth="1"/>
-    <col min="10243" max="10243" width="35.6640625" style="40" customWidth="1"/>
-    <col min="10244" max="10244" width="31.44140625" style="40" customWidth="1"/>
-    <col min="10245" max="10245" width="31.21875" style="40" customWidth="1"/>
-    <col min="10246" max="10246" width="18.21875" style="40" customWidth="1"/>
-    <col min="10247" max="10496" width="8.88671875" style="40"/>
-    <col min="10497" max="10497" width="7.44140625" style="40" customWidth="1"/>
-    <col min="10498" max="10498" width="29.88671875" style="40" customWidth="1"/>
-    <col min="10499" max="10499" width="35.6640625" style="40" customWidth="1"/>
-    <col min="10500" max="10500" width="31.44140625" style="40" customWidth="1"/>
-    <col min="10501" max="10501" width="31.21875" style="40" customWidth="1"/>
-    <col min="10502" max="10502" width="18.21875" style="40" customWidth="1"/>
-    <col min="10503" max="10752" width="8.88671875" style="40"/>
-    <col min="10753" max="10753" width="7.44140625" style="40" customWidth="1"/>
-    <col min="10754" max="10754" width="29.88671875" style="40" customWidth="1"/>
-    <col min="10755" max="10755" width="35.6640625" style="40" customWidth="1"/>
-    <col min="10756" max="10756" width="31.44140625" style="40" customWidth="1"/>
-    <col min="10757" max="10757" width="31.21875" style="40" customWidth="1"/>
-    <col min="10758" max="10758" width="18.21875" style="40" customWidth="1"/>
-    <col min="10759" max="11008" width="8.88671875" style="40"/>
-    <col min="11009" max="11009" width="7.44140625" style="40" customWidth="1"/>
-    <col min="11010" max="11010" width="29.88671875" style="40" customWidth="1"/>
-    <col min="11011" max="11011" width="35.6640625" style="40" customWidth="1"/>
-    <col min="11012" max="11012" width="31.44140625" style="40" customWidth="1"/>
-    <col min="11013" max="11013" width="31.21875" style="40" customWidth="1"/>
-    <col min="11014" max="11014" width="18.21875" style="40" customWidth="1"/>
-    <col min="11015" max="11264" width="8.88671875" style="40"/>
-    <col min="11265" max="11265" width="7.44140625" style="40" customWidth="1"/>
-    <col min="11266" max="11266" width="29.88671875" style="40" customWidth="1"/>
-    <col min="11267" max="11267" width="35.6640625" style="40" customWidth="1"/>
-    <col min="11268" max="11268" width="31.44140625" style="40" customWidth="1"/>
-    <col min="11269" max="11269" width="31.21875" style="40" customWidth="1"/>
-    <col min="11270" max="11270" width="18.21875" style="40" customWidth="1"/>
-    <col min="11271" max="11520" width="8.88671875" style="40"/>
-    <col min="11521" max="11521" width="7.44140625" style="40" customWidth="1"/>
-    <col min="11522" max="11522" width="29.88671875" style="40" customWidth="1"/>
-    <col min="11523" max="11523" width="35.6640625" style="40" customWidth="1"/>
-    <col min="11524" max="11524" width="31.44140625" style="40" customWidth="1"/>
-    <col min="11525" max="11525" width="31.21875" style="40" customWidth="1"/>
-    <col min="11526" max="11526" width="18.21875" style="40" customWidth="1"/>
-    <col min="11527" max="11776" width="8.88671875" style="40"/>
-    <col min="11777" max="11777" width="7.44140625" style="40" customWidth="1"/>
-    <col min="11778" max="11778" width="29.88671875" style="40" customWidth="1"/>
-    <col min="11779" max="11779" width="35.6640625" style="40" customWidth="1"/>
-    <col min="11780" max="11780" width="31.44140625" style="40" customWidth="1"/>
-    <col min="11781" max="11781" width="31.21875" style="40" customWidth="1"/>
-    <col min="11782" max="11782" width="18.21875" style="40" customWidth="1"/>
-    <col min="11783" max="12032" width="8.88671875" style="40"/>
-    <col min="12033" max="12033" width="7.44140625" style="40" customWidth="1"/>
-    <col min="12034" max="12034" width="29.88671875" style="40" customWidth="1"/>
-    <col min="12035" max="12035" width="35.6640625" style="40" customWidth="1"/>
-    <col min="12036" max="12036" width="31.44140625" style="40" customWidth="1"/>
-    <col min="12037" max="12037" width="31.21875" style="40" customWidth="1"/>
-    <col min="12038" max="12038" width="18.21875" style="40" customWidth="1"/>
-    <col min="12039" max="12288" width="8.88671875" style="40"/>
-    <col min="12289" max="12289" width="7.44140625" style="40" customWidth="1"/>
-    <col min="12290" max="12290" width="29.88671875" style="40" customWidth="1"/>
-    <col min="12291" max="12291" width="35.6640625" style="40" customWidth="1"/>
-    <col min="12292" max="12292" width="31.44140625" style="40" customWidth="1"/>
-    <col min="12293" max="12293" width="31.21875" style="40" customWidth="1"/>
-    <col min="12294" max="12294" width="18.21875" style="40" customWidth="1"/>
-    <col min="12295" max="12544" width="8.88671875" style="40"/>
-    <col min="12545" max="12545" width="7.44140625" style="40" customWidth="1"/>
-    <col min="12546" max="12546" width="29.88671875" style="40" customWidth="1"/>
-    <col min="12547" max="12547" width="35.6640625" style="40" customWidth="1"/>
-    <col min="12548" max="12548" width="31.44140625" style="40" customWidth="1"/>
-    <col min="12549" max="12549" width="31.21875" style="40" customWidth="1"/>
-    <col min="12550" max="12550" width="18.21875" style="40" customWidth="1"/>
-    <col min="12551" max="12800" width="8.88671875" style="40"/>
-    <col min="12801" max="12801" width="7.44140625" style="40" customWidth="1"/>
-    <col min="12802" max="12802" width="29.88671875" style="40" customWidth="1"/>
-    <col min="12803" max="12803" width="35.6640625" style="40" customWidth="1"/>
-    <col min="12804" max="12804" width="31.44140625" style="40" customWidth="1"/>
-    <col min="12805" max="12805" width="31.21875" style="40" customWidth="1"/>
-    <col min="12806" max="12806" width="18.21875" style="40" customWidth="1"/>
-    <col min="12807" max="13056" width="8.88671875" style="40"/>
-    <col min="13057" max="13057" width="7.44140625" style="40" customWidth="1"/>
-    <col min="13058" max="13058" width="29.88671875" style="40" customWidth="1"/>
-    <col min="13059" max="13059" width="35.6640625" style="40" customWidth="1"/>
-    <col min="13060" max="13060" width="31.44140625" style="40" customWidth="1"/>
-    <col min="13061" max="13061" width="31.21875" style="40" customWidth="1"/>
-    <col min="13062" max="13062" width="18.21875" style="40" customWidth="1"/>
-    <col min="13063" max="13312" width="8.88671875" style="40"/>
-    <col min="13313" max="13313" width="7.44140625" style="40" customWidth="1"/>
-    <col min="13314" max="13314" width="29.88671875" style="40" customWidth="1"/>
-    <col min="13315" max="13315" width="35.6640625" style="40" customWidth="1"/>
-    <col min="13316" max="13316" width="31.44140625" style="40" customWidth="1"/>
-    <col min="13317" max="13317" width="31.21875" style="40" customWidth="1"/>
-    <col min="13318" max="13318" width="18.21875" style="40" customWidth="1"/>
-    <col min="13319" max="13568" width="8.88671875" style="40"/>
-    <col min="13569" max="13569" width="7.44140625" style="40" customWidth="1"/>
-    <col min="13570" max="13570" width="29.88671875" style="40" customWidth="1"/>
-    <col min="13571" max="13571" width="35.6640625" style="40" customWidth="1"/>
-    <col min="13572" max="13572" width="31.44140625" style="40" customWidth="1"/>
-    <col min="13573" max="13573" width="31.21875" style="40" customWidth="1"/>
-    <col min="13574" max="13574" width="18.21875" style="40" customWidth="1"/>
-    <col min="13575" max="13824" width="8.88671875" style="40"/>
-    <col min="13825" max="13825" width="7.44140625" style="40" customWidth="1"/>
-    <col min="13826" max="13826" width="29.88671875" style="40" customWidth="1"/>
-    <col min="13827" max="13827" width="35.6640625" style="40" customWidth="1"/>
-    <col min="13828" max="13828" width="31.44140625" style="40" customWidth="1"/>
-    <col min="13829" max="13829" width="31.21875" style="40" customWidth="1"/>
-    <col min="13830" max="13830" width="18.21875" style="40" customWidth="1"/>
-    <col min="13831" max="14080" width="8.88671875" style="40"/>
-    <col min="14081" max="14081" width="7.44140625" style="40" customWidth="1"/>
-    <col min="14082" max="14082" width="29.88671875" style="40" customWidth="1"/>
-    <col min="14083" max="14083" width="35.6640625" style="40" customWidth="1"/>
-    <col min="14084" max="14084" width="31.44140625" style="40" customWidth="1"/>
-    <col min="14085" max="14085" width="31.21875" style="40" customWidth="1"/>
-    <col min="14086" max="14086" width="18.21875" style="40" customWidth="1"/>
-    <col min="14087" max="14336" width="8.88671875" style="40"/>
-    <col min="14337" max="14337" width="7.44140625" style="40" customWidth="1"/>
-    <col min="14338" max="14338" width="29.88671875" style="40" customWidth="1"/>
-    <col min="14339" max="14339" width="35.6640625" style="40" customWidth="1"/>
-    <col min="14340" max="14340" width="31.44140625" style="40" customWidth="1"/>
-    <col min="14341" max="14341" width="31.21875" style="40" customWidth="1"/>
-    <col min="14342" max="14342" width="18.21875" style="40" customWidth="1"/>
-    <col min="14343" max="14592" width="8.88671875" style="40"/>
-    <col min="14593" max="14593" width="7.44140625" style="40" customWidth="1"/>
-    <col min="14594" max="14594" width="29.88671875" style="40" customWidth="1"/>
-    <col min="14595" max="14595" width="35.6640625" style="40" customWidth="1"/>
-    <col min="14596" max="14596" width="31.44140625" style="40" customWidth="1"/>
-    <col min="14597" max="14597" width="31.21875" style="40" customWidth="1"/>
-    <col min="14598" max="14598" width="18.21875" style="40" customWidth="1"/>
-    <col min="14599" max="14848" width="8.88671875" style="40"/>
-    <col min="14849" max="14849" width="7.44140625" style="40" customWidth="1"/>
-    <col min="14850" max="14850" width="29.88671875" style="40" customWidth="1"/>
-    <col min="14851" max="14851" width="35.6640625" style="40" customWidth="1"/>
-    <col min="14852" max="14852" width="31.44140625" style="40" customWidth="1"/>
-    <col min="14853" max="14853" width="31.21875" style="40" customWidth="1"/>
-    <col min="14854" max="14854" width="18.21875" style="40" customWidth="1"/>
-    <col min="14855" max="15104" width="8.88671875" style="40"/>
-    <col min="15105" max="15105" width="7.44140625" style="40" customWidth="1"/>
-    <col min="15106" max="15106" width="29.88671875" style="40" customWidth="1"/>
-    <col min="15107" max="15107" width="35.6640625" style="40" customWidth="1"/>
-    <col min="15108" max="15108" width="31.44140625" style="40" customWidth="1"/>
-    <col min="15109" max="15109" width="31.21875" style="40" customWidth="1"/>
-    <col min="15110" max="15110" width="18.21875" style="40" customWidth="1"/>
-    <col min="15111" max="15360" width="8.88671875" style="40"/>
-    <col min="15361" max="15361" width="7.44140625" style="40" customWidth="1"/>
-    <col min="15362" max="15362" width="29.88671875" style="40" customWidth="1"/>
-    <col min="15363" max="15363" width="35.6640625" style="40" customWidth="1"/>
-    <col min="15364" max="15364" width="31.44140625" style="40" customWidth="1"/>
-    <col min="15365" max="15365" width="31.21875" style="40" customWidth="1"/>
-    <col min="15366" max="15366" width="18.21875" style="40" customWidth="1"/>
-    <col min="15367" max="15616" width="8.88671875" style="40"/>
-    <col min="15617" max="15617" width="7.44140625" style="40" customWidth="1"/>
-    <col min="15618" max="15618" width="29.88671875" style="40" customWidth="1"/>
-    <col min="15619" max="15619" width="35.6640625" style="40" customWidth="1"/>
-    <col min="15620" max="15620" width="31.44140625" style="40" customWidth="1"/>
-    <col min="15621" max="15621" width="31.21875" style="40" customWidth="1"/>
-    <col min="15622" max="15622" width="18.21875" style="40" customWidth="1"/>
-    <col min="15623" max="15872" width="8.88671875" style="40"/>
-    <col min="15873" max="15873" width="7.44140625" style="40" customWidth="1"/>
-    <col min="15874" max="15874" width="29.88671875" style="40" customWidth="1"/>
-    <col min="15875" max="15875" width="35.6640625" style="40" customWidth="1"/>
-    <col min="15876" max="15876" width="31.44140625" style="40" customWidth="1"/>
-    <col min="15877" max="15877" width="31.21875" style="40" customWidth="1"/>
-    <col min="15878" max="15878" width="18.21875" style="40" customWidth="1"/>
-    <col min="15879" max="16128" width="8.88671875" style="40"/>
-    <col min="16129" max="16129" width="7.44140625" style="40" customWidth="1"/>
-    <col min="16130" max="16130" width="29.88671875" style="40" customWidth="1"/>
-    <col min="16131" max="16131" width="35.6640625" style="40" customWidth="1"/>
-    <col min="16132" max="16132" width="31.44140625" style="40" customWidth="1"/>
-    <col min="16133" max="16133" width="31.21875" style="40" customWidth="1"/>
-    <col min="16134" max="16134" width="18.21875" style="40" customWidth="1"/>
-    <col min="16135" max="16384" width="8.88671875" style="40"/>
+    <col min="1" max="1" width="7.44140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="29" customWidth="1"/>
+    <col min="7" max="256" width="8.88671875" style="29"/>
+    <col min="257" max="257" width="7.44140625" style="29" customWidth="1"/>
+    <col min="258" max="258" width="29.88671875" style="29" customWidth="1"/>
+    <col min="259" max="259" width="35.6640625" style="29" customWidth="1"/>
+    <col min="260" max="260" width="31.44140625" style="29" customWidth="1"/>
+    <col min="261" max="261" width="31.21875" style="29" customWidth="1"/>
+    <col min="262" max="262" width="18.21875" style="29" customWidth="1"/>
+    <col min="263" max="512" width="8.88671875" style="29"/>
+    <col min="513" max="513" width="7.44140625" style="29" customWidth="1"/>
+    <col min="514" max="514" width="29.88671875" style="29" customWidth="1"/>
+    <col min="515" max="515" width="35.6640625" style="29" customWidth="1"/>
+    <col min="516" max="516" width="31.44140625" style="29" customWidth="1"/>
+    <col min="517" max="517" width="31.21875" style="29" customWidth="1"/>
+    <col min="518" max="518" width="18.21875" style="29" customWidth="1"/>
+    <col min="519" max="768" width="8.88671875" style="29"/>
+    <col min="769" max="769" width="7.44140625" style="29" customWidth="1"/>
+    <col min="770" max="770" width="29.88671875" style="29" customWidth="1"/>
+    <col min="771" max="771" width="35.6640625" style="29" customWidth="1"/>
+    <col min="772" max="772" width="31.44140625" style="29" customWidth="1"/>
+    <col min="773" max="773" width="31.21875" style="29" customWidth="1"/>
+    <col min="774" max="774" width="18.21875" style="29" customWidth="1"/>
+    <col min="775" max="1024" width="8.88671875" style="29"/>
+    <col min="1025" max="1025" width="7.44140625" style="29" customWidth="1"/>
+    <col min="1026" max="1026" width="29.88671875" style="29" customWidth="1"/>
+    <col min="1027" max="1027" width="35.6640625" style="29" customWidth="1"/>
+    <col min="1028" max="1028" width="31.44140625" style="29" customWidth="1"/>
+    <col min="1029" max="1029" width="31.21875" style="29" customWidth="1"/>
+    <col min="1030" max="1030" width="18.21875" style="29" customWidth="1"/>
+    <col min="1031" max="1280" width="8.88671875" style="29"/>
+    <col min="1281" max="1281" width="7.44140625" style="29" customWidth="1"/>
+    <col min="1282" max="1282" width="29.88671875" style="29" customWidth="1"/>
+    <col min="1283" max="1283" width="35.6640625" style="29" customWidth="1"/>
+    <col min="1284" max="1284" width="31.44140625" style="29" customWidth="1"/>
+    <col min="1285" max="1285" width="31.21875" style="29" customWidth="1"/>
+    <col min="1286" max="1286" width="18.21875" style="29" customWidth="1"/>
+    <col min="1287" max="1536" width="8.88671875" style="29"/>
+    <col min="1537" max="1537" width="7.44140625" style="29" customWidth="1"/>
+    <col min="1538" max="1538" width="29.88671875" style="29" customWidth="1"/>
+    <col min="1539" max="1539" width="35.6640625" style="29" customWidth="1"/>
+    <col min="1540" max="1540" width="31.44140625" style="29" customWidth="1"/>
+    <col min="1541" max="1541" width="31.21875" style="29" customWidth="1"/>
+    <col min="1542" max="1542" width="18.21875" style="29" customWidth="1"/>
+    <col min="1543" max="1792" width="8.88671875" style="29"/>
+    <col min="1793" max="1793" width="7.44140625" style="29" customWidth="1"/>
+    <col min="1794" max="1794" width="29.88671875" style="29" customWidth="1"/>
+    <col min="1795" max="1795" width="35.6640625" style="29" customWidth="1"/>
+    <col min="1796" max="1796" width="31.44140625" style="29" customWidth="1"/>
+    <col min="1797" max="1797" width="31.21875" style="29" customWidth="1"/>
+    <col min="1798" max="1798" width="18.21875" style="29" customWidth="1"/>
+    <col min="1799" max="2048" width="8.88671875" style="29"/>
+    <col min="2049" max="2049" width="7.44140625" style="29" customWidth="1"/>
+    <col min="2050" max="2050" width="29.88671875" style="29" customWidth="1"/>
+    <col min="2051" max="2051" width="35.6640625" style="29" customWidth="1"/>
+    <col min="2052" max="2052" width="31.44140625" style="29" customWidth="1"/>
+    <col min="2053" max="2053" width="31.21875" style="29" customWidth="1"/>
+    <col min="2054" max="2054" width="18.21875" style="29" customWidth="1"/>
+    <col min="2055" max="2304" width="8.88671875" style="29"/>
+    <col min="2305" max="2305" width="7.44140625" style="29" customWidth="1"/>
+    <col min="2306" max="2306" width="29.88671875" style="29" customWidth="1"/>
+    <col min="2307" max="2307" width="35.6640625" style="29" customWidth="1"/>
+    <col min="2308" max="2308" width="31.44140625" style="29" customWidth="1"/>
+    <col min="2309" max="2309" width="31.21875" style="29" customWidth="1"/>
+    <col min="2310" max="2310" width="18.21875" style="29" customWidth="1"/>
+    <col min="2311" max="2560" width="8.88671875" style="29"/>
+    <col min="2561" max="2561" width="7.44140625" style="29" customWidth="1"/>
+    <col min="2562" max="2562" width="29.88671875" style="29" customWidth="1"/>
+    <col min="2563" max="2563" width="35.6640625" style="29" customWidth="1"/>
+    <col min="2564" max="2564" width="31.44140625" style="29" customWidth="1"/>
+    <col min="2565" max="2565" width="31.21875" style="29" customWidth="1"/>
+    <col min="2566" max="2566" width="18.21875" style="29" customWidth="1"/>
+    <col min="2567" max="2816" width="8.88671875" style="29"/>
+    <col min="2817" max="2817" width="7.44140625" style="29" customWidth="1"/>
+    <col min="2818" max="2818" width="29.88671875" style="29" customWidth="1"/>
+    <col min="2819" max="2819" width="35.6640625" style="29" customWidth="1"/>
+    <col min="2820" max="2820" width="31.44140625" style="29" customWidth="1"/>
+    <col min="2821" max="2821" width="31.21875" style="29" customWidth="1"/>
+    <col min="2822" max="2822" width="18.21875" style="29" customWidth="1"/>
+    <col min="2823" max="3072" width="8.88671875" style="29"/>
+    <col min="3073" max="3073" width="7.44140625" style="29" customWidth="1"/>
+    <col min="3074" max="3074" width="29.88671875" style="29" customWidth="1"/>
+    <col min="3075" max="3075" width="35.6640625" style="29" customWidth="1"/>
+    <col min="3076" max="3076" width="31.44140625" style="29" customWidth="1"/>
+    <col min="3077" max="3077" width="31.21875" style="29" customWidth="1"/>
+    <col min="3078" max="3078" width="18.21875" style="29" customWidth="1"/>
+    <col min="3079" max="3328" width="8.88671875" style="29"/>
+    <col min="3329" max="3329" width="7.44140625" style="29" customWidth="1"/>
+    <col min="3330" max="3330" width="29.88671875" style="29" customWidth="1"/>
+    <col min="3331" max="3331" width="35.6640625" style="29" customWidth="1"/>
+    <col min="3332" max="3332" width="31.44140625" style="29" customWidth="1"/>
+    <col min="3333" max="3333" width="31.21875" style="29" customWidth="1"/>
+    <col min="3334" max="3334" width="18.21875" style="29" customWidth="1"/>
+    <col min="3335" max="3584" width="8.88671875" style="29"/>
+    <col min="3585" max="3585" width="7.44140625" style="29" customWidth="1"/>
+    <col min="3586" max="3586" width="29.88671875" style="29" customWidth="1"/>
+    <col min="3587" max="3587" width="35.6640625" style="29" customWidth="1"/>
+    <col min="3588" max="3588" width="31.44140625" style="29" customWidth="1"/>
+    <col min="3589" max="3589" width="31.21875" style="29" customWidth="1"/>
+    <col min="3590" max="3590" width="18.21875" style="29" customWidth="1"/>
+    <col min="3591" max="3840" width="8.88671875" style="29"/>
+    <col min="3841" max="3841" width="7.44140625" style="29" customWidth="1"/>
+    <col min="3842" max="3842" width="29.88671875" style="29" customWidth="1"/>
+    <col min="3843" max="3843" width="35.6640625" style="29" customWidth="1"/>
+    <col min="3844" max="3844" width="31.44140625" style="29" customWidth="1"/>
+    <col min="3845" max="3845" width="31.21875" style="29" customWidth="1"/>
+    <col min="3846" max="3846" width="18.21875" style="29" customWidth="1"/>
+    <col min="3847" max="4096" width="8.88671875" style="29"/>
+    <col min="4097" max="4097" width="7.44140625" style="29" customWidth="1"/>
+    <col min="4098" max="4098" width="29.88671875" style="29" customWidth="1"/>
+    <col min="4099" max="4099" width="35.6640625" style="29" customWidth="1"/>
+    <col min="4100" max="4100" width="31.44140625" style="29" customWidth="1"/>
+    <col min="4101" max="4101" width="31.21875" style="29" customWidth="1"/>
+    <col min="4102" max="4102" width="18.21875" style="29" customWidth="1"/>
+    <col min="4103" max="4352" width="8.88671875" style="29"/>
+    <col min="4353" max="4353" width="7.44140625" style="29" customWidth="1"/>
+    <col min="4354" max="4354" width="29.88671875" style="29" customWidth="1"/>
+    <col min="4355" max="4355" width="35.6640625" style="29" customWidth="1"/>
+    <col min="4356" max="4356" width="31.44140625" style="29" customWidth="1"/>
+    <col min="4357" max="4357" width="31.21875" style="29" customWidth="1"/>
+    <col min="4358" max="4358" width="18.21875" style="29" customWidth="1"/>
+    <col min="4359" max="4608" width="8.88671875" style="29"/>
+    <col min="4609" max="4609" width="7.44140625" style="29" customWidth="1"/>
+    <col min="4610" max="4610" width="29.88671875" style="29" customWidth="1"/>
+    <col min="4611" max="4611" width="35.6640625" style="29" customWidth="1"/>
+    <col min="4612" max="4612" width="31.44140625" style="29" customWidth="1"/>
+    <col min="4613" max="4613" width="31.21875" style="29" customWidth="1"/>
+    <col min="4614" max="4614" width="18.21875" style="29" customWidth="1"/>
+    <col min="4615" max="4864" width="8.88671875" style="29"/>
+    <col min="4865" max="4865" width="7.44140625" style="29" customWidth="1"/>
+    <col min="4866" max="4866" width="29.88671875" style="29" customWidth="1"/>
+    <col min="4867" max="4867" width="35.6640625" style="29" customWidth="1"/>
+    <col min="4868" max="4868" width="31.44140625" style="29" customWidth="1"/>
+    <col min="4869" max="4869" width="31.21875" style="29" customWidth="1"/>
+    <col min="4870" max="4870" width="18.21875" style="29" customWidth="1"/>
+    <col min="4871" max="5120" width="8.88671875" style="29"/>
+    <col min="5121" max="5121" width="7.44140625" style="29" customWidth="1"/>
+    <col min="5122" max="5122" width="29.88671875" style="29" customWidth="1"/>
+    <col min="5123" max="5123" width="35.6640625" style="29" customWidth="1"/>
+    <col min="5124" max="5124" width="31.44140625" style="29" customWidth="1"/>
+    <col min="5125" max="5125" width="31.21875" style="29" customWidth="1"/>
+    <col min="5126" max="5126" width="18.21875" style="29" customWidth="1"/>
+    <col min="5127" max="5376" width="8.88671875" style="29"/>
+    <col min="5377" max="5377" width="7.44140625" style="29" customWidth="1"/>
+    <col min="5378" max="5378" width="29.88671875" style="29" customWidth="1"/>
+    <col min="5379" max="5379" width="35.6640625" style="29" customWidth="1"/>
+    <col min="5380" max="5380" width="31.44140625" style="29" customWidth="1"/>
+    <col min="5381" max="5381" width="31.21875" style="29" customWidth="1"/>
+    <col min="5382" max="5382" width="18.21875" style="29" customWidth="1"/>
+    <col min="5383" max="5632" width="8.88671875" style="29"/>
+    <col min="5633" max="5633" width="7.44140625" style="29" customWidth="1"/>
+    <col min="5634" max="5634" width="29.88671875" style="29" customWidth="1"/>
+    <col min="5635" max="5635" width="35.6640625" style="29" customWidth="1"/>
+    <col min="5636" max="5636" width="31.44140625" style="29" customWidth="1"/>
+    <col min="5637" max="5637" width="31.21875" style="29" customWidth="1"/>
+    <col min="5638" max="5638" width="18.21875" style="29" customWidth="1"/>
+    <col min="5639" max="5888" width="8.88671875" style="29"/>
+    <col min="5889" max="5889" width="7.44140625" style="29" customWidth="1"/>
+    <col min="5890" max="5890" width="29.88671875" style="29" customWidth="1"/>
+    <col min="5891" max="5891" width="35.6640625" style="29" customWidth="1"/>
+    <col min="5892" max="5892" width="31.44140625" style="29" customWidth="1"/>
+    <col min="5893" max="5893" width="31.21875" style="29" customWidth="1"/>
+    <col min="5894" max="5894" width="18.21875" style="29" customWidth="1"/>
+    <col min="5895" max="6144" width="8.88671875" style="29"/>
+    <col min="6145" max="6145" width="7.44140625" style="29" customWidth="1"/>
+    <col min="6146" max="6146" width="29.88671875" style="29" customWidth="1"/>
+    <col min="6147" max="6147" width="35.6640625" style="29" customWidth="1"/>
+    <col min="6148" max="6148" width="31.44140625" style="29" customWidth="1"/>
+    <col min="6149" max="6149" width="31.21875" style="29" customWidth="1"/>
+    <col min="6150" max="6150" width="18.21875" style="29" customWidth="1"/>
+    <col min="6151" max="6400" width="8.88671875" style="29"/>
+    <col min="6401" max="6401" width="7.44140625" style="29" customWidth="1"/>
+    <col min="6402" max="6402" width="29.88671875" style="29" customWidth="1"/>
+    <col min="6403" max="6403" width="35.6640625" style="29" customWidth="1"/>
+    <col min="6404" max="6404" width="31.44140625" style="29" customWidth="1"/>
+    <col min="6405" max="6405" width="31.21875" style="29" customWidth="1"/>
+    <col min="6406" max="6406" width="18.21875" style="29" customWidth="1"/>
+    <col min="6407" max="6656" width="8.88671875" style="29"/>
+    <col min="6657" max="6657" width="7.44140625" style="29" customWidth="1"/>
+    <col min="6658" max="6658" width="29.88671875" style="29" customWidth="1"/>
+    <col min="6659" max="6659" width="35.6640625" style="29" customWidth="1"/>
+    <col min="6660" max="6660" width="31.44140625" style="29" customWidth="1"/>
+    <col min="6661" max="6661" width="31.21875" style="29" customWidth="1"/>
+    <col min="6662" max="6662" width="18.21875" style="29" customWidth="1"/>
+    <col min="6663" max="6912" width="8.88671875" style="29"/>
+    <col min="6913" max="6913" width="7.44140625" style="29" customWidth="1"/>
+    <col min="6914" max="6914" width="29.88671875" style="29" customWidth="1"/>
+    <col min="6915" max="6915" width="35.6640625" style="29" customWidth="1"/>
+    <col min="6916" max="6916" width="31.44140625" style="29" customWidth="1"/>
+    <col min="6917" max="6917" width="31.21875" style="29" customWidth="1"/>
+    <col min="6918" max="6918" width="18.21875" style="29" customWidth="1"/>
+    <col min="6919" max="7168" width="8.88671875" style="29"/>
+    <col min="7169" max="7169" width="7.44140625" style="29" customWidth="1"/>
+    <col min="7170" max="7170" width="29.88671875" style="29" customWidth="1"/>
+    <col min="7171" max="7171" width="35.6640625" style="29" customWidth="1"/>
+    <col min="7172" max="7172" width="31.44140625" style="29" customWidth="1"/>
+    <col min="7173" max="7173" width="31.21875" style="29" customWidth="1"/>
+    <col min="7174" max="7174" width="18.21875" style="29" customWidth="1"/>
+    <col min="7175" max="7424" width="8.88671875" style="29"/>
+    <col min="7425" max="7425" width="7.44140625" style="29" customWidth="1"/>
+    <col min="7426" max="7426" width="29.88671875" style="29" customWidth="1"/>
+    <col min="7427" max="7427" width="35.6640625" style="29" customWidth="1"/>
+    <col min="7428" max="7428" width="31.44140625" style="29" customWidth="1"/>
+    <col min="7429" max="7429" width="31.21875" style="29" customWidth="1"/>
+    <col min="7430" max="7430" width="18.21875" style="29" customWidth="1"/>
+    <col min="7431" max="7680" width="8.88671875" style="29"/>
+    <col min="7681" max="7681" width="7.44140625" style="29" customWidth="1"/>
+    <col min="7682" max="7682" width="29.88671875" style="29" customWidth="1"/>
+    <col min="7683" max="7683" width="35.6640625" style="29" customWidth="1"/>
+    <col min="7684" max="7684" width="31.44140625" style="29" customWidth="1"/>
+    <col min="7685" max="7685" width="31.21875" style="29" customWidth="1"/>
+    <col min="7686" max="7686" width="18.21875" style="29" customWidth="1"/>
+    <col min="7687" max="7936" width="8.88671875" style="29"/>
+    <col min="7937" max="7937" width="7.44140625" style="29" customWidth="1"/>
+    <col min="7938" max="7938" width="29.88671875" style="29" customWidth="1"/>
+    <col min="7939" max="7939" width="35.6640625" style="29" customWidth="1"/>
+    <col min="7940" max="7940" width="31.44140625" style="29" customWidth="1"/>
+    <col min="7941" max="7941" width="31.21875" style="29" customWidth="1"/>
+    <col min="7942" max="7942" width="18.21875" style="29" customWidth="1"/>
+    <col min="7943" max="8192" width="8.88671875" style="29"/>
+    <col min="8193" max="8193" width="7.44140625" style="29" customWidth="1"/>
+    <col min="8194" max="8194" width="29.88671875" style="29" customWidth="1"/>
+    <col min="8195" max="8195" width="35.6640625" style="29" customWidth="1"/>
+    <col min="8196" max="8196" width="31.44140625" style="29" customWidth="1"/>
+    <col min="8197" max="8197" width="31.21875" style="29" customWidth="1"/>
+    <col min="8198" max="8198" width="18.21875" style="29" customWidth="1"/>
+    <col min="8199" max="8448" width="8.88671875" style="29"/>
+    <col min="8449" max="8449" width="7.44140625" style="29" customWidth="1"/>
+    <col min="8450" max="8450" width="29.88671875" style="29" customWidth="1"/>
+    <col min="8451" max="8451" width="35.6640625" style="29" customWidth="1"/>
+    <col min="8452" max="8452" width="31.44140625" style="29" customWidth="1"/>
+    <col min="8453" max="8453" width="31.21875" style="29" customWidth="1"/>
+    <col min="8454" max="8454" width="18.21875" style="29" customWidth="1"/>
+    <col min="8455" max="8704" width="8.88671875" style="29"/>
+    <col min="8705" max="8705" width="7.44140625" style="29" customWidth="1"/>
+    <col min="8706" max="8706" width="29.88671875" style="29" customWidth="1"/>
+    <col min="8707" max="8707" width="35.6640625" style="29" customWidth="1"/>
+    <col min="8708" max="8708" width="31.44140625" style="29" customWidth="1"/>
+    <col min="8709" max="8709" width="31.21875" style="29" customWidth="1"/>
+    <col min="8710" max="8710" width="18.21875" style="29" customWidth="1"/>
+    <col min="8711" max="8960" width="8.88671875" style="29"/>
+    <col min="8961" max="8961" width="7.44140625" style="29" customWidth="1"/>
+    <col min="8962" max="8962" width="29.88671875" style="29" customWidth="1"/>
+    <col min="8963" max="8963" width="35.6640625" style="29" customWidth="1"/>
+    <col min="8964" max="8964" width="31.44140625" style="29" customWidth="1"/>
+    <col min="8965" max="8965" width="31.21875" style="29" customWidth="1"/>
+    <col min="8966" max="8966" width="18.21875" style="29" customWidth="1"/>
+    <col min="8967" max="9216" width="8.88671875" style="29"/>
+    <col min="9217" max="9217" width="7.44140625" style="29" customWidth="1"/>
+    <col min="9218" max="9218" width="29.88671875" style="29" customWidth="1"/>
+    <col min="9219" max="9219" width="35.6640625" style="29" customWidth="1"/>
+    <col min="9220" max="9220" width="31.44140625" style="29" customWidth="1"/>
+    <col min="9221" max="9221" width="31.21875" style="29" customWidth="1"/>
+    <col min="9222" max="9222" width="18.21875" style="29" customWidth="1"/>
+    <col min="9223" max="9472" width="8.88671875" style="29"/>
+    <col min="9473" max="9473" width="7.44140625" style="29" customWidth="1"/>
+    <col min="9474" max="9474" width="29.88671875" style="29" customWidth="1"/>
+    <col min="9475" max="9475" width="35.6640625" style="29" customWidth="1"/>
+    <col min="9476" max="9476" width="31.44140625" style="29" customWidth="1"/>
+    <col min="9477" max="9477" width="31.21875" style="29" customWidth="1"/>
+    <col min="9478" max="9478" width="18.21875" style="29" customWidth="1"/>
+    <col min="9479" max="9728" width="8.88671875" style="29"/>
+    <col min="9729" max="9729" width="7.44140625" style="29" customWidth="1"/>
+    <col min="9730" max="9730" width="29.88671875" style="29" customWidth="1"/>
+    <col min="9731" max="9731" width="35.6640625" style="29" customWidth="1"/>
+    <col min="9732" max="9732" width="31.44140625" style="29" customWidth="1"/>
+    <col min="9733" max="9733" width="31.21875" style="29" customWidth="1"/>
+    <col min="9734" max="9734" width="18.21875" style="29" customWidth="1"/>
+    <col min="9735" max="9984" width="8.88671875" style="29"/>
+    <col min="9985" max="9985" width="7.44140625" style="29" customWidth="1"/>
+    <col min="9986" max="9986" width="29.88671875" style="29" customWidth="1"/>
+    <col min="9987" max="9987" width="35.6640625" style="29" customWidth="1"/>
+    <col min="9988" max="9988" width="31.44140625" style="29" customWidth="1"/>
+    <col min="9989" max="9989" width="31.21875" style="29" customWidth="1"/>
+    <col min="9990" max="9990" width="18.21875" style="29" customWidth="1"/>
+    <col min="9991" max="10240" width="8.88671875" style="29"/>
+    <col min="10241" max="10241" width="7.44140625" style="29" customWidth="1"/>
+    <col min="10242" max="10242" width="29.88671875" style="29" customWidth="1"/>
+    <col min="10243" max="10243" width="35.6640625" style="29" customWidth="1"/>
+    <col min="10244" max="10244" width="31.44140625" style="29" customWidth="1"/>
+    <col min="10245" max="10245" width="31.21875" style="29" customWidth="1"/>
+    <col min="10246" max="10246" width="18.21875" style="29" customWidth="1"/>
+    <col min="10247" max="10496" width="8.88671875" style="29"/>
+    <col min="10497" max="10497" width="7.44140625" style="29" customWidth="1"/>
+    <col min="10498" max="10498" width="29.88671875" style="29" customWidth="1"/>
+    <col min="10499" max="10499" width="35.6640625" style="29" customWidth="1"/>
+    <col min="10500" max="10500" width="31.44140625" style="29" customWidth="1"/>
+    <col min="10501" max="10501" width="31.21875" style="29" customWidth="1"/>
+    <col min="10502" max="10502" width="18.21875" style="29" customWidth="1"/>
+    <col min="10503" max="10752" width="8.88671875" style="29"/>
+    <col min="10753" max="10753" width="7.44140625" style="29" customWidth="1"/>
+    <col min="10754" max="10754" width="29.88671875" style="29" customWidth="1"/>
+    <col min="10755" max="10755" width="35.6640625" style="29" customWidth="1"/>
+    <col min="10756" max="10756" width="31.44140625" style="29" customWidth="1"/>
+    <col min="10757" max="10757" width="31.21875" style="29" customWidth="1"/>
+    <col min="10758" max="10758" width="18.21875" style="29" customWidth="1"/>
+    <col min="10759" max="11008" width="8.88671875" style="29"/>
+    <col min="11009" max="11009" width="7.44140625" style="29" customWidth="1"/>
+    <col min="11010" max="11010" width="29.88671875" style="29" customWidth="1"/>
+    <col min="11011" max="11011" width="35.6640625" style="29" customWidth="1"/>
+    <col min="11012" max="11012" width="31.44140625" style="29" customWidth="1"/>
+    <col min="11013" max="11013" width="31.21875" style="29" customWidth="1"/>
+    <col min="11014" max="11014" width="18.21875" style="29" customWidth="1"/>
+    <col min="11015" max="11264" width="8.88671875" style="29"/>
+    <col min="11265" max="11265" width="7.44140625" style="29" customWidth="1"/>
+    <col min="11266" max="11266" width="29.88671875" style="29" customWidth="1"/>
+    <col min="11267" max="11267" width="35.6640625" style="29" customWidth="1"/>
+    <col min="11268" max="11268" width="31.44140625" style="29" customWidth="1"/>
+    <col min="11269" max="11269" width="31.21875" style="29" customWidth="1"/>
+    <col min="11270" max="11270" width="18.21875" style="29" customWidth="1"/>
+    <col min="11271" max="11520" width="8.88671875" style="29"/>
+    <col min="11521" max="11521" width="7.44140625" style="29" customWidth="1"/>
+    <col min="11522" max="11522" width="29.88671875" style="29" customWidth="1"/>
+    <col min="11523" max="11523" width="35.6640625" style="29" customWidth="1"/>
+    <col min="11524" max="11524" width="31.44140625" style="29" customWidth="1"/>
+    <col min="11525" max="11525" width="31.21875" style="29" customWidth="1"/>
+    <col min="11526" max="11526" width="18.21875" style="29" customWidth="1"/>
+    <col min="11527" max="11776" width="8.88671875" style="29"/>
+    <col min="11777" max="11777" width="7.44140625" style="29" customWidth="1"/>
+    <col min="11778" max="11778" width="29.88671875" style="29" customWidth="1"/>
+    <col min="11779" max="11779" width="35.6640625" style="29" customWidth="1"/>
+    <col min="11780" max="11780" width="31.44140625" style="29" customWidth="1"/>
+    <col min="11781" max="11781" width="31.21875" style="29" customWidth="1"/>
+    <col min="11782" max="11782" width="18.21875" style="29" customWidth="1"/>
+    <col min="11783" max="12032" width="8.88671875" style="29"/>
+    <col min="12033" max="12033" width="7.44140625" style="29" customWidth="1"/>
+    <col min="12034" max="12034" width="29.88671875" style="29" customWidth="1"/>
+    <col min="12035" max="12035" width="35.6640625" style="29" customWidth="1"/>
+    <col min="12036" max="12036" width="31.44140625" style="29" customWidth="1"/>
+    <col min="12037" max="12037" width="31.21875" style="29" customWidth="1"/>
+    <col min="12038" max="12038" width="18.21875" style="29" customWidth="1"/>
+    <col min="12039" max="12288" width="8.88671875" style="29"/>
+    <col min="12289" max="12289" width="7.44140625" style="29" customWidth="1"/>
+    <col min="12290" max="12290" width="29.88671875" style="29" customWidth="1"/>
+    <col min="12291" max="12291" width="35.6640625" style="29" customWidth="1"/>
+    <col min="12292" max="12292" width="31.44140625" style="29" customWidth="1"/>
+    <col min="12293" max="12293" width="31.21875" style="29" customWidth="1"/>
+    <col min="12294" max="12294" width="18.21875" style="29" customWidth="1"/>
+    <col min="12295" max="12544" width="8.88671875" style="29"/>
+    <col min="12545" max="12545" width="7.44140625" style="29" customWidth="1"/>
+    <col min="12546" max="12546" width="29.88671875" style="29" customWidth="1"/>
+    <col min="12547" max="12547" width="35.6640625" style="29" customWidth="1"/>
+    <col min="12548" max="12548" width="31.44140625" style="29" customWidth="1"/>
+    <col min="12549" max="12549" width="31.21875" style="29" customWidth="1"/>
+    <col min="12550" max="12550" width="18.21875" style="29" customWidth="1"/>
+    <col min="12551" max="12800" width="8.88671875" style="29"/>
+    <col min="12801" max="12801" width="7.44140625" style="29" customWidth="1"/>
+    <col min="12802" max="12802" width="29.88671875" style="29" customWidth="1"/>
+    <col min="12803" max="12803" width="35.6640625" style="29" customWidth="1"/>
+    <col min="12804" max="12804" width="31.44140625" style="29" customWidth="1"/>
+    <col min="12805" max="12805" width="31.21875" style="29" customWidth="1"/>
+    <col min="12806" max="12806" width="18.21875" style="29" customWidth="1"/>
+    <col min="12807" max="13056" width="8.88671875" style="29"/>
+    <col min="13057" max="13057" width="7.44140625" style="29" customWidth="1"/>
+    <col min="13058" max="13058" width="29.88671875" style="29" customWidth="1"/>
+    <col min="13059" max="13059" width="35.6640625" style="29" customWidth="1"/>
+    <col min="13060" max="13060" width="31.44140625" style="29" customWidth="1"/>
+    <col min="13061" max="13061" width="31.21875" style="29" customWidth="1"/>
+    <col min="13062" max="13062" width="18.21875" style="29" customWidth="1"/>
+    <col min="13063" max="13312" width="8.88671875" style="29"/>
+    <col min="13313" max="13313" width="7.44140625" style="29" customWidth="1"/>
+    <col min="13314" max="13314" width="29.88671875" style="29" customWidth="1"/>
+    <col min="13315" max="13315" width="35.6640625" style="29" customWidth="1"/>
+    <col min="13316" max="13316" width="31.44140625" style="29" customWidth="1"/>
+    <col min="13317" max="13317" width="31.21875" style="29" customWidth="1"/>
+    <col min="13318" max="13318" width="18.21875" style="29" customWidth="1"/>
+    <col min="13319" max="13568" width="8.88671875" style="29"/>
+    <col min="13569" max="13569" width="7.44140625" style="29" customWidth="1"/>
+    <col min="13570" max="13570" width="29.88671875" style="29" customWidth="1"/>
+    <col min="13571" max="13571" width="35.6640625" style="29" customWidth="1"/>
+    <col min="13572" max="13572" width="31.44140625" style="29" customWidth="1"/>
+    <col min="13573" max="13573" width="31.21875" style="29" customWidth="1"/>
+    <col min="13574" max="13574" width="18.21875" style="29" customWidth="1"/>
+    <col min="13575" max="13824" width="8.88671875" style="29"/>
+    <col min="13825" max="13825" width="7.44140625" style="29" customWidth="1"/>
+    <col min="13826" max="13826" width="29.88671875" style="29" customWidth="1"/>
+    <col min="13827" max="13827" width="35.6640625" style="29" customWidth="1"/>
+    <col min="13828" max="13828" width="31.44140625" style="29" customWidth="1"/>
+    <col min="13829" max="13829" width="31.21875" style="29" customWidth="1"/>
+    <col min="13830" max="13830" width="18.21875" style="29" customWidth="1"/>
+    <col min="13831" max="14080" width="8.88671875" style="29"/>
+    <col min="14081" max="14081" width="7.44140625" style="29" customWidth="1"/>
+    <col min="14082" max="14082" width="29.88671875" style="29" customWidth="1"/>
+    <col min="14083" max="14083" width="35.6640625" style="29" customWidth="1"/>
+    <col min="14084" max="14084" width="31.44140625" style="29" customWidth="1"/>
+    <col min="14085" max="14085" width="31.21875" style="29" customWidth="1"/>
+    <col min="14086" max="14086" width="18.21875" style="29" customWidth="1"/>
+    <col min="14087" max="14336" width="8.88671875" style="29"/>
+    <col min="14337" max="14337" width="7.44140625" style="29" customWidth="1"/>
+    <col min="14338" max="14338" width="29.88671875" style="29" customWidth="1"/>
+    <col min="14339" max="14339" width="35.6640625" style="29" customWidth="1"/>
+    <col min="14340" max="14340" width="31.44140625" style="29" customWidth="1"/>
+    <col min="14341" max="14341" width="31.21875" style="29" customWidth="1"/>
+    <col min="14342" max="14342" width="18.21875" style="29" customWidth="1"/>
+    <col min="14343" max="14592" width="8.88671875" style="29"/>
+    <col min="14593" max="14593" width="7.44140625" style="29" customWidth="1"/>
+    <col min="14594" max="14594" width="29.88671875" style="29" customWidth="1"/>
+    <col min="14595" max="14595" width="35.6640625" style="29" customWidth="1"/>
+    <col min="14596" max="14596" width="31.44140625" style="29" customWidth="1"/>
+    <col min="14597" max="14597" width="31.21875" style="29" customWidth="1"/>
+    <col min="14598" max="14598" width="18.21875" style="29" customWidth="1"/>
+    <col min="14599" max="14848" width="8.88671875" style="29"/>
+    <col min="14849" max="14849" width="7.44140625" style="29" customWidth="1"/>
+    <col min="14850" max="14850" width="29.88671875" style="29" customWidth="1"/>
+    <col min="14851" max="14851" width="35.6640625" style="29" customWidth="1"/>
+    <col min="14852" max="14852" width="31.44140625" style="29" customWidth="1"/>
+    <col min="14853" max="14853" width="31.21875" style="29" customWidth="1"/>
+    <col min="14854" max="14854" width="18.21875" style="29" customWidth="1"/>
+    <col min="14855" max="15104" width="8.88671875" style="29"/>
+    <col min="15105" max="15105" width="7.44140625" style="29" customWidth="1"/>
+    <col min="15106" max="15106" width="29.88671875" style="29" customWidth="1"/>
+    <col min="15107" max="15107" width="35.6640625" style="29" customWidth="1"/>
+    <col min="15108" max="15108" width="31.44140625" style="29" customWidth="1"/>
+    <col min="15109" max="15109" width="31.21875" style="29" customWidth="1"/>
+    <col min="15110" max="15110" width="18.21875" style="29" customWidth="1"/>
+    <col min="15111" max="15360" width="8.88671875" style="29"/>
+    <col min="15361" max="15361" width="7.44140625" style="29" customWidth="1"/>
+    <col min="15362" max="15362" width="29.88671875" style="29" customWidth="1"/>
+    <col min="15363" max="15363" width="35.6640625" style="29" customWidth="1"/>
+    <col min="15364" max="15364" width="31.44140625" style="29" customWidth="1"/>
+    <col min="15365" max="15365" width="31.21875" style="29" customWidth="1"/>
+    <col min="15366" max="15366" width="18.21875" style="29" customWidth="1"/>
+    <col min="15367" max="15616" width="8.88671875" style="29"/>
+    <col min="15617" max="15617" width="7.44140625" style="29" customWidth="1"/>
+    <col min="15618" max="15618" width="29.88671875" style="29" customWidth="1"/>
+    <col min="15619" max="15619" width="35.6640625" style="29" customWidth="1"/>
+    <col min="15620" max="15620" width="31.44140625" style="29" customWidth="1"/>
+    <col min="15621" max="15621" width="31.21875" style="29" customWidth="1"/>
+    <col min="15622" max="15622" width="18.21875" style="29" customWidth="1"/>
+    <col min="15623" max="15872" width="8.88671875" style="29"/>
+    <col min="15873" max="15873" width="7.44140625" style="29" customWidth="1"/>
+    <col min="15874" max="15874" width="29.88671875" style="29" customWidth="1"/>
+    <col min="15875" max="15875" width="35.6640625" style="29" customWidth="1"/>
+    <col min="15876" max="15876" width="31.44140625" style="29" customWidth="1"/>
+    <col min="15877" max="15877" width="31.21875" style="29" customWidth="1"/>
+    <col min="15878" max="15878" width="18.21875" style="29" customWidth="1"/>
+    <col min="15879" max="16128" width="8.88671875" style="29"/>
+    <col min="16129" max="16129" width="7.44140625" style="29" customWidth="1"/>
+    <col min="16130" max="16130" width="29.88671875" style="29" customWidth="1"/>
+    <col min="16131" max="16131" width="35.6640625" style="29" customWidth="1"/>
+    <col min="16132" max="16132" width="31.44140625" style="29" customWidth="1"/>
+    <col min="16133" max="16133" width="31.21875" style="29" customWidth="1"/>
+    <col min="16134" max="16134" width="18.21875" style="29" customWidth="1"/>
+    <col min="16135" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1">
+      <c r="B1" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="57"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.2" customHeight="1">
+      <c r="B2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="41"/>
-    </row>
-    <row r="2" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.2" customHeight="1">
+      <c r="B4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="C4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="D4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="E4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="47" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="22.8" customHeight="1">
+      <c r="B5" s="34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="C5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="D5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="E5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="51" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="19.2" customHeight="1">
+      <c r="B6" s="34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="C6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="D6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="E6" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" customHeight="1">
+      <c r="B7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="C7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="D7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="E7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="51" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="19.2" customHeight="1">
+      <c r="B8" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="C8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.2" customHeight="1">
+      <c r="B11" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="B12" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="B13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A14" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-    </row>
-    <row r="13" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68" t="s">
+      <c r="B14" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="C14" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="D14" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="E14" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="F14" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="G14" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="69" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A15" s="52">
+        <v>1</v>
+      </c>
+      <c r="B15" s="53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70">
-        <v>1</v>
-      </c>
-      <c r="B15" s="71" t="s">
+      <c r="C15" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="D15" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="E15" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="F15" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="G15" s="53"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A16" s="52">
+        <v>2</v>
+      </c>
+      <c r="B16" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="71"/>
-    </row>
-    <row r="16" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70">
-        <v>2</v>
-      </c>
-      <c r="B16" s="71" t="s">
+      <c r="C16" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="D16" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="E16" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="F16" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A17" s="52">
+        <v>3</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="71"/>
-    </row>
-    <row r="17" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70">
-        <v>3</v>
-      </c>
-      <c r="B17" s="71" t="s">
+      <c r="C17" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="D17" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A18" s="52">
+        <v>4</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="71"/>
-    </row>
-    <row r="18" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70">
-        <v>4</v>
-      </c>
-      <c r="B18" s="71" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71" t="s">
+      <c r="E18" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="F18" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="53"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A19" s="52">
+        <v>5</v>
+      </c>
+      <c r="B19" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="71"/>
-    </row>
-    <row r="19" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70">
-        <v>5</v>
-      </c>
-      <c r="B19" s="71" t="s">
+      <c r="C19" s="53"/>
+      <c r="D19" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71" t="s">
+      <c r="E19" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="F19" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="53"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A20" s="54"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.2" customHeight="1">
+      <c r="B22" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="71"/>
-    </row>
-    <row r="20" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-    </row>
-    <row r="21" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="67"/>
-    </row>
-    <row r="22" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="73" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="B23" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-    </row>
-    <row r="23" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-    </row>
-    <row r="24" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.2" customHeight="1"/>
+    <row r="25" spans="1:7" ht="19.2" customHeight="1"/>
+    <row r="26" spans="1:7" ht="19.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
@@ -1806,33 +1909,33 @@
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="B22:E22"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
     <col min="5" max="5" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.4" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30"/>
+      <c r="B1" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="67"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -1842,14 +1945,14 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="23.4" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -1857,12 +1960,12 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A3" s="14"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -1870,18 +1973,20 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="23.4" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -1889,19 +1994,19 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="23.4" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>6</v>
-      </c>
       <c r="E5" s="13">
-        <v>43588</v>
+        <v>43604</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1910,18 +2015,20 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="31.2" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -1929,19 +2036,19 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="43.2" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" s="13">
-        <v>43588</v>
+        <v>43604</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1950,13 +2057,13 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="49.2" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
@@ -1967,7 +2074,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -1980,7 +2087,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A10" s="14"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1993,12 +2100,12 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="23.4" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="32"/>
+      <c r="B11" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="71"/>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="F11" s="14"/>
@@ -2008,12 +2115,12 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="34"/>
+      <c r="B12" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="73"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="F12" s="14"/>
@@ -2023,7 +2130,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A13" s="14"/>
       <c r="B13" s="1"/>
       <c r="C13" s="14"/>
@@ -2036,43 +2143,51 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="B15" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="F15" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="14"/>
@@ -2080,16 +2195,24 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1">
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="B16" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="14"/>
@@ -2097,16 +2220,24 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="27"/>
+      <c r="B17" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F17" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="14"/>
@@ -2114,16 +2245,24 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="42" customHeight="1" thickBot="1">
       <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F18" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="14"/>
@@ -2131,16 +2270,24 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F19" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="14"/>
@@ -2148,16 +2295,24 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="B20" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F20" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="14"/>
@@ -2165,16 +2320,24 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="43.2" customHeight="1" thickBot="1">
       <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>81</v>
+      </c>
       <c r="F21" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="14"/>
@@ -2182,55 +2345,89 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+    <row r="22" spans="1:11" ht="33.6" customHeight="1" thickBot="1">
+      <c r="A22" s="4">
+        <v>8</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="27"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+    <row r="23" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A23" s="4">
+        <v>9</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="79">
+        <v>123</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="27"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+    <row r="24" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A24" s="4">
+        <v>10</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="27"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="23.4" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2238,12 +2435,14 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2251,16 +2450,59 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
+    <row r="27" spans="1:11" ht="23.4" customHeight="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" ht="23.4" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" ht="23.4" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2270,9 +2512,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01.Document/08.Test Case/Geosensing Test Case .xlsx
+++ b/01.Document/08.Test Case/Geosensing Test Case .xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC2775D-AEBA-4EF5-B20C-4E52A66C3341}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Test Case" sheetId="1" r:id="rId1"/>
     <sheet name="Register Test Case" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Booking" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
   <si>
     <t xml:space="preserve">Geosensing </t>
   </si>
@@ -390,12 +392,88 @@
     <t>redirect to login page</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>Booking_01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qijing Huang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/05/2019</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/05/2019</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test the Booking and process</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test the Booking and process and sending email function</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geosensing Booking Module</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://138.80.106.146:8080</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login page opend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@test.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type information into password input box</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>click parking lot name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>click on purple A</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect to selecting slots page</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>click parking slot name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>click on slot1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alert booking successful and send email</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,6 +879,15 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -859,21 +946,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -881,6 +959,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -929,7 +1010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,9 +1043,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -997,6 +1095,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1172,486 +1287,486 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="29" customWidth="1"/>
-    <col min="7" max="256" width="8.88671875" style="29"/>
-    <col min="257" max="257" width="7.44140625" style="29" customWidth="1"/>
-    <col min="258" max="258" width="29.88671875" style="29" customWidth="1"/>
-    <col min="259" max="259" width="35.6640625" style="29" customWidth="1"/>
-    <col min="260" max="260" width="31.44140625" style="29" customWidth="1"/>
-    <col min="261" max="261" width="31.21875" style="29" customWidth="1"/>
-    <col min="262" max="262" width="18.21875" style="29" customWidth="1"/>
-    <col min="263" max="512" width="8.88671875" style="29"/>
-    <col min="513" max="513" width="7.44140625" style="29" customWidth="1"/>
-    <col min="514" max="514" width="29.88671875" style="29" customWidth="1"/>
-    <col min="515" max="515" width="35.6640625" style="29" customWidth="1"/>
-    <col min="516" max="516" width="31.44140625" style="29" customWidth="1"/>
-    <col min="517" max="517" width="31.21875" style="29" customWidth="1"/>
-    <col min="518" max="518" width="18.21875" style="29" customWidth="1"/>
-    <col min="519" max="768" width="8.88671875" style="29"/>
-    <col min="769" max="769" width="7.44140625" style="29" customWidth="1"/>
-    <col min="770" max="770" width="29.88671875" style="29" customWidth="1"/>
-    <col min="771" max="771" width="35.6640625" style="29" customWidth="1"/>
-    <col min="772" max="772" width="31.44140625" style="29" customWidth="1"/>
-    <col min="773" max="773" width="31.21875" style="29" customWidth="1"/>
-    <col min="774" max="774" width="18.21875" style="29" customWidth="1"/>
-    <col min="775" max="1024" width="8.88671875" style="29"/>
-    <col min="1025" max="1025" width="7.44140625" style="29" customWidth="1"/>
-    <col min="1026" max="1026" width="29.88671875" style="29" customWidth="1"/>
-    <col min="1027" max="1027" width="35.6640625" style="29" customWidth="1"/>
-    <col min="1028" max="1028" width="31.44140625" style="29" customWidth="1"/>
-    <col min="1029" max="1029" width="31.21875" style="29" customWidth="1"/>
-    <col min="1030" max="1030" width="18.21875" style="29" customWidth="1"/>
-    <col min="1031" max="1280" width="8.88671875" style="29"/>
-    <col min="1281" max="1281" width="7.44140625" style="29" customWidth="1"/>
-    <col min="1282" max="1282" width="29.88671875" style="29" customWidth="1"/>
-    <col min="1283" max="1283" width="35.6640625" style="29" customWidth="1"/>
-    <col min="1284" max="1284" width="31.44140625" style="29" customWidth="1"/>
-    <col min="1285" max="1285" width="31.21875" style="29" customWidth="1"/>
-    <col min="1286" max="1286" width="18.21875" style="29" customWidth="1"/>
-    <col min="1287" max="1536" width="8.88671875" style="29"/>
-    <col min="1537" max="1537" width="7.44140625" style="29" customWidth="1"/>
-    <col min="1538" max="1538" width="29.88671875" style="29" customWidth="1"/>
-    <col min="1539" max="1539" width="35.6640625" style="29" customWidth="1"/>
-    <col min="1540" max="1540" width="31.44140625" style="29" customWidth="1"/>
-    <col min="1541" max="1541" width="31.21875" style="29" customWidth="1"/>
-    <col min="1542" max="1542" width="18.21875" style="29" customWidth="1"/>
-    <col min="1543" max="1792" width="8.88671875" style="29"/>
-    <col min="1793" max="1793" width="7.44140625" style="29" customWidth="1"/>
-    <col min="1794" max="1794" width="29.88671875" style="29" customWidth="1"/>
-    <col min="1795" max="1795" width="35.6640625" style="29" customWidth="1"/>
-    <col min="1796" max="1796" width="31.44140625" style="29" customWidth="1"/>
-    <col min="1797" max="1797" width="31.21875" style="29" customWidth="1"/>
-    <col min="1798" max="1798" width="18.21875" style="29" customWidth="1"/>
-    <col min="1799" max="2048" width="8.88671875" style="29"/>
-    <col min="2049" max="2049" width="7.44140625" style="29" customWidth="1"/>
-    <col min="2050" max="2050" width="29.88671875" style="29" customWidth="1"/>
-    <col min="2051" max="2051" width="35.6640625" style="29" customWidth="1"/>
-    <col min="2052" max="2052" width="31.44140625" style="29" customWidth="1"/>
-    <col min="2053" max="2053" width="31.21875" style="29" customWidth="1"/>
-    <col min="2054" max="2054" width="18.21875" style="29" customWidth="1"/>
-    <col min="2055" max="2304" width="8.88671875" style="29"/>
-    <col min="2305" max="2305" width="7.44140625" style="29" customWidth="1"/>
-    <col min="2306" max="2306" width="29.88671875" style="29" customWidth="1"/>
-    <col min="2307" max="2307" width="35.6640625" style="29" customWidth="1"/>
-    <col min="2308" max="2308" width="31.44140625" style="29" customWidth="1"/>
-    <col min="2309" max="2309" width="31.21875" style="29" customWidth="1"/>
-    <col min="2310" max="2310" width="18.21875" style="29" customWidth="1"/>
-    <col min="2311" max="2560" width="8.88671875" style="29"/>
-    <col min="2561" max="2561" width="7.44140625" style="29" customWidth="1"/>
-    <col min="2562" max="2562" width="29.88671875" style="29" customWidth="1"/>
-    <col min="2563" max="2563" width="35.6640625" style="29" customWidth="1"/>
-    <col min="2564" max="2564" width="31.44140625" style="29" customWidth="1"/>
-    <col min="2565" max="2565" width="31.21875" style="29" customWidth="1"/>
-    <col min="2566" max="2566" width="18.21875" style="29" customWidth="1"/>
-    <col min="2567" max="2816" width="8.88671875" style="29"/>
-    <col min="2817" max="2817" width="7.44140625" style="29" customWidth="1"/>
-    <col min="2818" max="2818" width="29.88671875" style="29" customWidth="1"/>
-    <col min="2819" max="2819" width="35.6640625" style="29" customWidth="1"/>
-    <col min="2820" max="2820" width="31.44140625" style="29" customWidth="1"/>
-    <col min="2821" max="2821" width="31.21875" style="29" customWidth="1"/>
-    <col min="2822" max="2822" width="18.21875" style="29" customWidth="1"/>
-    <col min="2823" max="3072" width="8.88671875" style="29"/>
-    <col min="3073" max="3073" width="7.44140625" style="29" customWidth="1"/>
-    <col min="3074" max="3074" width="29.88671875" style="29" customWidth="1"/>
-    <col min="3075" max="3075" width="35.6640625" style="29" customWidth="1"/>
-    <col min="3076" max="3076" width="31.44140625" style="29" customWidth="1"/>
-    <col min="3077" max="3077" width="31.21875" style="29" customWidth="1"/>
-    <col min="3078" max="3078" width="18.21875" style="29" customWidth="1"/>
-    <col min="3079" max="3328" width="8.88671875" style="29"/>
-    <col min="3329" max="3329" width="7.44140625" style="29" customWidth="1"/>
-    <col min="3330" max="3330" width="29.88671875" style="29" customWidth="1"/>
-    <col min="3331" max="3331" width="35.6640625" style="29" customWidth="1"/>
-    <col min="3332" max="3332" width="31.44140625" style="29" customWidth="1"/>
-    <col min="3333" max="3333" width="31.21875" style="29" customWidth="1"/>
-    <col min="3334" max="3334" width="18.21875" style="29" customWidth="1"/>
-    <col min="3335" max="3584" width="8.88671875" style="29"/>
-    <col min="3585" max="3585" width="7.44140625" style="29" customWidth="1"/>
-    <col min="3586" max="3586" width="29.88671875" style="29" customWidth="1"/>
-    <col min="3587" max="3587" width="35.6640625" style="29" customWidth="1"/>
-    <col min="3588" max="3588" width="31.44140625" style="29" customWidth="1"/>
-    <col min="3589" max="3589" width="31.21875" style="29" customWidth="1"/>
-    <col min="3590" max="3590" width="18.21875" style="29" customWidth="1"/>
-    <col min="3591" max="3840" width="8.88671875" style="29"/>
-    <col min="3841" max="3841" width="7.44140625" style="29" customWidth="1"/>
-    <col min="3842" max="3842" width="29.88671875" style="29" customWidth="1"/>
-    <col min="3843" max="3843" width="35.6640625" style="29" customWidth="1"/>
-    <col min="3844" max="3844" width="31.44140625" style="29" customWidth="1"/>
-    <col min="3845" max="3845" width="31.21875" style="29" customWidth="1"/>
-    <col min="3846" max="3846" width="18.21875" style="29" customWidth="1"/>
-    <col min="3847" max="4096" width="8.88671875" style="29"/>
-    <col min="4097" max="4097" width="7.44140625" style="29" customWidth="1"/>
-    <col min="4098" max="4098" width="29.88671875" style="29" customWidth="1"/>
-    <col min="4099" max="4099" width="35.6640625" style="29" customWidth="1"/>
-    <col min="4100" max="4100" width="31.44140625" style="29" customWidth="1"/>
-    <col min="4101" max="4101" width="31.21875" style="29" customWidth="1"/>
-    <col min="4102" max="4102" width="18.21875" style="29" customWidth="1"/>
-    <col min="4103" max="4352" width="8.88671875" style="29"/>
-    <col min="4353" max="4353" width="7.44140625" style="29" customWidth="1"/>
-    <col min="4354" max="4354" width="29.88671875" style="29" customWidth="1"/>
-    <col min="4355" max="4355" width="35.6640625" style="29" customWidth="1"/>
-    <col min="4356" max="4356" width="31.44140625" style="29" customWidth="1"/>
-    <col min="4357" max="4357" width="31.21875" style="29" customWidth="1"/>
-    <col min="4358" max="4358" width="18.21875" style="29" customWidth="1"/>
-    <col min="4359" max="4608" width="8.88671875" style="29"/>
-    <col min="4609" max="4609" width="7.44140625" style="29" customWidth="1"/>
-    <col min="4610" max="4610" width="29.88671875" style="29" customWidth="1"/>
-    <col min="4611" max="4611" width="35.6640625" style="29" customWidth="1"/>
-    <col min="4612" max="4612" width="31.44140625" style="29" customWidth="1"/>
-    <col min="4613" max="4613" width="31.21875" style="29" customWidth="1"/>
-    <col min="4614" max="4614" width="18.21875" style="29" customWidth="1"/>
-    <col min="4615" max="4864" width="8.88671875" style="29"/>
-    <col min="4865" max="4865" width="7.44140625" style="29" customWidth="1"/>
-    <col min="4866" max="4866" width="29.88671875" style="29" customWidth="1"/>
-    <col min="4867" max="4867" width="35.6640625" style="29" customWidth="1"/>
-    <col min="4868" max="4868" width="31.44140625" style="29" customWidth="1"/>
-    <col min="4869" max="4869" width="31.21875" style="29" customWidth="1"/>
-    <col min="4870" max="4870" width="18.21875" style="29" customWidth="1"/>
-    <col min="4871" max="5120" width="8.88671875" style="29"/>
-    <col min="5121" max="5121" width="7.44140625" style="29" customWidth="1"/>
-    <col min="5122" max="5122" width="29.88671875" style="29" customWidth="1"/>
-    <col min="5123" max="5123" width="35.6640625" style="29" customWidth="1"/>
-    <col min="5124" max="5124" width="31.44140625" style="29" customWidth="1"/>
-    <col min="5125" max="5125" width="31.21875" style="29" customWidth="1"/>
-    <col min="5126" max="5126" width="18.21875" style="29" customWidth="1"/>
-    <col min="5127" max="5376" width="8.88671875" style="29"/>
-    <col min="5377" max="5377" width="7.44140625" style="29" customWidth="1"/>
-    <col min="5378" max="5378" width="29.88671875" style="29" customWidth="1"/>
-    <col min="5379" max="5379" width="35.6640625" style="29" customWidth="1"/>
-    <col min="5380" max="5380" width="31.44140625" style="29" customWidth="1"/>
-    <col min="5381" max="5381" width="31.21875" style="29" customWidth="1"/>
-    <col min="5382" max="5382" width="18.21875" style="29" customWidth="1"/>
-    <col min="5383" max="5632" width="8.88671875" style="29"/>
-    <col min="5633" max="5633" width="7.44140625" style="29" customWidth="1"/>
-    <col min="5634" max="5634" width="29.88671875" style="29" customWidth="1"/>
-    <col min="5635" max="5635" width="35.6640625" style="29" customWidth="1"/>
-    <col min="5636" max="5636" width="31.44140625" style="29" customWidth="1"/>
-    <col min="5637" max="5637" width="31.21875" style="29" customWidth="1"/>
-    <col min="5638" max="5638" width="18.21875" style="29" customWidth="1"/>
-    <col min="5639" max="5888" width="8.88671875" style="29"/>
-    <col min="5889" max="5889" width="7.44140625" style="29" customWidth="1"/>
-    <col min="5890" max="5890" width="29.88671875" style="29" customWidth="1"/>
-    <col min="5891" max="5891" width="35.6640625" style="29" customWidth="1"/>
-    <col min="5892" max="5892" width="31.44140625" style="29" customWidth="1"/>
-    <col min="5893" max="5893" width="31.21875" style="29" customWidth="1"/>
-    <col min="5894" max="5894" width="18.21875" style="29" customWidth="1"/>
-    <col min="5895" max="6144" width="8.88671875" style="29"/>
-    <col min="6145" max="6145" width="7.44140625" style="29" customWidth="1"/>
-    <col min="6146" max="6146" width="29.88671875" style="29" customWidth="1"/>
-    <col min="6147" max="6147" width="35.6640625" style="29" customWidth="1"/>
-    <col min="6148" max="6148" width="31.44140625" style="29" customWidth="1"/>
-    <col min="6149" max="6149" width="31.21875" style="29" customWidth="1"/>
-    <col min="6150" max="6150" width="18.21875" style="29" customWidth="1"/>
-    <col min="6151" max="6400" width="8.88671875" style="29"/>
-    <col min="6401" max="6401" width="7.44140625" style="29" customWidth="1"/>
-    <col min="6402" max="6402" width="29.88671875" style="29" customWidth="1"/>
-    <col min="6403" max="6403" width="35.6640625" style="29" customWidth="1"/>
-    <col min="6404" max="6404" width="31.44140625" style="29" customWidth="1"/>
-    <col min="6405" max="6405" width="31.21875" style="29" customWidth="1"/>
-    <col min="6406" max="6406" width="18.21875" style="29" customWidth="1"/>
-    <col min="6407" max="6656" width="8.88671875" style="29"/>
-    <col min="6657" max="6657" width="7.44140625" style="29" customWidth="1"/>
-    <col min="6658" max="6658" width="29.88671875" style="29" customWidth="1"/>
-    <col min="6659" max="6659" width="35.6640625" style="29" customWidth="1"/>
-    <col min="6660" max="6660" width="31.44140625" style="29" customWidth="1"/>
-    <col min="6661" max="6661" width="31.21875" style="29" customWidth="1"/>
-    <col min="6662" max="6662" width="18.21875" style="29" customWidth="1"/>
-    <col min="6663" max="6912" width="8.88671875" style="29"/>
-    <col min="6913" max="6913" width="7.44140625" style="29" customWidth="1"/>
-    <col min="6914" max="6914" width="29.88671875" style="29" customWidth="1"/>
-    <col min="6915" max="6915" width="35.6640625" style="29" customWidth="1"/>
-    <col min="6916" max="6916" width="31.44140625" style="29" customWidth="1"/>
-    <col min="6917" max="6917" width="31.21875" style="29" customWidth="1"/>
-    <col min="6918" max="6918" width="18.21875" style="29" customWidth="1"/>
-    <col min="6919" max="7168" width="8.88671875" style="29"/>
-    <col min="7169" max="7169" width="7.44140625" style="29" customWidth="1"/>
-    <col min="7170" max="7170" width="29.88671875" style="29" customWidth="1"/>
-    <col min="7171" max="7171" width="35.6640625" style="29" customWidth="1"/>
-    <col min="7172" max="7172" width="31.44140625" style="29" customWidth="1"/>
-    <col min="7173" max="7173" width="31.21875" style="29" customWidth="1"/>
-    <col min="7174" max="7174" width="18.21875" style="29" customWidth="1"/>
-    <col min="7175" max="7424" width="8.88671875" style="29"/>
-    <col min="7425" max="7425" width="7.44140625" style="29" customWidth="1"/>
-    <col min="7426" max="7426" width="29.88671875" style="29" customWidth="1"/>
-    <col min="7427" max="7427" width="35.6640625" style="29" customWidth="1"/>
-    <col min="7428" max="7428" width="31.44140625" style="29" customWidth="1"/>
-    <col min="7429" max="7429" width="31.21875" style="29" customWidth="1"/>
-    <col min="7430" max="7430" width="18.21875" style="29" customWidth="1"/>
-    <col min="7431" max="7680" width="8.88671875" style="29"/>
-    <col min="7681" max="7681" width="7.44140625" style="29" customWidth="1"/>
-    <col min="7682" max="7682" width="29.88671875" style="29" customWidth="1"/>
-    <col min="7683" max="7683" width="35.6640625" style="29" customWidth="1"/>
-    <col min="7684" max="7684" width="31.44140625" style="29" customWidth="1"/>
-    <col min="7685" max="7685" width="31.21875" style="29" customWidth="1"/>
-    <col min="7686" max="7686" width="18.21875" style="29" customWidth="1"/>
-    <col min="7687" max="7936" width="8.88671875" style="29"/>
-    <col min="7937" max="7937" width="7.44140625" style="29" customWidth="1"/>
-    <col min="7938" max="7938" width="29.88671875" style="29" customWidth="1"/>
-    <col min="7939" max="7939" width="35.6640625" style="29" customWidth="1"/>
-    <col min="7940" max="7940" width="31.44140625" style="29" customWidth="1"/>
-    <col min="7941" max="7941" width="31.21875" style="29" customWidth="1"/>
-    <col min="7942" max="7942" width="18.21875" style="29" customWidth="1"/>
-    <col min="7943" max="8192" width="8.88671875" style="29"/>
-    <col min="8193" max="8193" width="7.44140625" style="29" customWidth="1"/>
-    <col min="8194" max="8194" width="29.88671875" style="29" customWidth="1"/>
-    <col min="8195" max="8195" width="35.6640625" style="29" customWidth="1"/>
-    <col min="8196" max="8196" width="31.44140625" style="29" customWidth="1"/>
-    <col min="8197" max="8197" width="31.21875" style="29" customWidth="1"/>
-    <col min="8198" max="8198" width="18.21875" style="29" customWidth="1"/>
-    <col min="8199" max="8448" width="8.88671875" style="29"/>
-    <col min="8449" max="8449" width="7.44140625" style="29" customWidth="1"/>
-    <col min="8450" max="8450" width="29.88671875" style="29" customWidth="1"/>
-    <col min="8451" max="8451" width="35.6640625" style="29" customWidth="1"/>
-    <col min="8452" max="8452" width="31.44140625" style="29" customWidth="1"/>
-    <col min="8453" max="8453" width="31.21875" style="29" customWidth="1"/>
-    <col min="8454" max="8454" width="18.21875" style="29" customWidth="1"/>
-    <col min="8455" max="8704" width="8.88671875" style="29"/>
-    <col min="8705" max="8705" width="7.44140625" style="29" customWidth="1"/>
-    <col min="8706" max="8706" width="29.88671875" style="29" customWidth="1"/>
-    <col min="8707" max="8707" width="35.6640625" style="29" customWidth="1"/>
-    <col min="8708" max="8708" width="31.44140625" style="29" customWidth="1"/>
-    <col min="8709" max="8709" width="31.21875" style="29" customWidth="1"/>
-    <col min="8710" max="8710" width="18.21875" style="29" customWidth="1"/>
-    <col min="8711" max="8960" width="8.88671875" style="29"/>
-    <col min="8961" max="8961" width="7.44140625" style="29" customWidth="1"/>
-    <col min="8962" max="8962" width="29.88671875" style="29" customWidth="1"/>
-    <col min="8963" max="8963" width="35.6640625" style="29" customWidth="1"/>
-    <col min="8964" max="8964" width="31.44140625" style="29" customWidth="1"/>
-    <col min="8965" max="8965" width="31.21875" style="29" customWidth="1"/>
-    <col min="8966" max="8966" width="18.21875" style="29" customWidth="1"/>
-    <col min="8967" max="9216" width="8.88671875" style="29"/>
-    <col min="9217" max="9217" width="7.44140625" style="29" customWidth="1"/>
-    <col min="9218" max="9218" width="29.88671875" style="29" customWidth="1"/>
-    <col min="9219" max="9219" width="35.6640625" style="29" customWidth="1"/>
-    <col min="9220" max="9220" width="31.44140625" style="29" customWidth="1"/>
-    <col min="9221" max="9221" width="31.21875" style="29" customWidth="1"/>
-    <col min="9222" max="9222" width="18.21875" style="29" customWidth="1"/>
-    <col min="9223" max="9472" width="8.88671875" style="29"/>
-    <col min="9473" max="9473" width="7.44140625" style="29" customWidth="1"/>
-    <col min="9474" max="9474" width="29.88671875" style="29" customWidth="1"/>
-    <col min="9475" max="9475" width="35.6640625" style="29" customWidth="1"/>
-    <col min="9476" max="9476" width="31.44140625" style="29" customWidth="1"/>
-    <col min="9477" max="9477" width="31.21875" style="29" customWidth="1"/>
-    <col min="9478" max="9478" width="18.21875" style="29" customWidth="1"/>
-    <col min="9479" max="9728" width="8.88671875" style="29"/>
-    <col min="9729" max="9729" width="7.44140625" style="29" customWidth="1"/>
-    <col min="9730" max="9730" width="29.88671875" style="29" customWidth="1"/>
-    <col min="9731" max="9731" width="35.6640625" style="29" customWidth="1"/>
-    <col min="9732" max="9732" width="31.44140625" style="29" customWidth="1"/>
-    <col min="9733" max="9733" width="31.21875" style="29" customWidth="1"/>
-    <col min="9734" max="9734" width="18.21875" style="29" customWidth="1"/>
-    <col min="9735" max="9984" width="8.88671875" style="29"/>
-    <col min="9985" max="9985" width="7.44140625" style="29" customWidth="1"/>
-    <col min="9986" max="9986" width="29.88671875" style="29" customWidth="1"/>
-    <col min="9987" max="9987" width="35.6640625" style="29" customWidth="1"/>
-    <col min="9988" max="9988" width="31.44140625" style="29" customWidth="1"/>
-    <col min="9989" max="9989" width="31.21875" style="29" customWidth="1"/>
-    <col min="9990" max="9990" width="18.21875" style="29" customWidth="1"/>
-    <col min="9991" max="10240" width="8.88671875" style="29"/>
-    <col min="10241" max="10241" width="7.44140625" style="29" customWidth="1"/>
-    <col min="10242" max="10242" width="29.88671875" style="29" customWidth="1"/>
-    <col min="10243" max="10243" width="35.6640625" style="29" customWidth="1"/>
-    <col min="10244" max="10244" width="31.44140625" style="29" customWidth="1"/>
-    <col min="10245" max="10245" width="31.21875" style="29" customWidth="1"/>
-    <col min="10246" max="10246" width="18.21875" style="29" customWidth="1"/>
-    <col min="10247" max="10496" width="8.88671875" style="29"/>
-    <col min="10497" max="10497" width="7.44140625" style="29" customWidth="1"/>
-    <col min="10498" max="10498" width="29.88671875" style="29" customWidth="1"/>
-    <col min="10499" max="10499" width="35.6640625" style="29" customWidth="1"/>
-    <col min="10500" max="10500" width="31.44140625" style="29" customWidth="1"/>
-    <col min="10501" max="10501" width="31.21875" style="29" customWidth="1"/>
-    <col min="10502" max="10502" width="18.21875" style="29" customWidth="1"/>
-    <col min="10503" max="10752" width="8.88671875" style="29"/>
-    <col min="10753" max="10753" width="7.44140625" style="29" customWidth="1"/>
-    <col min="10754" max="10754" width="29.88671875" style="29" customWidth="1"/>
-    <col min="10755" max="10755" width="35.6640625" style="29" customWidth="1"/>
-    <col min="10756" max="10756" width="31.44140625" style="29" customWidth="1"/>
-    <col min="10757" max="10757" width="31.21875" style="29" customWidth="1"/>
-    <col min="10758" max="10758" width="18.21875" style="29" customWidth="1"/>
-    <col min="10759" max="11008" width="8.88671875" style="29"/>
-    <col min="11009" max="11009" width="7.44140625" style="29" customWidth="1"/>
-    <col min="11010" max="11010" width="29.88671875" style="29" customWidth="1"/>
-    <col min="11011" max="11011" width="35.6640625" style="29" customWidth="1"/>
-    <col min="11012" max="11012" width="31.44140625" style="29" customWidth="1"/>
-    <col min="11013" max="11013" width="31.21875" style="29" customWidth="1"/>
-    <col min="11014" max="11014" width="18.21875" style="29" customWidth="1"/>
-    <col min="11015" max="11264" width="8.88671875" style="29"/>
-    <col min="11265" max="11265" width="7.44140625" style="29" customWidth="1"/>
-    <col min="11266" max="11266" width="29.88671875" style="29" customWidth="1"/>
-    <col min="11267" max="11267" width="35.6640625" style="29" customWidth="1"/>
-    <col min="11268" max="11268" width="31.44140625" style="29" customWidth="1"/>
-    <col min="11269" max="11269" width="31.21875" style="29" customWidth="1"/>
-    <col min="11270" max="11270" width="18.21875" style="29" customWidth="1"/>
-    <col min="11271" max="11520" width="8.88671875" style="29"/>
-    <col min="11521" max="11521" width="7.44140625" style="29" customWidth="1"/>
-    <col min="11522" max="11522" width="29.88671875" style="29" customWidth="1"/>
-    <col min="11523" max="11523" width="35.6640625" style="29" customWidth="1"/>
-    <col min="11524" max="11524" width="31.44140625" style="29" customWidth="1"/>
-    <col min="11525" max="11525" width="31.21875" style="29" customWidth="1"/>
-    <col min="11526" max="11526" width="18.21875" style="29" customWidth="1"/>
-    <col min="11527" max="11776" width="8.88671875" style="29"/>
-    <col min="11777" max="11777" width="7.44140625" style="29" customWidth="1"/>
-    <col min="11778" max="11778" width="29.88671875" style="29" customWidth="1"/>
-    <col min="11779" max="11779" width="35.6640625" style="29" customWidth="1"/>
-    <col min="11780" max="11780" width="31.44140625" style="29" customWidth="1"/>
-    <col min="11781" max="11781" width="31.21875" style="29" customWidth="1"/>
-    <col min="11782" max="11782" width="18.21875" style="29" customWidth="1"/>
-    <col min="11783" max="12032" width="8.88671875" style="29"/>
-    <col min="12033" max="12033" width="7.44140625" style="29" customWidth="1"/>
-    <col min="12034" max="12034" width="29.88671875" style="29" customWidth="1"/>
-    <col min="12035" max="12035" width="35.6640625" style="29" customWidth="1"/>
-    <col min="12036" max="12036" width="31.44140625" style="29" customWidth="1"/>
-    <col min="12037" max="12037" width="31.21875" style="29" customWidth="1"/>
-    <col min="12038" max="12038" width="18.21875" style="29" customWidth="1"/>
-    <col min="12039" max="12288" width="8.88671875" style="29"/>
-    <col min="12289" max="12289" width="7.44140625" style="29" customWidth="1"/>
-    <col min="12290" max="12290" width="29.88671875" style="29" customWidth="1"/>
-    <col min="12291" max="12291" width="35.6640625" style="29" customWidth="1"/>
-    <col min="12292" max="12292" width="31.44140625" style="29" customWidth="1"/>
-    <col min="12293" max="12293" width="31.21875" style="29" customWidth="1"/>
-    <col min="12294" max="12294" width="18.21875" style="29" customWidth="1"/>
-    <col min="12295" max="12544" width="8.88671875" style="29"/>
-    <col min="12545" max="12545" width="7.44140625" style="29" customWidth="1"/>
-    <col min="12546" max="12546" width="29.88671875" style="29" customWidth="1"/>
-    <col min="12547" max="12547" width="35.6640625" style="29" customWidth="1"/>
-    <col min="12548" max="12548" width="31.44140625" style="29" customWidth="1"/>
-    <col min="12549" max="12549" width="31.21875" style="29" customWidth="1"/>
-    <col min="12550" max="12550" width="18.21875" style="29" customWidth="1"/>
-    <col min="12551" max="12800" width="8.88671875" style="29"/>
-    <col min="12801" max="12801" width="7.44140625" style="29" customWidth="1"/>
-    <col min="12802" max="12802" width="29.88671875" style="29" customWidth="1"/>
-    <col min="12803" max="12803" width="35.6640625" style="29" customWidth="1"/>
-    <col min="12804" max="12804" width="31.44140625" style="29" customWidth="1"/>
-    <col min="12805" max="12805" width="31.21875" style="29" customWidth="1"/>
-    <col min="12806" max="12806" width="18.21875" style="29" customWidth="1"/>
-    <col min="12807" max="13056" width="8.88671875" style="29"/>
-    <col min="13057" max="13057" width="7.44140625" style="29" customWidth="1"/>
-    <col min="13058" max="13058" width="29.88671875" style="29" customWidth="1"/>
-    <col min="13059" max="13059" width="35.6640625" style="29" customWidth="1"/>
-    <col min="13060" max="13060" width="31.44140625" style="29" customWidth="1"/>
-    <col min="13061" max="13061" width="31.21875" style="29" customWidth="1"/>
-    <col min="13062" max="13062" width="18.21875" style="29" customWidth="1"/>
-    <col min="13063" max="13312" width="8.88671875" style="29"/>
-    <col min="13313" max="13313" width="7.44140625" style="29" customWidth="1"/>
-    <col min="13314" max="13314" width="29.88671875" style="29" customWidth="1"/>
-    <col min="13315" max="13315" width="35.6640625" style="29" customWidth="1"/>
-    <col min="13316" max="13316" width="31.44140625" style="29" customWidth="1"/>
-    <col min="13317" max="13317" width="31.21875" style="29" customWidth="1"/>
-    <col min="13318" max="13318" width="18.21875" style="29" customWidth="1"/>
-    <col min="13319" max="13568" width="8.88671875" style="29"/>
-    <col min="13569" max="13569" width="7.44140625" style="29" customWidth="1"/>
-    <col min="13570" max="13570" width="29.88671875" style="29" customWidth="1"/>
-    <col min="13571" max="13571" width="35.6640625" style="29" customWidth="1"/>
-    <col min="13572" max="13572" width="31.44140625" style="29" customWidth="1"/>
-    <col min="13573" max="13573" width="31.21875" style="29" customWidth="1"/>
-    <col min="13574" max="13574" width="18.21875" style="29" customWidth="1"/>
-    <col min="13575" max="13824" width="8.88671875" style="29"/>
-    <col min="13825" max="13825" width="7.44140625" style="29" customWidth="1"/>
-    <col min="13826" max="13826" width="29.88671875" style="29" customWidth="1"/>
-    <col min="13827" max="13827" width="35.6640625" style="29" customWidth="1"/>
-    <col min="13828" max="13828" width="31.44140625" style="29" customWidth="1"/>
-    <col min="13829" max="13829" width="31.21875" style="29" customWidth="1"/>
-    <col min="13830" max="13830" width="18.21875" style="29" customWidth="1"/>
-    <col min="13831" max="14080" width="8.88671875" style="29"/>
-    <col min="14081" max="14081" width="7.44140625" style="29" customWidth="1"/>
-    <col min="14082" max="14082" width="29.88671875" style="29" customWidth="1"/>
-    <col min="14083" max="14083" width="35.6640625" style="29" customWidth="1"/>
-    <col min="14084" max="14084" width="31.44140625" style="29" customWidth="1"/>
-    <col min="14085" max="14085" width="31.21875" style="29" customWidth="1"/>
-    <col min="14086" max="14086" width="18.21875" style="29" customWidth="1"/>
-    <col min="14087" max="14336" width="8.88671875" style="29"/>
-    <col min="14337" max="14337" width="7.44140625" style="29" customWidth="1"/>
-    <col min="14338" max="14338" width="29.88671875" style="29" customWidth="1"/>
-    <col min="14339" max="14339" width="35.6640625" style="29" customWidth="1"/>
-    <col min="14340" max="14340" width="31.44140625" style="29" customWidth="1"/>
-    <col min="14341" max="14341" width="31.21875" style="29" customWidth="1"/>
-    <col min="14342" max="14342" width="18.21875" style="29" customWidth="1"/>
-    <col min="14343" max="14592" width="8.88671875" style="29"/>
-    <col min="14593" max="14593" width="7.44140625" style="29" customWidth="1"/>
-    <col min="14594" max="14594" width="29.88671875" style="29" customWidth="1"/>
-    <col min="14595" max="14595" width="35.6640625" style="29" customWidth="1"/>
-    <col min="14596" max="14596" width="31.44140625" style="29" customWidth="1"/>
-    <col min="14597" max="14597" width="31.21875" style="29" customWidth="1"/>
-    <col min="14598" max="14598" width="18.21875" style="29" customWidth="1"/>
-    <col min="14599" max="14848" width="8.88671875" style="29"/>
-    <col min="14849" max="14849" width="7.44140625" style="29" customWidth="1"/>
-    <col min="14850" max="14850" width="29.88671875" style="29" customWidth="1"/>
-    <col min="14851" max="14851" width="35.6640625" style="29" customWidth="1"/>
-    <col min="14852" max="14852" width="31.44140625" style="29" customWidth="1"/>
-    <col min="14853" max="14853" width="31.21875" style="29" customWidth="1"/>
-    <col min="14854" max="14854" width="18.21875" style="29" customWidth="1"/>
-    <col min="14855" max="15104" width="8.88671875" style="29"/>
-    <col min="15105" max="15105" width="7.44140625" style="29" customWidth="1"/>
-    <col min="15106" max="15106" width="29.88671875" style="29" customWidth="1"/>
-    <col min="15107" max="15107" width="35.6640625" style="29" customWidth="1"/>
-    <col min="15108" max="15108" width="31.44140625" style="29" customWidth="1"/>
-    <col min="15109" max="15109" width="31.21875" style="29" customWidth="1"/>
-    <col min="15110" max="15110" width="18.21875" style="29" customWidth="1"/>
-    <col min="15111" max="15360" width="8.88671875" style="29"/>
-    <col min="15361" max="15361" width="7.44140625" style="29" customWidth="1"/>
-    <col min="15362" max="15362" width="29.88671875" style="29" customWidth="1"/>
-    <col min="15363" max="15363" width="35.6640625" style="29" customWidth="1"/>
-    <col min="15364" max="15364" width="31.44140625" style="29" customWidth="1"/>
-    <col min="15365" max="15365" width="31.21875" style="29" customWidth="1"/>
-    <col min="15366" max="15366" width="18.21875" style="29" customWidth="1"/>
-    <col min="15367" max="15616" width="8.88671875" style="29"/>
-    <col min="15617" max="15617" width="7.44140625" style="29" customWidth="1"/>
-    <col min="15618" max="15618" width="29.88671875" style="29" customWidth="1"/>
-    <col min="15619" max="15619" width="35.6640625" style="29" customWidth="1"/>
-    <col min="15620" max="15620" width="31.44140625" style="29" customWidth="1"/>
-    <col min="15621" max="15621" width="31.21875" style="29" customWidth="1"/>
-    <col min="15622" max="15622" width="18.21875" style="29" customWidth="1"/>
-    <col min="15623" max="15872" width="8.88671875" style="29"/>
-    <col min="15873" max="15873" width="7.44140625" style="29" customWidth="1"/>
-    <col min="15874" max="15874" width="29.88671875" style="29" customWidth="1"/>
-    <col min="15875" max="15875" width="35.6640625" style="29" customWidth="1"/>
-    <col min="15876" max="15876" width="31.44140625" style="29" customWidth="1"/>
-    <col min="15877" max="15877" width="31.21875" style="29" customWidth="1"/>
-    <col min="15878" max="15878" width="18.21875" style="29" customWidth="1"/>
-    <col min="15879" max="16128" width="8.88671875" style="29"/>
-    <col min="16129" max="16129" width="7.44140625" style="29" customWidth="1"/>
-    <col min="16130" max="16130" width="29.88671875" style="29" customWidth="1"/>
-    <col min="16131" max="16131" width="35.6640625" style="29" customWidth="1"/>
-    <col min="16132" max="16132" width="31.44140625" style="29" customWidth="1"/>
-    <col min="16133" max="16133" width="31.21875" style="29" customWidth="1"/>
-    <col min="16134" max="16134" width="18.21875" style="29" customWidth="1"/>
-    <col min="16135" max="16384" width="8.88671875" style="29"/>
+    <col min="1" max="1" width="7.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="29" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="29" customWidth="1"/>
+    <col min="7" max="256" width="8.875" style="29"/>
+    <col min="257" max="257" width="7.5" style="29" customWidth="1"/>
+    <col min="258" max="258" width="29.875" style="29" customWidth="1"/>
+    <col min="259" max="259" width="35.625" style="29" customWidth="1"/>
+    <col min="260" max="260" width="31.5" style="29" customWidth="1"/>
+    <col min="261" max="261" width="31.25" style="29" customWidth="1"/>
+    <col min="262" max="262" width="18.25" style="29" customWidth="1"/>
+    <col min="263" max="512" width="8.875" style="29"/>
+    <col min="513" max="513" width="7.5" style="29" customWidth="1"/>
+    <col min="514" max="514" width="29.875" style="29" customWidth="1"/>
+    <col min="515" max="515" width="35.625" style="29" customWidth="1"/>
+    <col min="516" max="516" width="31.5" style="29" customWidth="1"/>
+    <col min="517" max="517" width="31.25" style="29" customWidth="1"/>
+    <col min="518" max="518" width="18.25" style="29" customWidth="1"/>
+    <col min="519" max="768" width="8.875" style="29"/>
+    <col min="769" max="769" width="7.5" style="29" customWidth="1"/>
+    <col min="770" max="770" width="29.875" style="29" customWidth="1"/>
+    <col min="771" max="771" width="35.625" style="29" customWidth="1"/>
+    <col min="772" max="772" width="31.5" style="29" customWidth="1"/>
+    <col min="773" max="773" width="31.25" style="29" customWidth="1"/>
+    <col min="774" max="774" width="18.25" style="29" customWidth="1"/>
+    <col min="775" max="1024" width="8.875" style="29"/>
+    <col min="1025" max="1025" width="7.5" style="29" customWidth="1"/>
+    <col min="1026" max="1026" width="29.875" style="29" customWidth="1"/>
+    <col min="1027" max="1027" width="35.625" style="29" customWidth="1"/>
+    <col min="1028" max="1028" width="31.5" style="29" customWidth="1"/>
+    <col min="1029" max="1029" width="31.25" style="29" customWidth="1"/>
+    <col min="1030" max="1030" width="18.25" style="29" customWidth="1"/>
+    <col min="1031" max="1280" width="8.875" style="29"/>
+    <col min="1281" max="1281" width="7.5" style="29" customWidth="1"/>
+    <col min="1282" max="1282" width="29.875" style="29" customWidth="1"/>
+    <col min="1283" max="1283" width="35.625" style="29" customWidth="1"/>
+    <col min="1284" max="1284" width="31.5" style="29" customWidth="1"/>
+    <col min="1285" max="1285" width="31.25" style="29" customWidth="1"/>
+    <col min="1286" max="1286" width="18.25" style="29" customWidth="1"/>
+    <col min="1287" max="1536" width="8.875" style="29"/>
+    <col min="1537" max="1537" width="7.5" style="29" customWidth="1"/>
+    <col min="1538" max="1538" width="29.875" style="29" customWidth="1"/>
+    <col min="1539" max="1539" width="35.625" style="29" customWidth="1"/>
+    <col min="1540" max="1540" width="31.5" style="29" customWidth="1"/>
+    <col min="1541" max="1541" width="31.25" style="29" customWidth="1"/>
+    <col min="1542" max="1542" width="18.25" style="29" customWidth="1"/>
+    <col min="1543" max="1792" width="8.875" style="29"/>
+    <col min="1793" max="1793" width="7.5" style="29" customWidth="1"/>
+    <col min="1794" max="1794" width="29.875" style="29" customWidth="1"/>
+    <col min="1795" max="1795" width="35.625" style="29" customWidth="1"/>
+    <col min="1796" max="1796" width="31.5" style="29" customWidth="1"/>
+    <col min="1797" max="1797" width="31.25" style="29" customWidth="1"/>
+    <col min="1798" max="1798" width="18.25" style="29" customWidth="1"/>
+    <col min="1799" max="2048" width="8.875" style="29"/>
+    <col min="2049" max="2049" width="7.5" style="29" customWidth="1"/>
+    <col min="2050" max="2050" width="29.875" style="29" customWidth="1"/>
+    <col min="2051" max="2051" width="35.625" style="29" customWidth="1"/>
+    <col min="2052" max="2052" width="31.5" style="29" customWidth="1"/>
+    <col min="2053" max="2053" width="31.25" style="29" customWidth="1"/>
+    <col min="2054" max="2054" width="18.25" style="29" customWidth="1"/>
+    <col min="2055" max="2304" width="8.875" style="29"/>
+    <col min="2305" max="2305" width="7.5" style="29" customWidth="1"/>
+    <col min="2306" max="2306" width="29.875" style="29" customWidth="1"/>
+    <col min="2307" max="2307" width="35.625" style="29" customWidth="1"/>
+    <col min="2308" max="2308" width="31.5" style="29" customWidth="1"/>
+    <col min="2309" max="2309" width="31.25" style="29" customWidth="1"/>
+    <col min="2310" max="2310" width="18.25" style="29" customWidth="1"/>
+    <col min="2311" max="2560" width="8.875" style="29"/>
+    <col min="2561" max="2561" width="7.5" style="29" customWidth="1"/>
+    <col min="2562" max="2562" width="29.875" style="29" customWidth="1"/>
+    <col min="2563" max="2563" width="35.625" style="29" customWidth="1"/>
+    <col min="2564" max="2564" width="31.5" style="29" customWidth="1"/>
+    <col min="2565" max="2565" width="31.25" style="29" customWidth="1"/>
+    <col min="2566" max="2566" width="18.25" style="29" customWidth="1"/>
+    <col min="2567" max="2816" width="8.875" style="29"/>
+    <col min="2817" max="2817" width="7.5" style="29" customWidth="1"/>
+    <col min="2818" max="2818" width="29.875" style="29" customWidth="1"/>
+    <col min="2819" max="2819" width="35.625" style="29" customWidth="1"/>
+    <col min="2820" max="2820" width="31.5" style="29" customWidth="1"/>
+    <col min="2821" max="2821" width="31.25" style="29" customWidth="1"/>
+    <col min="2822" max="2822" width="18.25" style="29" customWidth="1"/>
+    <col min="2823" max="3072" width="8.875" style="29"/>
+    <col min="3073" max="3073" width="7.5" style="29" customWidth="1"/>
+    <col min="3074" max="3074" width="29.875" style="29" customWidth="1"/>
+    <col min="3075" max="3075" width="35.625" style="29" customWidth="1"/>
+    <col min="3076" max="3076" width="31.5" style="29" customWidth="1"/>
+    <col min="3077" max="3077" width="31.25" style="29" customWidth="1"/>
+    <col min="3078" max="3078" width="18.25" style="29" customWidth="1"/>
+    <col min="3079" max="3328" width="8.875" style="29"/>
+    <col min="3329" max="3329" width="7.5" style="29" customWidth="1"/>
+    <col min="3330" max="3330" width="29.875" style="29" customWidth="1"/>
+    <col min="3331" max="3331" width="35.625" style="29" customWidth="1"/>
+    <col min="3332" max="3332" width="31.5" style="29" customWidth="1"/>
+    <col min="3333" max="3333" width="31.25" style="29" customWidth="1"/>
+    <col min="3334" max="3334" width="18.25" style="29" customWidth="1"/>
+    <col min="3335" max="3584" width="8.875" style="29"/>
+    <col min="3585" max="3585" width="7.5" style="29" customWidth="1"/>
+    <col min="3586" max="3586" width="29.875" style="29" customWidth="1"/>
+    <col min="3587" max="3587" width="35.625" style="29" customWidth="1"/>
+    <col min="3588" max="3588" width="31.5" style="29" customWidth="1"/>
+    <col min="3589" max="3589" width="31.25" style="29" customWidth="1"/>
+    <col min="3590" max="3590" width="18.25" style="29" customWidth="1"/>
+    <col min="3591" max="3840" width="8.875" style="29"/>
+    <col min="3841" max="3841" width="7.5" style="29" customWidth="1"/>
+    <col min="3842" max="3842" width="29.875" style="29" customWidth="1"/>
+    <col min="3843" max="3843" width="35.625" style="29" customWidth="1"/>
+    <col min="3844" max="3844" width="31.5" style="29" customWidth="1"/>
+    <col min="3845" max="3845" width="31.25" style="29" customWidth="1"/>
+    <col min="3846" max="3846" width="18.25" style="29" customWidth="1"/>
+    <col min="3847" max="4096" width="8.875" style="29"/>
+    <col min="4097" max="4097" width="7.5" style="29" customWidth="1"/>
+    <col min="4098" max="4098" width="29.875" style="29" customWidth="1"/>
+    <col min="4099" max="4099" width="35.625" style="29" customWidth="1"/>
+    <col min="4100" max="4100" width="31.5" style="29" customWidth="1"/>
+    <col min="4101" max="4101" width="31.25" style="29" customWidth="1"/>
+    <col min="4102" max="4102" width="18.25" style="29" customWidth="1"/>
+    <col min="4103" max="4352" width="8.875" style="29"/>
+    <col min="4353" max="4353" width="7.5" style="29" customWidth="1"/>
+    <col min="4354" max="4354" width="29.875" style="29" customWidth="1"/>
+    <col min="4355" max="4355" width="35.625" style="29" customWidth="1"/>
+    <col min="4356" max="4356" width="31.5" style="29" customWidth="1"/>
+    <col min="4357" max="4357" width="31.25" style="29" customWidth="1"/>
+    <col min="4358" max="4358" width="18.25" style="29" customWidth="1"/>
+    <col min="4359" max="4608" width="8.875" style="29"/>
+    <col min="4609" max="4609" width="7.5" style="29" customWidth="1"/>
+    <col min="4610" max="4610" width="29.875" style="29" customWidth="1"/>
+    <col min="4611" max="4611" width="35.625" style="29" customWidth="1"/>
+    <col min="4612" max="4612" width="31.5" style="29" customWidth="1"/>
+    <col min="4613" max="4613" width="31.25" style="29" customWidth="1"/>
+    <col min="4614" max="4614" width="18.25" style="29" customWidth="1"/>
+    <col min="4615" max="4864" width="8.875" style="29"/>
+    <col min="4865" max="4865" width="7.5" style="29" customWidth="1"/>
+    <col min="4866" max="4866" width="29.875" style="29" customWidth="1"/>
+    <col min="4867" max="4867" width="35.625" style="29" customWidth="1"/>
+    <col min="4868" max="4868" width="31.5" style="29" customWidth="1"/>
+    <col min="4869" max="4869" width="31.25" style="29" customWidth="1"/>
+    <col min="4870" max="4870" width="18.25" style="29" customWidth="1"/>
+    <col min="4871" max="5120" width="8.875" style="29"/>
+    <col min="5121" max="5121" width="7.5" style="29" customWidth="1"/>
+    <col min="5122" max="5122" width="29.875" style="29" customWidth="1"/>
+    <col min="5123" max="5123" width="35.625" style="29" customWidth="1"/>
+    <col min="5124" max="5124" width="31.5" style="29" customWidth="1"/>
+    <col min="5125" max="5125" width="31.25" style="29" customWidth="1"/>
+    <col min="5126" max="5126" width="18.25" style="29" customWidth="1"/>
+    <col min="5127" max="5376" width="8.875" style="29"/>
+    <col min="5377" max="5377" width="7.5" style="29" customWidth="1"/>
+    <col min="5378" max="5378" width="29.875" style="29" customWidth="1"/>
+    <col min="5379" max="5379" width="35.625" style="29" customWidth="1"/>
+    <col min="5380" max="5380" width="31.5" style="29" customWidth="1"/>
+    <col min="5381" max="5381" width="31.25" style="29" customWidth="1"/>
+    <col min="5382" max="5382" width="18.25" style="29" customWidth="1"/>
+    <col min="5383" max="5632" width="8.875" style="29"/>
+    <col min="5633" max="5633" width="7.5" style="29" customWidth="1"/>
+    <col min="5634" max="5634" width="29.875" style="29" customWidth="1"/>
+    <col min="5635" max="5635" width="35.625" style="29" customWidth="1"/>
+    <col min="5636" max="5636" width="31.5" style="29" customWidth="1"/>
+    <col min="5637" max="5637" width="31.25" style="29" customWidth="1"/>
+    <col min="5638" max="5638" width="18.25" style="29" customWidth="1"/>
+    <col min="5639" max="5888" width="8.875" style="29"/>
+    <col min="5889" max="5889" width="7.5" style="29" customWidth="1"/>
+    <col min="5890" max="5890" width="29.875" style="29" customWidth="1"/>
+    <col min="5891" max="5891" width="35.625" style="29" customWidth="1"/>
+    <col min="5892" max="5892" width="31.5" style="29" customWidth="1"/>
+    <col min="5893" max="5893" width="31.25" style="29" customWidth="1"/>
+    <col min="5894" max="5894" width="18.25" style="29" customWidth="1"/>
+    <col min="5895" max="6144" width="8.875" style="29"/>
+    <col min="6145" max="6145" width="7.5" style="29" customWidth="1"/>
+    <col min="6146" max="6146" width="29.875" style="29" customWidth="1"/>
+    <col min="6147" max="6147" width="35.625" style="29" customWidth="1"/>
+    <col min="6148" max="6148" width="31.5" style="29" customWidth="1"/>
+    <col min="6149" max="6149" width="31.25" style="29" customWidth="1"/>
+    <col min="6150" max="6150" width="18.25" style="29" customWidth="1"/>
+    <col min="6151" max="6400" width="8.875" style="29"/>
+    <col min="6401" max="6401" width="7.5" style="29" customWidth="1"/>
+    <col min="6402" max="6402" width="29.875" style="29" customWidth="1"/>
+    <col min="6403" max="6403" width="35.625" style="29" customWidth="1"/>
+    <col min="6404" max="6404" width="31.5" style="29" customWidth="1"/>
+    <col min="6405" max="6405" width="31.25" style="29" customWidth="1"/>
+    <col min="6406" max="6406" width="18.25" style="29" customWidth="1"/>
+    <col min="6407" max="6656" width="8.875" style="29"/>
+    <col min="6657" max="6657" width="7.5" style="29" customWidth="1"/>
+    <col min="6658" max="6658" width="29.875" style="29" customWidth="1"/>
+    <col min="6659" max="6659" width="35.625" style="29" customWidth="1"/>
+    <col min="6660" max="6660" width="31.5" style="29" customWidth="1"/>
+    <col min="6661" max="6661" width="31.25" style="29" customWidth="1"/>
+    <col min="6662" max="6662" width="18.25" style="29" customWidth="1"/>
+    <col min="6663" max="6912" width="8.875" style="29"/>
+    <col min="6913" max="6913" width="7.5" style="29" customWidth="1"/>
+    <col min="6914" max="6914" width="29.875" style="29" customWidth="1"/>
+    <col min="6915" max="6915" width="35.625" style="29" customWidth="1"/>
+    <col min="6916" max="6916" width="31.5" style="29" customWidth="1"/>
+    <col min="6917" max="6917" width="31.25" style="29" customWidth="1"/>
+    <col min="6918" max="6918" width="18.25" style="29" customWidth="1"/>
+    <col min="6919" max="7168" width="8.875" style="29"/>
+    <col min="7169" max="7169" width="7.5" style="29" customWidth="1"/>
+    <col min="7170" max="7170" width="29.875" style="29" customWidth="1"/>
+    <col min="7171" max="7171" width="35.625" style="29" customWidth="1"/>
+    <col min="7172" max="7172" width="31.5" style="29" customWidth="1"/>
+    <col min="7173" max="7173" width="31.25" style="29" customWidth="1"/>
+    <col min="7174" max="7174" width="18.25" style="29" customWidth="1"/>
+    <col min="7175" max="7424" width="8.875" style="29"/>
+    <col min="7425" max="7425" width="7.5" style="29" customWidth="1"/>
+    <col min="7426" max="7426" width="29.875" style="29" customWidth="1"/>
+    <col min="7427" max="7427" width="35.625" style="29" customWidth="1"/>
+    <col min="7428" max="7428" width="31.5" style="29" customWidth="1"/>
+    <col min="7429" max="7429" width="31.25" style="29" customWidth="1"/>
+    <col min="7430" max="7430" width="18.25" style="29" customWidth="1"/>
+    <col min="7431" max="7680" width="8.875" style="29"/>
+    <col min="7681" max="7681" width="7.5" style="29" customWidth="1"/>
+    <col min="7682" max="7682" width="29.875" style="29" customWidth="1"/>
+    <col min="7683" max="7683" width="35.625" style="29" customWidth="1"/>
+    <col min="7684" max="7684" width="31.5" style="29" customWidth="1"/>
+    <col min="7685" max="7685" width="31.25" style="29" customWidth="1"/>
+    <col min="7686" max="7686" width="18.25" style="29" customWidth="1"/>
+    <col min="7687" max="7936" width="8.875" style="29"/>
+    <col min="7937" max="7937" width="7.5" style="29" customWidth="1"/>
+    <col min="7938" max="7938" width="29.875" style="29" customWidth="1"/>
+    <col min="7939" max="7939" width="35.625" style="29" customWidth="1"/>
+    <col min="7940" max="7940" width="31.5" style="29" customWidth="1"/>
+    <col min="7941" max="7941" width="31.25" style="29" customWidth="1"/>
+    <col min="7942" max="7942" width="18.25" style="29" customWidth="1"/>
+    <col min="7943" max="8192" width="8.875" style="29"/>
+    <col min="8193" max="8193" width="7.5" style="29" customWidth="1"/>
+    <col min="8194" max="8194" width="29.875" style="29" customWidth="1"/>
+    <col min="8195" max="8195" width="35.625" style="29" customWidth="1"/>
+    <col min="8196" max="8196" width="31.5" style="29" customWidth="1"/>
+    <col min="8197" max="8197" width="31.25" style="29" customWidth="1"/>
+    <col min="8198" max="8198" width="18.25" style="29" customWidth="1"/>
+    <col min="8199" max="8448" width="8.875" style="29"/>
+    <col min="8449" max="8449" width="7.5" style="29" customWidth="1"/>
+    <col min="8450" max="8450" width="29.875" style="29" customWidth="1"/>
+    <col min="8451" max="8451" width="35.625" style="29" customWidth="1"/>
+    <col min="8452" max="8452" width="31.5" style="29" customWidth="1"/>
+    <col min="8453" max="8453" width="31.25" style="29" customWidth="1"/>
+    <col min="8454" max="8454" width="18.25" style="29" customWidth="1"/>
+    <col min="8455" max="8704" width="8.875" style="29"/>
+    <col min="8705" max="8705" width="7.5" style="29" customWidth="1"/>
+    <col min="8706" max="8706" width="29.875" style="29" customWidth="1"/>
+    <col min="8707" max="8707" width="35.625" style="29" customWidth="1"/>
+    <col min="8708" max="8708" width="31.5" style="29" customWidth="1"/>
+    <col min="8709" max="8709" width="31.25" style="29" customWidth="1"/>
+    <col min="8710" max="8710" width="18.25" style="29" customWidth="1"/>
+    <col min="8711" max="8960" width="8.875" style="29"/>
+    <col min="8961" max="8961" width="7.5" style="29" customWidth="1"/>
+    <col min="8962" max="8962" width="29.875" style="29" customWidth="1"/>
+    <col min="8963" max="8963" width="35.625" style="29" customWidth="1"/>
+    <col min="8964" max="8964" width="31.5" style="29" customWidth="1"/>
+    <col min="8965" max="8965" width="31.25" style="29" customWidth="1"/>
+    <col min="8966" max="8966" width="18.25" style="29" customWidth="1"/>
+    <col min="8967" max="9216" width="8.875" style="29"/>
+    <col min="9217" max="9217" width="7.5" style="29" customWidth="1"/>
+    <col min="9218" max="9218" width="29.875" style="29" customWidth="1"/>
+    <col min="9219" max="9219" width="35.625" style="29" customWidth="1"/>
+    <col min="9220" max="9220" width="31.5" style="29" customWidth="1"/>
+    <col min="9221" max="9221" width="31.25" style="29" customWidth="1"/>
+    <col min="9222" max="9222" width="18.25" style="29" customWidth="1"/>
+    <col min="9223" max="9472" width="8.875" style="29"/>
+    <col min="9473" max="9473" width="7.5" style="29" customWidth="1"/>
+    <col min="9474" max="9474" width="29.875" style="29" customWidth="1"/>
+    <col min="9475" max="9475" width="35.625" style="29" customWidth="1"/>
+    <col min="9476" max="9476" width="31.5" style="29" customWidth="1"/>
+    <col min="9477" max="9477" width="31.25" style="29" customWidth="1"/>
+    <col min="9478" max="9478" width="18.25" style="29" customWidth="1"/>
+    <col min="9479" max="9728" width="8.875" style="29"/>
+    <col min="9729" max="9729" width="7.5" style="29" customWidth="1"/>
+    <col min="9730" max="9730" width="29.875" style="29" customWidth="1"/>
+    <col min="9731" max="9731" width="35.625" style="29" customWidth="1"/>
+    <col min="9732" max="9732" width="31.5" style="29" customWidth="1"/>
+    <col min="9733" max="9733" width="31.25" style="29" customWidth="1"/>
+    <col min="9734" max="9734" width="18.25" style="29" customWidth="1"/>
+    <col min="9735" max="9984" width="8.875" style="29"/>
+    <col min="9985" max="9985" width="7.5" style="29" customWidth="1"/>
+    <col min="9986" max="9986" width="29.875" style="29" customWidth="1"/>
+    <col min="9987" max="9987" width="35.625" style="29" customWidth="1"/>
+    <col min="9988" max="9988" width="31.5" style="29" customWidth="1"/>
+    <col min="9989" max="9989" width="31.25" style="29" customWidth="1"/>
+    <col min="9990" max="9990" width="18.25" style="29" customWidth="1"/>
+    <col min="9991" max="10240" width="8.875" style="29"/>
+    <col min="10241" max="10241" width="7.5" style="29" customWidth="1"/>
+    <col min="10242" max="10242" width="29.875" style="29" customWidth="1"/>
+    <col min="10243" max="10243" width="35.625" style="29" customWidth="1"/>
+    <col min="10244" max="10244" width="31.5" style="29" customWidth="1"/>
+    <col min="10245" max="10245" width="31.25" style="29" customWidth="1"/>
+    <col min="10246" max="10246" width="18.25" style="29" customWidth="1"/>
+    <col min="10247" max="10496" width="8.875" style="29"/>
+    <col min="10497" max="10497" width="7.5" style="29" customWidth="1"/>
+    <col min="10498" max="10498" width="29.875" style="29" customWidth="1"/>
+    <col min="10499" max="10499" width="35.625" style="29" customWidth="1"/>
+    <col min="10500" max="10500" width="31.5" style="29" customWidth="1"/>
+    <col min="10501" max="10501" width="31.25" style="29" customWidth="1"/>
+    <col min="10502" max="10502" width="18.25" style="29" customWidth="1"/>
+    <col min="10503" max="10752" width="8.875" style="29"/>
+    <col min="10753" max="10753" width="7.5" style="29" customWidth="1"/>
+    <col min="10754" max="10754" width="29.875" style="29" customWidth="1"/>
+    <col min="10755" max="10755" width="35.625" style="29" customWidth="1"/>
+    <col min="10756" max="10756" width="31.5" style="29" customWidth="1"/>
+    <col min="10757" max="10757" width="31.25" style="29" customWidth="1"/>
+    <col min="10758" max="10758" width="18.25" style="29" customWidth="1"/>
+    <col min="10759" max="11008" width="8.875" style="29"/>
+    <col min="11009" max="11009" width="7.5" style="29" customWidth="1"/>
+    <col min="11010" max="11010" width="29.875" style="29" customWidth="1"/>
+    <col min="11011" max="11011" width="35.625" style="29" customWidth="1"/>
+    <col min="11012" max="11012" width="31.5" style="29" customWidth="1"/>
+    <col min="11013" max="11013" width="31.25" style="29" customWidth="1"/>
+    <col min="11014" max="11014" width="18.25" style="29" customWidth="1"/>
+    <col min="11015" max="11264" width="8.875" style="29"/>
+    <col min="11265" max="11265" width="7.5" style="29" customWidth="1"/>
+    <col min="11266" max="11266" width="29.875" style="29" customWidth="1"/>
+    <col min="11267" max="11267" width="35.625" style="29" customWidth="1"/>
+    <col min="11268" max="11268" width="31.5" style="29" customWidth="1"/>
+    <col min="11269" max="11269" width="31.25" style="29" customWidth="1"/>
+    <col min="11270" max="11270" width="18.25" style="29" customWidth="1"/>
+    <col min="11271" max="11520" width="8.875" style="29"/>
+    <col min="11521" max="11521" width="7.5" style="29" customWidth="1"/>
+    <col min="11522" max="11522" width="29.875" style="29" customWidth="1"/>
+    <col min="11523" max="11523" width="35.625" style="29" customWidth="1"/>
+    <col min="11524" max="11524" width="31.5" style="29" customWidth="1"/>
+    <col min="11525" max="11525" width="31.25" style="29" customWidth="1"/>
+    <col min="11526" max="11526" width="18.25" style="29" customWidth="1"/>
+    <col min="11527" max="11776" width="8.875" style="29"/>
+    <col min="11777" max="11777" width="7.5" style="29" customWidth="1"/>
+    <col min="11778" max="11778" width="29.875" style="29" customWidth="1"/>
+    <col min="11779" max="11779" width="35.625" style="29" customWidth="1"/>
+    <col min="11780" max="11780" width="31.5" style="29" customWidth="1"/>
+    <col min="11781" max="11781" width="31.25" style="29" customWidth="1"/>
+    <col min="11782" max="11782" width="18.25" style="29" customWidth="1"/>
+    <col min="11783" max="12032" width="8.875" style="29"/>
+    <col min="12033" max="12033" width="7.5" style="29" customWidth="1"/>
+    <col min="12034" max="12034" width="29.875" style="29" customWidth="1"/>
+    <col min="12035" max="12035" width="35.625" style="29" customWidth="1"/>
+    <col min="12036" max="12036" width="31.5" style="29" customWidth="1"/>
+    <col min="12037" max="12037" width="31.25" style="29" customWidth="1"/>
+    <col min="12038" max="12038" width="18.25" style="29" customWidth="1"/>
+    <col min="12039" max="12288" width="8.875" style="29"/>
+    <col min="12289" max="12289" width="7.5" style="29" customWidth="1"/>
+    <col min="12290" max="12290" width="29.875" style="29" customWidth="1"/>
+    <col min="12291" max="12291" width="35.625" style="29" customWidth="1"/>
+    <col min="12292" max="12292" width="31.5" style="29" customWidth="1"/>
+    <col min="12293" max="12293" width="31.25" style="29" customWidth="1"/>
+    <col min="12294" max="12294" width="18.25" style="29" customWidth="1"/>
+    <col min="12295" max="12544" width="8.875" style="29"/>
+    <col min="12545" max="12545" width="7.5" style="29" customWidth="1"/>
+    <col min="12546" max="12546" width="29.875" style="29" customWidth="1"/>
+    <col min="12547" max="12547" width="35.625" style="29" customWidth="1"/>
+    <col min="12548" max="12548" width="31.5" style="29" customWidth="1"/>
+    <col min="12549" max="12549" width="31.25" style="29" customWidth="1"/>
+    <col min="12550" max="12550" width="18.25" style="29" customWidth="1"/>
+    <col min="12551" max="12800" width="8.875" style="29"/>
+    <col min="12801" max="12801" width="7.5" style="29" customWidth="1"/>
+    <col min="12802" max="12802" width="29.875" style="29" customWidth="1"/>
+    <col min="12803" max="12803" width="35.625" style="29" customWidth="1"/>
+    <col min="12804" max="12804" width="31.5" style="29" customWidth="1"/>
+    <col min="12805" max="12805" width="31.25" style="29" customWidth="1"/>
+    <col min="12806" max="12806" width="18.25" style="29" customWidth="1"/>
+    <col min="12807" max="13056" width="8.875" style="29"/>
+    <col min="13057" max="13057" width="7.5" style="29" customWidth="1"/>
+    <col min="13058" max="13058" width="29.875" style="29" customWidth="1"/>
+    <col min="13059" max="13059" width="35.625" style="29" customWidth="1"/>
+    <col min="13060" max="13060" width="31.5" style="29" customWidth="1"/>
+    <col min="13061" max="13061" width="31.25" style="29" customWidth="1"/>
+    <col min="13062" max="13062" width="18.25" style="29" customWidth="1"/>
+    <col min="13063" max="13312" width="8.875" style="29"/>
+    <col min="13313" max="13313" width="7.5" style="29" customWidth="1"/>
+    <col min="13314" max="13314" width="29.875" style="29" customWidth="1"/>
+    <col min="13315" max="13315" width="35.625" style="29" customWidth="1"/>
+    <col min="13316" max="13316" width="31.5" style="29" customWidth="1"/>
+    <col min="13317" max="13317" width="31.25" style="29" customWidth="1"/>
+    <col min="13318" max="13318" width="18.25" style="29" customWidth="1"/>
+    <col min="13319" max="13568" width="8.875" style="29"/>
+    <col min="13569" max="13569" width="7.5" style="29" customWidth="1"/>
+    <col min="13570" max="13570" width="29.875" style="29" customWidth="1"/>
+    <col min="13571" max="13571" width="35.625" style="29" customWidth="1"/>
+    <col min="13572" max="13572" width="31.5" style="29" customWidth="1"/>
+    <col min="13573" max="13573" width="31.25" style="29" customWidth="1"/>
+    <col min="13574" max="13574" width="18.25" style="29" customWidth="1"/>
+    <col min="13575" max="13824" width="8.875" style="29"/>
+    <col min="13825" max="13825" width="7.5" style="29" customWidth="1"/>
+    <col min="13826" max="13826" width="29.875" style="29" customWidth="1"/>
+    <col min="13827" max="13827" width="35.625" style="29" customWidth="1"/>
+    <col min="13828" max="13828" width="31.5" style="29" customWidth="1"/>
+    <col min="13829" max="13829" width="31.25" style="29" customWidth="1"/>
+    <col min="13830" max="13830" width="18.25" style="29" customWidth="1"/>
+    <col min="13831" max="14080" width="8.875" style="29"/>
+    <col min="14081" max="14081" width="7.5" style="29" customWidth="1"/>
+    <col min="14082" max="14082" width="29.875" style="29" customWidth="1"/>
+    <col min="14083" max="14083" width="35.625" style="29" customWidth="1"/>
+    <col min="14084" max="14084" width="31.5" style="29" customWidth="1"/>
+    <col min="14085" max="14085" width="31.25" style="29" customWidth="1"/>
+    <col min="14086" max="14086" width="18.25" style="29" customWidth="1"/>
+    <col min="14087" max="14336" width="8.875" style="29"/>
+    <col min="14337" max="14337" width="7.5" style="29" customWidth="1"/>
+    <col min="14338" max="14338" width="29.875" style="29" customWidth="1"/>
+    <col min="14339" max="14339" width="35.625" style="29" customWidth="1"/>
+    <col min="14340" max="14340" width="31.5" style="29" customWidth="1"/>
+    <col min="14341" max="14341" width="31.25" style="29" customWidth="1"/>
+    <col min="14342" max="14342" width="18.25" style="29" customWidth="1"/>
+    <col min="14343" max="14592" width="8.875" style="29"/>
+    <col min="14593" max="14593" width="7.5" style="29" customWidth="1"/>
+    <col min="14594" max="14594" width="29.875" style="29" customWidth="1"/>
+    <col min="14595" max="14595" width="35.625" style="29" customWidth="1"/>
+    <col min="14596" max="14596" width="31.5" style="29" customWidth="1"/>
+    <col min="14597" max="14597" width="31.25" style="29" customWidth="1"/>
+    <col min="14598" max="14598" width="18.25" style="29" customWidth="1"/>
+    <col min="14599" max="14848" width="8.875" style="29"/>
+    <col min="14849" max="14849" width="7.5" style="29" customWidth="1"/>
+    <col min="14850" max="14850" width="29.875" style="29" customWidth="1"/>
+    <col min="14851" max="14851" width="35.625" style="29" customWidth="1"/>
+    <col min="14852" max="14852" width="31.5" style="29" customWidth="1"/>
+    <col min="14853" max="14853" width="31.25" style="29" customWidth="1"/>
+    <col min="14854" max="14854" width="18.25" style="29" customWidth="1"/>
+    <col min="14855" max="15104" width="8.875" style="29"/>
+    <col min="15105" max="15105" width="7.5" style="29" customWidth="1"/>
+    <col min="15106" max="15106" width="29.875" style="29" customWidth="1"/>
+    <col min="15107" max="15107" width="35.625" style="29" customWidth="1"/>
+    <col min="15108" max="15108" width="31.5" style="29" customWidth="1"/>
+    <col min="15109" max="15109" width="31.25" style="29" customWidth="1"/>
+    <col min="15110" max="15110" width="18.25" style="29" customWidth="1"/>
+    <col min="15111" max="15360" width="8.875" style="29"/>
+    <col min="15361" max="15361" width="7.5" style="29" customWidth="1"/>
+    <col min="15362" max="15362" width="29.875" style="29" customWidth="1"/>
+    <col min="15363" max="15363" width="35.625" style="29" customWidth="1"/>
+    <col min="15364" max="15364" width="31.5" style="29" customWidth="1"/>
+    <col min="15365" max="15365" width="31.25" style="29" customWidth="1"/>
+    <col min="15366" max="15366" width="18.25" style="29" customWidth="1"/>
+    <col min="15367" max="15616" width="8.875" style="29"/>
+    <col min="15617" max="15617" width="7.5" style="29" customWidth="1"/>
+    <col min="15618" max="15618" width="29.875" style="29" customWidth="1"/>
+    <col min="15619" max="15619" width="35.625" style="29" customWidth="1"/>
+    <col min="15620" max="15620" width="31.5" style="29" customWidth="1"/>
+    <col min="15621" max="15621" width="31.25" style="29" customWidth="1"/>
+    <col min="15622" max="15622" width="18.25" style="29" customWidth="1"/>
+    <col min="15623" max="15872" width="8.875" style="29"/>
+    <col min="15873" max="15873" width="7.5" style="29" customWidth="1"/>
+    <col min="15874" max="15874" width="29.875" style="29" customWidth="1"/>
+    <col min="15875" max="15875" width="35.625" style="29" customWidth="1"/>
+    <col min="15876" max="15876" width="31.5" style="29" customWidth="1"/>
+    <col min="15877" max="15877" width="31.25" style="29" customWidth="1"/>
+    <col min="15878" max="15878" width="18.25" style="29" customWidth="1"/>
+    <col min="15879" max="16128" width="8.875" style="29"/>
+    <col min="16129" max="16129" width="7.5" style="29" customWidth="1"/>
+    <col min="16130" max="16130" width="29.875" style="29" customWidth="1"/>
+    <col min="16131" max="16131" width="35.625" style="29" customWidth="1"/>
+    <col min="16132" max="16132" width="31.5" style="29" customWidth="1"/>
+    <col min="16133" max="16133" width="31.25" style="29" customWidth="1"/>
+    <col min="16134" max="16134" width="18.25" style="29" customWidth="1"/>
+    <col min="16135" max="16384" width="8.875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1">
-      <c r="B1" s="57" t="s">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="57"/>
-    </row>
-    <row r="2" spans="1:7" ht="19.2" customHeight="1">
-      <c r="B2" s="62" t="s">
+      <c r="C1" s="60"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.2" customHeight="1">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.8" customHeight="1">
+    <row r="5" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="34" t="s">
         <v>34</v>
       </c>
@@ -1679,7 +1794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.2" customHeight="1">
+    <row r="6" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="34" t="s">
         <v>38</v>
       </c>
@@ -1693,7 +1808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1">
+    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="34" t="s">
         <v>41</v>
       </c>
@@ -1707,7 +1822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.2" customHeight="1">
+    <row r="8" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="34" t="s">
         <v>45</v>
       </c>
@@ -1717,36 +1832,36 @@
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
     </row>
-    <row r="9" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="40"/>
       <c r="C9" s="41"/>
       <c r="D9" s="42"/>
       <c r="E9" s="43"/>
     </row>
-    <row r="10" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
     </row>
-    <row r="11" spans="1:7" ht="19.2" customHeight="1">
-      <c r="B11" s="58" t="s">
+    <row r="11" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="45"/>
       <c r="E11" s="46"/>
     </row>
-    <row r="12" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
-      <c r="B12" s="60" t="s">
+    <row r="12" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="47"/>
       <c r="E12" s="48"/>
     </row>
-    <row r="13" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="49"/>
     </row>
-    <row r="14" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
         <v>47</v>
       </c>
@@ -1769,7 +1884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="52">
         <v>1</v>
       </c>
@@ -1790,7 +1905,7 @@
       </c>
       <c r="G15" s="53"/>
     </row>
-    <row r="16" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52">
         <v>2</v>
       </c>
@@ -1811,7 +1926,7 @@
       </c>
       <c r="G16" s="53"/>
     </row>
-    <row r="17" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52">
         <v>3</v>
       </c>
@@ -1832,7 +1947,7 @@
       </c>
       <c r="G17" s="53"/>
     </row>
-    <row r="18" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52">
         <v>4</v>
       </c>
@@ -1851,7 +1966,7 @@
       </c>
       <c r="G18" s="53"/>
     </row>
-    <row r="19" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+    <row r="19" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52">
         <v>5</v>
       </c>
@@ -1870,7 +1985,7 @@
       </c>
       <c r="G19" s="53"/>
     </row>
-    <row r="20" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+    <row r="20" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -1879,18 +1994,18 @@
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
     </row>
-    <row r="21" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+    <row r="21" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="49"/>
     </row>
-    <row r="22" spans="1:7" ht="19.2" customHeight="1">
-      <c r="B22" s="64" t="s">
+    <row r="22" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-    </row>
-    <row r="23" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="55" t="s">
         <v>72</v>
       </c>
@@ -1898,9 +2013,9 @@
       <c r="D23" s="47"/>
       <c r="E23" s="48"/>
     </row>
-    <row r="24" spans="1:7" ht="19.2" customHeight="1"/>
-    <row r="25" spans="1:7" ht="19.2" customHeight="1"/>
-    <row r="26" spans="1:7" ht="19.2" customHeight="1"/>
+    <row r="24" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
@@ -1915,27 +2030,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="57.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.4" customHeight="1">
+    <row r="1" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="67"/>
+      <c r="C1" s="70"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -1945,14 +2060,14 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="23.4" customHeight="1">
+    <row r="2" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -1960,12 +2075,12 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -1973,7 +2088,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="23.4" customHeight="1">
+    <row r="4" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>1</v>
@@ -1994,7 +2109,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="23.4" customHeight="1">
+    <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
@@ -2015,7 +2130,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="31.2" customHeight="1">
+    <row r="6" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="17" t="s">
         <v>6</v>
@@ -2036,7 +2151,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="43.2" customHeight="1">
+    <row r="7" spans="1:11" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="17" t="s">
         <v>8</v>
@@ -2057,7 +2172,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="49.2" customHeight="1">
+    <row r="8" spans="1:11" ht="49.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>10</v>
@@ -2074,7 +2189,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2087,7 +2202,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2100,12 +2215,12 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="23.4" customHeight="1">
+    <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="F11" s="14"/>
@@ -2115,12 +2230,12 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="F12" s="14"/>
@@ -2130,7 +2245,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="1"/>
       <c r="C13" s="14"/>
@@ -2143,7 +2258,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2170,7 +2285,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="15" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2195,7 +2310,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1">
+    <row r="16" spans="1:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -2220,7 +2335,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2245,14 +2360,14 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="42" customHeight="1" thickBot="1">
+    <row r="18" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="57" t="s">
         <v>85</v>
       </c>
       <c r="D18" s="27" t="s">
@@ -2270,7 +2385,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="19" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -2295,7 +2410,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -2320,7 +2435,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="43.2" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -2345,14 +2460,14 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="33.6" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="58" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -2370,14 +2485,14 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>9</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="59">
         <v>123</v>
       </c>
       <c r="D23" s="27" t="s">
@@ -2395,14 +2510,14 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="59" t="s">
         <v>95</v>
       </c>
       <c r="D24" s="27" t="s">
@@ -2420,14 +2535,14 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="23.4" customHeight="1">
+    <row r="25" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="76"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2435,7 +2550,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="8" t="s">
         <v>24</v>
@@ -2450,7 +2565,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" ht="23.4" customHeight="1">
+    <row r="27" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2463,7 +2578,7 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="23.4" customHeight="1">
+    <row r="28" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2476,7 +2591,7 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" ht="23.4" customHeight="1">
+    <row r="29" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2499,7 +2614,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2507,14 +2622,482 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7602792-E590-44DD-9950-AF2B762E7A24}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="57.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="49.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>7</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>8</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B20:E20"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{C276F963-82C9-4E3A-9EFF-0E183BFEA8B9}"/>
+    <hyperlink ref="C16" r:id="rId2" xr:uid="{C8D2A07A-6030-4617-A035-22D48C0D8399}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
 </file>
--- a/01.Document/08.Test Case/Geosensing Test Case .xlsx
+++ b/01.Document/08.Test Case/Geosensing Test Case .xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC2775D-AEBA-4EF5-B20C-4E52A66C3341}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="Login Test Case" sheetId="1" r:id="rId1"/>
     <sheet name="Register Test Case" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Booking" sheetId="4" r:id="rId4"/>
+    <sheet name="Booking" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -441,10 +439,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Test1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>click parking lot name</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -466,13 +460,17 @@
   </si>
   <si>
     <t>Alert booking successful and send email</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testtest123</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -951,7 +949,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1010,7 +1008,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1043,26 +1041,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1095,23 +1076,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1287,472 +1251,472 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="35.625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="29" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="29" customWidth="1"/>
-    <col min="7" max="256" width="8.875" style="29"/>
-    <col min="257" max="257" width="7.5" style="29" customWidth="1"/>
-    <col min="258" max="258" width="29.875" style="29" customWidth="1"/>
-    <col min="259" max="259" width="35.625" style="29" customWidth="1"/>
-    <col min="260" max="260" width="31.5" style="29" customWidth="1"/>
-    <col min="261" max="261" width="31.25" style="29" customWidth="1"/>
-    <col min="262" max="262" width="18.25" style="29" customWidth="1"/>
-    <col min="263" max="512" width="8.875" style="29"/>
-    <col min="513" max="513" width="7.5" style="29" customWidth="1"/>
-    <col min="514" max="514" width="29.875" style="29" customWidth="1"/>
-    <col min="515" max="515" width="35.625" style="29" customWidth="1"/>
-    <col min="516" max="516" width="31.5" style="29" customWidth="1"/>
-    <col min="517" max="517" width="31.25" style="29" customWidth="1"/>
-    <col min="518" max="518" width="18.25" style="29" customWidth="1"/>
-    <col min="519" max="768" width="8.875" style="29"/>
-    <col min="769" max="769" width="7.5" style="29" customWidth="1"/>
-    <col min="770" max="770" width="29.875" style="29" customWidth="1"/>
-    <col min="771" max="771" width="35.625" style="29" customWidth="1"/>
-    <col min="772" max="772" width="31.5" style="29" customWidth="1"/>
-    <col min="773" max="773" width="31.25" style="29" customWidth="1"/>
-    <col min="774" max="774" width="18.25" style="29" customWidth="1"/>
-    <col min="775" max="1024" width="8.875" style="29"/>
-    <col min="1025" max="1025" width="7.5" style="29" customWidth="1"/>
-    <col min="1026" max="1026" width="29.875" style="29" customWidth="1"/>
-    <col min="1027" max="1027" width="35.625" style="29" customWidth="1"/>
-    <col min="1028" max="1028" width="31.5" style="29" customWidth="1"/>
-    <col min="1029" max="1029" width="31.25" style="29" customWidth="1"/>
-    <col min="1030" max="1030" width="18.25" style="29" customWidth="1"/>
-    <col min="1031" max="1280" width="8.875" style="29"/>
-    <col min="1281" max="1281" width="7.5" style="29" customWidth="1"/>
-    <col min="1282" max="1282" width="29.875" style="29" customWidth="1"/>
-    <col min="1283" max="1283" width="35.625" style="29" customWidth="1"/>
-    <col min="1284" max="1284" width="31.5" style="29" customWidth="1"/>
-    <col min="1285" max="1285" width="31.25" style="29" customWidth="1"/>
-    <col min="1286" max="1286" width="18.25" style="29" customWidth="1"/>
-    <col min="1287" max="1536" width="8.875" style="29"/>
-    <col min="1537" max="1537" width="7.5" style="29" customWidth="1"/>
-    <col min="1538" max="1538" width="29.875" style="29" customWidth="1"/>
-    <col min="1539" max="1539" width="35.625" style="29" customWidth="1"/>
-    <col min="1540" max="1540" width="31.5" style="29" customWidth="1"/>
-    <col min="1541" max="1541" width="31.25" style="29" customWidth="1"/>
-    <col min="1542" max="1542" width="18.25" style="29" customWidth="1"/>
-    <col min="1543" max="1792" width="8.875" style="29"/>
-    <col min="1793" max="1793" width="7.5" style="29" customWidth="1"/>
-    <col min="1794" max="1794" width="29.875" style="29" customWidth="1"/>
-    <col min="1795" max="1795" width="35.625" style="29" customWidth="1"/>
-    <col min="1796" max="1796" width="31.5" style="29" customWidth="1"/>
-    <col min="1797" max="1797" width="31.25" style="29" customWidth="1"/>
-    <col min="1798" max="1798" width="18.25" style="29" customWidth="1"/>
-    <col min="1799" max="2048" width="8.875" style="29"/>
-    <col min="2049" max="2049" width="7.5" style="29" customWidth="1"/>
-    <col min="2050" max="2050" width="29.875" style="29" customWidth="1"/>
-    <col min="2051" max="2051" width="35.625" style="29" customWidth="1"/>
-    <col min="2052" max="2052" width="31.5" style="29" customWidth="1"/>
-    <col min="2053" max="2053" width="31.25" style="29" customWidth="1"/>
-    <col min="2054" max="2054" width="18.25" style="29" customWidth="1"/>
-    <col min="2055" max="2304" width="8.875" style="29"/>
-    <col min="2305" max="2305" width="7.5" style="29" customWidth="1"/>
-    <col min="2306" max="2306" width="29.875" style="29" customWidth="1"/>
-    <col min="2307" max="2307" width="35.625" style="29" customWidth="1"/>
-    <col min="2308" max="2308" width="31.5" style="29" customWidth="1"/>
-    <col min="2309" max="2309" width="31.25" style="29" customWidth="1"/>
-    <col min="2310" max="2310" width="18.25" style="29" customWidth="1"/>
-    <col min="2311" max="2560" width="8.875" style="29"/>
-    <col min="2561" max="2561" width="7.5" style="29" customWidth="1"/>
-    <col min="2562" max="2562" width="29.875" style="29" customWidth="1"/>
-    <col min="2563" max="2563" width="35.625" style="29" customWidth="1"/>
-    <col min="2564" max="2564" width="31.5" style="29" customWidth="1"/>
-    <col min="2565" max="2565" width="31.25" style="29" customWidth="1"/>
-    <col min="2566" max="2566" width="18.25" style="29" customWidth="1"/>
-    <col min="2567" max="2816" width="8.875" style="29"/>
-    <col min="2817" max="2817" width="7.5" style="29" customWidth="1"/>
-    <col min="2818" max="2818" width="29.875" style="29" customWidth="1"/>
-    <col min="2819" max="2819" width="35.625" style="29" customWidth="1"/>
-    <col min="2820" max="2820" width="31.5" style="29" customWidth="1"/>
-    <col min="2821" max="2821" width="31.25" style="29" customWidth="1"/>
-    <col min="2822" max="2822" width="18.25" style="29" customWidth="1"/>
-    <col min="2823" max="3072" width="8.875" style="29"/>
-    <col min="3073" max="3073" width="7.5" style="29" customWidth="1"/>
-    <col min="3074" max="3074" width="29.875" style="29" customWidth="1"/>
-    <col min="3075" max="3075" width="35.625" style="29" customWidth="1"/>
-    <col min="3076" max="3076" width="31.5" style="29" customWidth="1"/>
-    <col min="3077" max="3077" width="31.25" style="29" customWidth="1"/>
-    <col min="3078" max="3078" width="18.25" style="29" customWidth="1"/>
-    <col min="3079" max="3328" width="8.875" style="29"/>
-    <col min="3329" max="3329" width="7.5" style="29" customWidth="1"/>
-    <col min="3330" max="3330" width="29.875" style="29" customWidth="1"/>
-    <col min="3331" max="3331" width="35.625" style="29" customWidth="1"/>
-    <col min="3332" max="3332" width="31.5" style="29" customWidth="1"/>
-    <col min="3333" max="3333" width="31.25" style="29" customWidth="1"/>
-    <col min="3334" max="3334" width="18.25" style="29" customWidth="1"/>
-    <col min="3335" max="3584" width="8.875" style="29"/>
-    <col min="3585" max="3585" width="7.5" style="29" customWidth="1"/>
-    <col min="3586" max="3586" width="29.875" style="29" customWidth="1"/>
-    <col min="3587" max="3587" width="35.625" style="29" customWidth="1"/>
-    <col min="3588" max="3588" width="31.5" style="29" customWidth="1"/>
-    <col min="3589" max="3589" width="31.25" style="29" customWidth="1"/>
-    <col min="3590" max="3590" width="18.25" style="29" customWidth="1"/>
-    <col min="3591" max="3840" width="8.875" style="29"/>
-    <col min="3841" max="3841" width="7.5" style="29" customWidth="1"/>
-    <col min="3842" max="3842" width="29.875" style="29" customWidth="1"/>
-    <col min="3843" max="3843" width="35.625" style="29" customWidth="1"/>
-    <col min="3844" max="3844" width="31.5" style="29" customWidth="1"/>
-    <col min="3845" max="3845" width="31.25" style="29" customWidth="1"/>
-    <col min="3846" max="3846" width="18.25" style="29" customWidth="1"/>
-    <col min="3847" max="4096" width="8.875" style="29"/>
-    <col min="4097" max="4097" width="7.5" style="29" customWidth="1"/>
-    <col min="4098" max="4098" width="29.875" style="29" customWidth="1"/>
-    <col min="4099" max="4099" width="35.625" style="29" customWidth="1"/>
-    <col min="4100" max="4100" width="31.5" style="29" customWidth="1"/>
-    <col min="4101" max="4101" width="31.25" style="29" customWidth="1"/>
-    <col min="4102" max="4102" width="18.25" style="29" customWidth="1"/>
-    <col min="4103" max="4352" width="8.875" style="29"/>
-    <col min="4353" max="4353" width="7.5" style="29" customWidth="1"/>
-    <col min="4354" max="4354" width="29.875" style="29" customWidth="1"/>
-    <col min="4355" max="4355" width="35.625" style="29" customWidth="1"/>
-    <col min="4356" max="4356" width="31.5" style="29" customWidth="1"/>
-    <col min="4357" max="4357" width="31.25" style="29" customWidth="1"/>
-    <col min="4358" max="4358" width="18.25" style="29" customWidth="1"/>
-    <col min="4359" max="4608" width="8.875" style="29"/>
-    <col min="4609" max="4609" width="7.5" style="29" customWidth="1"/>
-    <col min="4610" max="4610" width="29.875" style="29" customWidth="1"/>
-    <col min="4611" max="4611" width="35.625" style="29" customWidth="1"/>
-    <col min="4612" max="4612" width="31.5" style="29" customWidth="1"/>
-    <col min="4613" max="4613" width="31.25" style="29" customWidth="1"/>
-    <col min="4614" max="4614" width="18.25" style="29" customWidth="1"/>
-    <col min="4615" max="4864" width="8.875" style="29"/>
-    <col min="4865" max="4865" width="7.5" style="29" customWidth="1"/>
-    <col min="4866" max="4866" width="29.875" style="29" customWidth="1"/>
-    <col min="4867" max="4867" width="35.625" style="29" customWidth="1"/>
-    <col min="4868" max="4868" width="31.5" style="29" customWidth="1"/>
-    <col min="4869" max="4869" width="31.25" style="29" customWidth="1"/>
-    <col min="4870" max="4870" width="18.25" style="29" customWidth="1"/>
-    <col min="4871" max="5120" width="8.875" style="29"/>
-    <col min="5121" max="5121" width="7.5" style="29" customWidth="1"/>
-    <col min="5122" max="5122" width="29.875" style="29" customWidth="1"/>
-    <col min="5123" max="5123" width="35.625" style="29" customWidth="1"/>
-    <col min="5124" max="5124" width="31.5" style="29" customWidth="1"/>
-    <col min="5125" max="5125" width="31.25" style="29" customWidth="1"/>
-    <col min="5126" max="5126" width="18.25" style="29" customWidth="1"/>
-    <col min="5127" max="5376" width="8.875" style="29"/>
-    <col min="5377" max="5377" width="7.5" style="29" customWidth="1"/>
-    <col min="5378" max="5378" width="29.875" style="29" customWidth="1"/>
-    <col min="5379" max="5379" width="35.625" style="29" customWidth="1"/>
-    <col min="5380" max="5380" width="31.5" style="29" customWidth="1"/>
-    <col min="5381" max="5381" width="31.25" style="29" customWidth="1"/>
-    <col min="5382" max="5382" width="18.25" style="29" customWidth="1"/>
-    <col min="5383" max="5632" width="8.875" style="29"/>
-    <col min="5633" max="5633" width="7.5" style="29" customWidth="1"/>
-    <col min="5634" max="5634" width="29.875" style="29" customWidth="1"/>
-    <col min="5635" max="5635" width="35.625" style="29" customWidth="1"/>
-    <col min="5636" max="5636" width="31.5" style="29" customWidth="1"/>
-    <col min="5637" max="5637" width="31.25" style="29" customWidth="1"/>
-    <col min="5638" max="5638" width="18.25" style="29" customWidth="1"/>
-    <col min="5639" max="5888" width="8.875" style="29"/>
-    <col min="5889" max="5889" width="7.5" style="29" customWidth="1"/>
-    <col min="5890" max="5890" width="29.875" style="29" customWidth="1"/>
-    <col min="5891" max="5891" width="35.625" style="29" customWidth="1"/>
-    <col min="5892" max="5892" width="31.5" style="29" customWidth="1"/>
-    <col min="5893" max="5893" width="31.25" style="29" customWidth="1"/>
-    <col min="5894" max="5894" width="18.25" style="29" customWidth="1"/>
-    <col min="5895" max="6144" width="8.875" style="29"/>
-    <col min="6145" max="6145" width="7.5" style="29" customWidth="1"/>
-    <col min="6146" max="6146" width="29.875" style="29" customWidth="1"/>
-    <col min="6147" max="6147" width="35.625" style="29" customWidth="1"/>
-    <col min="6148" max="6148" width="31.5" style="29" customWidth="1"/>
-    <col min="6149" max="6149" width="31.25" style="29" customWidth="1"/>
-    <col min="6150" max="6150" width="18.25" style="29" customWidth="1"/>
-    <col min="6151" max="6400" width="8.875" style="29"/>
-    <col min="6401" max="6401" width="7.5" style="29" customWidth="1"/>
-    <col min="6402" max="6402" width="29.875" style="29" customWidth="1"/>
-    <col min="6403" max="6403" width="35.625" style="29" customWidth="1"/>
-    <col min="6404" max="6404" width="31.5" style="29" customWidth="1"/>
-    <col min="6405" max="6405" width="31.25" style="29" customWidth="1"/>
-    <col min="6406" max="6406" width="18.25" style="29" customWidth="1"/>
-    <col min="6407" max="6656" width="8.875" style="29"/>
-    <col min="6657" max="6657" width="7.5" style="29" customWidth="1"/>
-    <col min="6658" max="6658" width="29.875" style="29" customWidth="1"/>
-    <col min="6659" max="6659" width="35.625" style="29" customWidth="1"/>
-    <col min="6660" max="6660" width="31.5" style="29" customWidth="1"/>
-    <col min="6661" max="6661" width="31.25" style="29" customWidth="1"/>
-    <col min="6662" max="6662" width="18.25" style="29" customWidth="1"/>
-    <col min="6663" max="6912" width="8.875" style="29"/>
-    <col min="6913" max="6913" width="7.5" style="29" customWidth="1"/>
-    <col min="6914" max="6914" width="29.875" style="29" customWidth="1"/>
-    <col min="6915" max="6915" width="35.625" style="29" customWidth="1"/>
-    <col min="6916" max="6916" width="31.5" style="29" customWidth="1"/>
-    <col min="6917" max="6917" width="31.25" style="29" customWidth="1"/>
-    <col min="6918" max="6918" width="18.25" style="29" customWidth="1"/>
-    <col min="6919" max="7168" width="8.875" style="29"/>
-    <col min="7169" max="7169" width="7.5" style="29" customWidth="1"/>
-    <col min="7170" max="7170" width="29.875" style="29" customWidth="1"/>
-    <col min="7171" max="7171" width="35.625" style="29" customWidth="1"/>
-    <col min="7172" max="7172" width="31.5" style="29" customWidth="1"/>
-    <col min="7173" max="7173" width="31.25" style="29" customWidth="1"/>
-    <col min="7174" max="7174" width="18.25" style="29" customWidth="1"/>
-    <col min="7175" max="7424" width="8.875" style="29"/>
-    <col min="7425" max="7425" width="7.5" style="29" customWidth="1"/>
-    <col min="7426" max="7426" width="29.875" style="29" customWidth="1"/>
-    <col min="7427" max="7427" width="35.625" style="29" customWidth="1"/>
-    <col min="7428" max="7428" width="31.5" style="29" customWidth="1"/>
-    <col min="7429" max="7429" width="31.25" style="29" customWidth="1"/>
-    <col min="7430" max="7430" width="18.25" style="29" customWidth="1"/>
-    <col min="7431" max="7680" width="8.875" style="29"/>
-    <col min="7681" max="7681" width="7.5" style="29" customWidth="1"/>
-    <col min="7682" max="7682" width="29.875" style="29" customWidth="1"/>
-    <col min="7683" max="7683" width="35.625" style="29" customWidth="1"/>
-    <col min="7684" max="7684" width="31.5" style="29" customWidth="1"/>
-    <col min="7685" max="7685" width="31.25" style="29" customWidth="1"/>
-    <col min="7686" max="7686" width="18.25" style="29" customWidth="1"/>
-    <col min="7687" max="7936" width="8.875" style="29"/>
-    <col min="7937" max="7937" width="7.5" style="29" customWidth="1"/>
-    <col min="7938" max="7938" width="29.875" style="29" customWidth="1"/>
-    <col min="7939" max="7939" width="35.625" style="29" customWidth="1"/>
-    <col min="7940" max="7940" width="31.5" style="29" customWidth="1"/>
-    <col min="7941" max="7941" width="31.25" style="29" customWidth="1"/>
-    <col min="7942" max="7942" width="18.25" style="29" customWidth="1"/>
-    <col min="7943" max="8192" width="8.875" style="29"/>
-    <col min="8193" max="8193" width="7.5" style="29" customWidth="1"/>
-    <col min="8194" max="8194" width="29.875" style="29" customWidth="1"/>
-    <col min="8195" max="8195" width="35.625" style="29" customWidth="1"/>
-    <col min="8196" max="8196" width="31.5" style="29" customWidth="1"/>
-    <col min="8197" max="8197" width="31.25" style="29" customWidth="1"/>
-    <col min="8198" max="8198" width="18.25" style="29" customWidth="1"/>
-    <col min="8199" max="8448" width="8.875" style="29"/>
-    <col min="8449" max="8449" width="7.5" style="29" customWidth="1"/>
-    <col min="8450" max="8450" width="29.875" style="29" customWidth="1"/>
-    <col min="8451" max="8451" width="35.625" style="29" customWidth="1"/>
-    <col min="8452" max="8452" width="31.5" style="29" customWidth="1"/>
-    <col min="8453" max="8453" width="31.25" style="29" customWidth="1"/>
-    <col min="8454" max="8454" width="18.25" style="29" customWidth="1"/>
-    <col min="8455" max="8704" width="8.875" style="29"/>
-    <col min="8705" max="8705" width="7.5" style="29" customWidth="1"/>
-    <col min="8706" max="8706" width="29.875" style="29" customWidth="1"/>
-    <col min="8707" max="8707" width="35.625" style="29" customWidth="1"/>
-    <col min="8708" max="8708" width="31.5" style="29" customWidth="1"/>
-    <col min="8709" max="8709" width="31.25" style="29" customWidth="1"/>
-    <col min="8710" max="8710" width="18.25" style="29" customWidth="1"/>
-    <col min="8711" max="8960" width="8.875" style="29"/>
-    <col min="8961" max="8961" width="7.5" style="29" customWidth="1"/>
-    <col min="8962" max="8962" width="29.875" style="29" customWidth="1"/>
-    <col min="8963" max="8963" width="35.625" style="29" customWidth="1"/>
-    <col min="8964" max="8964" width="31.5" style="29" customWidth="1"/>
-    <col min="8965" max="8965" width="31.25" style="29" customWidth="1"/>
-    <col min="8966" max="8966" width="18.25" style="29" customWidth="1"/>
-    <col min="8967" max="9216" width="8.875" style="29"/>
-    <col min="9217" max="9217" width="7.5" style="29" customWidth="1"/>
-    <col min="9218" max="9218" width="29.875" style="29" customWidth="1"/>
-    <col min="9219" max="9219" width="35.625" style="29" customWidth="1"/>
-    <col min="9220" max="9220" width="31.5" style="29" customWidth="1"/>
-    <col min="9221" max="9221" width="31.25" style="29" customWidth="1"/>
-    <col min="9222" max="9222" width="18.25" style="29" customWidth="1"/>
-    <col min="9223" max="9472" width="8.875" style="29"/>
-    <col min="9473" max="9473" width="7.5" style="29" customWidth="1"/>
-    <col min="9474" max="9474" width="29.875" style="29" customWidth="1"/>
-    <col min="9475" max="9475" width="35.625" style="29" customWidth="1"/>
-    <col min="9476" max="9476" width="31.5" style="29" customWidth="1"/>
-    <col min="9477" max="9477" width="31.25" style="29" customWidth="1"/>
-    <col min="9478" max="9478" width="18.25" style="29" customWidth="1"/>
-    <col min="9479" max="9728" width="8.875" style="29"/>
-    <col min="9729" max="9729" width="7.5" style="29" customWidth="1"/>
-    <col min="9730" max="9730" width="29.875" style="29" customWidth="1"/>
-    <col min="9731" max="9731" width="35.625" style="29" customWidth="1"/>
-    <col min="9732" max="9732" width="31.5" style="29" customWidth="1"/>
-    <col min="9733" max="9733" width="31.25" style="29" customWidth="1"/>
-    <col min="9734" max="9734" width="18.25" style="29" customWidth="1"/>
-    <col min="9735" max="9984" width="8.875" style="29"/>
-    <col min="9985" max="9985" width="7.5" style="29" customWidth="1"/>
-    <col min="9986" max="9986" width="29.875" style="29" customWidth="1"/>
-    <col min="9987" max="9987" width="35.625" style="29" customWidth="1"/>
-    <col min="9988" max="9988" width="31.5" style="29" customWidth="1"/>
-    <col min="9989" max="9989" width="31.25" style="29" customWidth="1"/>
-    <col min="9990" max="9990" width="18.25" style="29" customWidth="1"/>
-    <col min="9991" max="10240" width="8.875" style="29"/>
-    <col min="10241" max="10241" width="7.5" style="29" customWidth="1"/>
-    <col min="10242" max="10242" width="29.875" style="29" customWidth="1"/>
-    <col min="10243" max="10243" width="35.625" style="29" customWidth="1"/>
-    <col min="10244" max="10244" width="31.5" style="29" customWidth="1"/>
-    <col min="10245" max="10245" width="31.25" style="29" customWidth="1"/>
-    <col min="10246" max="10246" width="18.25" style="29" customWidth="1"/>
-    <col min="10247" max="10496" width="8.875" style="29"/>
-    <col min="10497" max="10497" width="7.5" style="29" customWidth="1"/>
-    <col min="10498" max="10498" width="29.875" style="29" customWidth="1"/>
-    <col min="10499" max="10499" width="35.625" style="29" customWidth="1"/>
-    <col min="10500" max="10500" width="31.5" style="29" customWidth="1"/>
-    <col min="10501" max="10501" width="31.25" style="29" customWidth="1"/>
-    <col min="10502" max="10502" width="18.25" style="29" customWidth="1"/>
-    <col min="10503" max="10752" width="8.875" style="29"/>
-    <col min="10753" max="10753" width="7.5" style="29" customWidth="1"/>
-    <col min="10754" max="10754" width="29.875" style="29" customWidth="1"/>
-    <col min="10755" max="10755" width="35.625" style="29" customWidth="1"/>
-    <col min="10756" max="10756" width="31.5" style="29" customWidth="1"/>
-    <col min="10757" max="10757" width="31.25" style="29" customWidth="1"/>
-    <col min="10758" max="10758" width="18.25" style="29" customWidth="1"/>
-    <col min="10759" max="11008" width="8.875" style="29"/>
-    <col min="11009" max="11009" width="7.5" style="29" customWidth="1"/>
-    <col min="11010" max="11010" width="29.875" style="29" customWidth="1"/>
-    <col min="11011" max="11011" width="35.625" style="29" customWidth="1"/>
-    <col min="11012" max="11012" width="31.5" style="29" customWidth="1"/>
-    <col min="11013" max="11013" width="31.25" style="29" customWidth="1"/>
-    <col min="11014" max="11014" width="18.25" style="29" customWidth="1"/>
-    <col min="11015" max="11264" width="8.875" style="29"/>
-    <col min="11265" max="11265" width="7.5" style="29" customWidth="1"/>
-    <col min="11266" max="11266" width="29.875" style="29" customWidth="1"/>
-    <col min="11267" max="11267" width="35.625" style="29" customWidth="1"/>
-    <col min="11268" max="11268" width="31.5" style="29" customWidth="1"/>
-    <col min="11269" max="11269" width="31.25" style="29" customWidth="1"/>
-    <col min="11270" max="11270" width="18.25" style="29" customWidth="1"/>
-    <col min="11271" max="11520" width="8.875" style="29"/>
-    <col min="11521" max="11521" width="7.5" style="29" customWidth="1"/>
-    <col min="11522" max="11522" width="29.875" style="29" customWidth="1"/>
-    <col min="11523" max="11523" width="35.625" style="29" customWidth="1"/>
-    <col min="11524" max="11524" width="31.5" style="29" customWidth="1"/>
-    <col min="11525" max="11525" width="31.25" style="29" customWidth="1"/>
-    <col min="11526" max="11526" width="18.25" style="29" customWidth="1"/>
-    <col min="11527" max="11776" width="8.875" style="29"/>
-    <col min="11777" max="11777" width="7.5" style="29" customWidth="1"/>
-    <col min="11778" max="11778" width="29.875" style="29" customWidth="1"/>
-    <col min="11779" max="11779" width="35.625" style="29" customWidth="1"/>
-    <col min="11780" max="11780" width="31.5" style="29" customWidth="1"/>
-    <col min="11781" max="11781" width="31.25" style="29" customWidth="1"/>
-    <col min="11782" max="11782" width="18.25" style="29" customWidth="1"/>
-    <col min="11783" max="12032" width="8.875" style="29"/>
-    <col min="12033" max="12033" width="7.5" style="29" customWidth="1"/>
-    <col min="12034" max="12034" width="29.875" style="29" customWidth="1"/>
-    <col min="12035" max="12035" width="35.625" style="29" customWidth="1"/>
-    <col min="12036" max="12036" width="31.5" style="29" customWidth="1"/>
-    <col min="12037" max="12037" width="31.25" style="29" customWidth="1"/>
-    <col min="12038" max="12038" width="18.25" style="29" customWidth="1"/>
-    <col min="12039" max="12288" width="8.875" style="29"/>
-    <col min="12289" max="12289" width="7.5" style="29" customWidth="1"/>
-    <col min="12290" max="12290" width="29.875" style="29" customWidth="1"/>
-    <col min="12291" max="12291" width="35.625" style="29" customWidth="1"/>
-    <col min="12292" max="12292" width="31.5" style="29" customWidth="1"/>
-    <col min="12293" max="12293" width="31.25" style="29" customWidth="1"/>
-    <col min="12294" max="12294" width="18.25" style="29" customWidth="1"/>
-    <col min="12295" max="12544" width="8.875" style="29"/>
-    <col min="12545" max="12545" width="7.5" style="29" customWidth="1"/>
-    <col min="12546" max="12546" width="29.875" style="29" customWidth="1"/>
-    <col min="12547" max="12547" width="35.625" style="29" customWidth="1"/>
-    <col min="12548" max="12548" width="31.5" style="29" customWidth="1"/>
-    <col min="12549" max="12549" width="31.25" style="29" customWidth="1"/>
-    <col min="12550" max="12550" width="18.25" style="29" customWidth="1"/>
-    <col min="12551" max="12800" width="8.875" style="29"/>
-    <col min="12801" max="12801" width="7.5" style="29" customWidth="1"/>
-    <col min="12802" max="12802" width="29.875" style="29" customWidth="1"/>
-    <col min="12803" max="12803" width="35.625" style="29" customWidth="1"/>
-    <col min="12804" max="12804" width="31.5" style="29" customWidth="1"/>
-    <col min="12805" max="12805" width="31.25" style="29" customWidth="1"/>
-    <col min="12806" max="12806" width="18.25" style="29" customWidth="1"/>
-    <col min="12807" max="13056" width="8.875" style="29"/>
-    <col min="13057" max="13057" width="7.5" style="29" customWidth="1"/>
-    <col min="13058" max="13058" width="29.875" style="29" customWidth="1"/>
-    <col min="13059" max="13059" width="35.625" style="29" customWidth="1"/>
-    <col min="13060" max="13060" width="31.5" style="29" customWidth="1"/>
-    <col min="13061" max="13061" width="31.25" style="29" customWidth="1"/>
-    <col min="13062" max="13062" width="18.25" style="29" customWidth="1"/>
-    <col min="13063" max="13312" width="8.875" style="29"/>
-    <col min="13313" max="13313" width="7.5" style="29" customWidth="1"/>
-    <col min="13314" max="13314" width="29.875" style="29" customWidth="1"/>
-    <col min="13315" max="13315" width="35.625" style="29" customWidth="1"/>
-    <col min="13316" max="13316" width="31.5" style="29" customWidth="1"/>
-    <col min="13317" max="13317" width="31.25" style="29" customWidth="1"/>
-    <col min="13318" max="13318" width="18.25" style="29" customWidth="1"/>
-    <col min="13319" max="13568" width="8.875" style="29"/>
-    <col min="13569" max="13569" width="7.5" style="29" customWidth="1"/>
-    <col min="13570" max="13570" width="29.875" style="29" customWidth="1"/>
-    <col min="13571" max="13571" width="35.625" style="29" customWidth="1"/>
-    <col min="13572" max="13572" width="31.5" style="29" customWidth="1"/>
-    <col min="13573" max="13573" width="31.25" style="29" customWidth="1"/>
-    <col min="13574" max="13574" width="18.25" style="29" customWidth="1"/>
-    <col min="13575" max="13824" width="8.875" style="29"/>
-    <col min="13825" max="13825" width="7.5" style="29" customWidth="1"/>
-    <col min="13826" max="13826" width="29.875" style="29" customWidth="1"/>
-    <col min="13827" max="13827" width="35.625" style="29" customWidth="1"/>
-    <col min="13828" max="13828" width="31.5" style="29" customWidth="1"/>
-    <col min="13829" max="13829" width="31.25" style="29" customWidth="1"/>
-    <col min="13830" max="13830" width="18.25" style="29" customWidth="1"/>
-    <col min="13831" max="14080" width="8.875" style="29"/>
-    <col min="14081" max="14081" width="7.5" style="29" customWidth="1"/>
-    <col min="14082" max="14082" width="29.875" style="29" customWidth="1"/>
-    <col min="14083" max="14083" width="35.625" style="29" customWidth="1"/>
-    <col min="14084" max="14084" width="31.5" style="29" customWidth="1"/>
-    <col min="14085" max="14085" width="31.25" style="29" customWidth="1"/>
-    <col min="14086" max="14086" width="18.25" style="29" customWidth="1"/>
-    <col min="14087" max="14336" width="8.875" style="29"/>
-    <col min="14337" max="14337" width="7.5" style="29" customWidth="1"/>
-    <col min="14338" max="14338" width="29.875" style="29" customWidth="1"/>
-    <col min="14339" max="14339" width="35.625" style="29" customWidth="1"/>
-    <col min="14340" max="14340" width="31.5" style="29" customWidth="1"/>
-    <col min="14341" max="14341" width="31.25" style="29" customWidth="1"/>
-    <col min="14342" max="14342" width="18.25" style="29" customWidth="1"/>
-    <col min="14343" max="14592" width="8.875" style="29"/>
-    <col min="14593" max="14593" width="7.5" style="29" customWidth="1"/>
-    <col min="14594" max="14594" width="29.875" style="29" customWidth="1"/>
-    <col min="14595" max="14595" width="35.625" style="29" customWidth="1"/>
-    <col min="14596" max="14596" width="31.5" style="29" customWidth="1"/>
-    <col min="14597" max="14597" width="31.25" style="29" customWidth="1"/>
-    <col min="14598" max="14598" width="18.25" style="29" customWidth="1"/>
-    <col min="14599" max="14848" width="8.875" style="29"/>
-    <col min="14849" max="14849" width="7.5" style="29" customWidth="1"/>
-    <col min="14850" max="14850" width="29.875" style="29" customWidth="1"/>
-    <col min="14851" max="14851" width="35.625" style="29" customWidth="1"/>
-    <col min="14852" max="14852" width="31.5" style="29" customWidth="1"/>
-    <col min="14853" max="14853" width="31.25" style="29" customWidth="1"/>
-    <col min="14854" max="14854" width="18.25" style="29" customWidth="1"/>
-    <col min="14855" max="15104" width="8.875" style="29"/>
-    <col min="15105" max="15105" width="7.5" style="29" customWidth="1"/>
-    <col min="15106" max="15106" width="29.875" style="29" customWidth="1"/>
-    <col min="15107" max="15107" width="35.625" style="29" customWidth="1"/>
-    <col min="15108" max="15108" width="31.5" style="29" customWidth="1"/>
-    <col min="15109" max="15109" width="31.25" style="29" customWidth="1"/>
-    <col min="15110" max="15110" width="18.25" style="29" customWidth="1"/>
-    <col min="15111" max="15360" width="8.875" style="29"/>
-    <col min="15361" max="15361" width="7.5" style="29" customWidth="1"/>
-    <col min="15362" max="15362" width="29.875" style="29" customWidth="1"/>
-    <col min="15363" max="15363" width="35.625" style="29" customWidth="1"/>
-    <col min="15364" max="15364" width="31.5" style="29" customWidth="1"/>
-    <col min="15365" max="15365" width="31.25" style="29" customWidth="1"/>
-    <col min="15366" max="15366" width="18.25" style="29" customWidth="1"/>
-    <col min="15367" max="15616" width="8.875" style="29"/>
-    <col min="15617" max="15617" width="7.5" style="29" customWidth="1"/>
-    <col min="15618" max="15618" width="29.875" style="29" customWidth="1"/>
-    <col min="15619" max="15619" width="35.625" style="29" customWidth="1"/>
-    <col min="15620" max="15620" width="31.5" style="29" customWidth="1"/>
-    <col min="15621" max="15621" width="31.25" style="29" customWidth="1"/>
-    <col min="15622" max="15622" width="18.25" style="29" customWidth="1"/>
-    <col min="15623" max="15872" width="8.875" style="29"/>
-    <col min="15873" max="15873" width="7.5" style="29" customWidth="1"/>
-    <col min="15874" max="15874" width="29.875" style="29" customWidth="1"/>
-    <col min="15875" max="15875" width="35.625" style="29" customWidth="1"/>
-    <col min="15876" max="15876" width="31.5" style="29" customWidth="1"/>
-    <col min="15877" max="15877" width="31.25" style="29" customWidth="1"/>
-    <col min="15878" max="15878" width="18.25" style="29" customWidth="1"/>
-    <col min="15879" max="16128" width="8.875" style="29"/>
-    <col min="16129" max="16129" width="7.5" style="29" customWidth="1"/>
-    <col min="16130" max="16130" width="29.875" style="29" customWidth="1"/>
-    <col min="16131" max="16131" width="35.625" style="29" customWidth="1"/>
-    <col min="16132" max="16132" width="31.5" style="29" customWidth="1"/>
-    <col min="16133" max="16133" width="31.25" style="29" customWidth="1"/>
-    <col min="16134" max="16134" width="18.25" style="29" customWidth="1"/>
-    <col min="16135" max="16384" width="8.875" style="29"/>
+    <col min="1" max="1" width="7.44140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="29" customWidth="1"/>
+    <col min="7" max="256" width="8.88671875" style="29"/>
+    <col min="257" max="257" width="7.44140625" style="29" customWidth="1"/>
+    <col min="258" max="258" width="29.88671875" style="29" customWidth="1"/>
+    <col min="259" max="259" width="35.6640625" style="29" customWidth="1"/>
+    <col min="260" max="260" width="31.44140625" style="29" customWidth="1"/>
+    <col min="261" max="261" width="31.21875" style="29" customWidth="1"/>
+    <col min="262" max="262" width="18.21875" style="29" customWidth="1"/>
+    <col min="263" max="512" width="8.88671875" style="29"/>
+    <col min="513" max="513" width="7.44140625" style="29" customWidth="1"/>
+    <col min="514" max="514" width="29.88671875" style="29" customWidth="1"/>
+    <col min="515" max="515" width="35.6640625" style="29" customWidth="1"/>
+    <col min="516" max="516" width="31.44140625" style="29" customWidth="1"/>
+    <col min="517" max="517" width="31.21875" style="29" customWidth="1"/>
+    <col min="518" max="518" width="18.21875" style="29" customWidth="1"/>
+    <col min="519" max="768" width="8.88671875" style="29"/>
+    <col min="769" max="769" width="7.44140625" style="29" customWidth="1"/>
+    <col min="770" max="770" width="29.88671875" style="29" customWidth="1"/>
+    <col min="771" max="771" width="35.6640625" style="29" customWidth="1"/>
+    <col min="772" max="772" width="31.44140625" style="29" customWidth="1"/>
+    <col min="773" max="773" width="31.21875" style="29" customWidth="1"/>
+    <col min="774" max="774" width="18.21875" style="29" customWidth="1"/>
+    <col min="775" max="1024" width="8.88671875" style="29"/>
+    <col min="1025" max="1025" width="7.44140625" style="29" customWidth="1"/>
+    <col min="1026" max="1026" width="29.88671875" style="29" customWidth="1"/>
+    <col min="1027" max="1027" width="35.6640625" style="29" customWidth="1"/>
+    <col min="1028" max="1028" width="31.44140625" style="29" customWidth="1"/>
+    <col min="1029" max="1029" width="31.21875" style="29" customWidth="1"/>
+    <col min="1030" max="1030" width="18.21875" style="29" customWidth="1"/>
+    <col min="1031" max="1280" width="8.88671875" style="29"/>
+    <col min="1281" max="1281" width="7.44140625" style="29" customWidth="1"/>
+    <col min="1282" max="1282" width="29.88671875" style="29" customWidth="1"/>
+    <col min="1283" max="1283" width="35.6640625" style="29" customWidth="1"/>
+    <col min="1284" max="1284" width="31.44140625" style="29" customWidth="1"/>
+    <col min="1285" max="1285" width="31.21875" style="29" customWidth="1"/>
+    <col min="1286" max="1286" width="18.21875" style="29" customWidth="1"/>
+    <col min="1287" max="1536" width="8.88671875" style="29"/>
+    <col min="1537" max="1537" width="7.44140625" style="29" customWidth="1"/>
+    <col min="1538" max="1538" width="29.88671875" style="29" customWidth="1"/>
+    <col min="1539" max="1539" width="35.6640625" style="29" customWidth="1"/>
+    <col min="1540" max="1540" width="31.44140625" style="29" customWidth="1"/>
+    <col min="1541" max="1541" width="31.21875" style="29" customWidth="1"/>
+    <col min="1542" max="1542" width="18.21875" style="29" customWidth="1"/>
+    <col min="1543" max="1792" width="8.88671875" style="29"/>
+    <col min="1793" max="1793" width="7.44140625" style="29" customWidth="1"/>
+    <col min="1794" max="1794" width="29.88671875" style="29" customWidth="1"/>
+    <col min="1795" max="1795" width="35.6640625" style="29" customWidth="1"/>
+    <col min="1796" max="1796" width="31.44140625" style="29" customWidth="1"/>
+    <col min="1797" max="1797" width="31.21875" style="29" customWidth="1"/>
+    <col min="1798" max="1798" width="18.21875" style="29" customWidth="1"/>
+    <col min="1799" max="2048" width="8.88671875" style="29"/>
+    <col min="2049" max="2049" width="7.44140625" style="29" customWidth="1"/>
+    <col min="2050" max="2050" width="29.88671875" style="29" customWidth="1"/>
+    <col min="2051" max="2051" width="35.6640625" style="29" customWidth="1"/>
+    <col min="2052" max="2052" width="31.44140625" style="29" customWidth="1"/>
+    <col min="2053" max="2053" width="31.21875" style="29" customWidth="1"/>
+    <col min="2054" max="2054" width="18.21875" style="29" customWidth="1"/>
+    <col min="2055" max="2304" width="8.88671875" style="29"/>
+    <col min="2305" max="2305" width="7.44140625" style="29" customWidth="1"/>
+    <col min="2306" max="2306" width="29.88671875" style="29" customWidth="1"/>
+    <col min="2307" max="2307" width="35.6640625" style="29" customWidth="1"/>
+    <col min="2308" max="2308" width="31.44140625" style="29" customWidth="1"/>
+    <col min="2309" max="2309" width="31.21875" style="29" customWidth="1"/>
+    <col min="2310" max="2310" width="18.21875" style="29" customWidth="1"/>
+    <col min="2311" max="2560" width="8.88671875" style="29"/>
+    <col min="2561" max="2561" width="7.44140625" style="29" customWidth="1"/>
+    <col min="2562" max="2562" width="29.88671875" style="29" customWidth="1"/>
+    <col min="2563" max="2563" width="35.6640625" style="29" customWidth="1"/>
+    <col min="2564" max="2564" width="31.44140625" style="29" customWidth="1"/>
+    <col min="2565" max="2565" width="31.21875" style="29" customWidth="1"/>
+    <col min="2566" max="2566" width="18.21875" style="29" customWidth="1"/>
+    <col min="2567" max="2816" width="8.88671875" style="29"/>
+    <col min="2817" max="2817" width="7.44140625" style="29" customWidth="1"/>
+    <col min="2818" max="2818" width="29.88671875" style="29" customWidth="1"/>
+    <col min="2819" max="2819" width="35.6640625" style="29" customWidth="1"/>
+    <col min="2820" max="2820" width="31.44140625" style="29" customWidth="1"/>
+    <col min="2821" max="2821" width="31.21875" style="29" customWidth="1"/>
+    <col min="2822" max="2822" width="18.21875" style="29" customWidth="1"/>
+    <col min="2823" max="3072" width="8.88671875" style="29"/>
+    <col min="3073" max="3073" width="7.44140625" style="29" customWidth="1"/>
+    <col min="3074" max="3074" width="29.88671875" style="29" customWidth="1"/>
+    <col min="3075" max="3075" width="35.6640625" style="29" customWidth="1"/>
+    <col min="3076" max="3076" width="31.44140625" style="29" customWidth="1"/>
+    <col min="3077" max="3077" width="31.21875" style="29" customWidth="1"/>
+    <col min="3078" max="3078" width="18.21875" style="29" customWidth="1"/>
+    <col min="3079" max="3328" width="8.88671875" style="29"/>
+    <col min="3329" max="3329" width="7.44140625" style="29" customWidth="1"/>
+    <col min="3330" max="3330" width="29.88671875" style="29" customWidth="1"/>
+    <col min="3331" max="3331" width="35.6640625" style="29" customWidth="1"/>
+    <col min="3332" max="3332" width="31.44140625" style="29" customWidth="1"/>
+    <col min="3333" max="3333" width="31.21875" style="29" customWidth="1"/>
+    <col min="3334" max="3334" width="18.21875" style="29" customWidth="1"/>
+    <col min="3335" max="3584" width="8.88671875" style="29"/>
+    <col min="3585" max="3585" width="7.44140625" style="29" customWidth="1"/>
+    <col min="3586" max="3586" width="29.88671875" style="29" customWidth="1"/>
+    <col min="3587" max="3587" width="35.6640625" style="29" customWidth="1"/>
+    <col min="3588" max="3588" width="31.44140625" style="29" customWidth="1"/>
+    <col min="3589" max="3589" width="31.21875" style="29" customWidth="1"/>
+    <col min="3590" max="3590" width="18.21875" style="29" customWidth="1"/>
+    <col min="3591" max="3840" width="8.88671875" style="29"/>
+    <col min="3841" max="3841" width="7.44140625" style="29" customWidth="1"/>
+    <col min="3842" max="3842" width="29.88671875" style="29" customWidth="1"/>
+    <col min="3843" max="3843" width="35.6640625" style="29" customWidth="1"/>
+    <col min="3844" max="3844" width="31.44140625" style="29" customWidth="1"/>
+    <col min="3845" max="3845" width="31.21875" style="29" customWidth="1"/>
+    <col min="3846" max="3846" width="18.21875" style="29" customWidth="1"/>
+    <col min="3847" max="4096" width="8.88671875" style="29"/>
+    <col min="4097" max="4097" width="7.44140625" style="29" customWidth="1"/>
+    <col min="4098" max="4098" width="29.88671875" style="29" customWidth="1"/>
+    <col min="4099" max="4099" width="35.6640625" style="29" customWidth="1"/>
+    <col min="4100" max="4100" width="31.44140625" style="29" customWidth="1"/>
+    <col min="4101" max="4101" width="31.21875" style="29" customWidth="1"/>
+    <col min="4102" max="4102" width="18.21875" style="29" customWidth="1"/>
+    <col min="4103" max="4352" width="8.88671875" style="29"/>
+    <col min="4353" max="4353" width="7.44140625" style="29" customWidth="1"/>
+    <col min="4354" max="4354" width="29.88671875" style="29" customWidth="1"/>
+    <col min="4355" max="4355" width="35.6640625" style="29" customWidth="1"/>
+    <col min="4356" max="4356" width="31.44140625" style="29" customWidth="1"/>
+    <col min="4357" max="4357" width="31.21875" style="29" customWidth="1"/>
+    <col min="4358" max="4358" width="18.21875" style="29" customWidth="1"/>
+    <col min="4359" max="4608" width="8.88671875" style="29"/>
+    <col min="4609" max="4609" width="7.44140625" style="29" customWidth="1"/>
+    <col min="4610" max="4610" width="29.88671875" style="29" customWidth="1"/>
+    <col min="4611" max="4611" width="35.6640625" style="29" customWidth="1"/>
+    <col min="4612" max="4612" width="31.44140625" style="29" customWidth="1"/>
+    <col min="4613" max="4613" width="31.21875" style="29" customWidth="1"/>
+    <col min="4614" max="4614" width="18.21875" style="29" customWidth="1"/>
+    <col min="4615" max="4864" width="8.88671875" style="29"/>
+    <col min="4865" max="4865" width="7.44140625" style="29" customWidth="1"/>
+    <col min="4866" max="4866" width="29.88671875" style="29" customWidth="1"/>
+    <col min="4867" max="4867" width="35.6640625" style="29" customWidth="1"/>
+    <col min="4868" max="4868" width="31.44140625" style="29" customWidth="1"/>
+    <col min="4869" max="4869" width="31.21875" style="29" customWidth="1"/>
+    <col min="4870" max="4870" width="18.21875" style="29" customWidth="1"/>
+    <col min="4871" max="5120" width="8.88671875" style="29"/>
+    <col min="5121" max="5121" width="7.44140625" style="29" customWidth="1"/>
+    <col min="5122" max="5122" width="29.88671875" style="29" customWidth="1"/>
+    <col min="5123" max="5123" width="35.6640625" style="29" customWidth="1"/>
+    <col min="5124" max="5124" width="31.44140625" style="29" customWidth="1"/>
+    <col min="5125" max="5125" width="31.21875" style="29" customWidth="1"/>
+    <col min="5126" max="5126" width="18.21875" style="29" customWidth="1"/>
+    <col min="5127" max="5376" width="8.88671875" style="29"/>
+    <col min="5377" max="5377" width="7.44140625" style="29" customWidth="1"/>
+    <col min="5378" max="5378" width="29.88671875" style="29" customWidth="1"/>
+    <col min="5379" max="5379" width="35.6640625" style="29" customWidth="1"/>
+    <col min="5380" max="5380" width="31.44140625" style="29" customWidth="1"/>
+    <col min="5381" max="5381" width="31.21875" style="29" customWidth="1"/>
+    <col min="5382" max="5382" width="18.21875" style="29" customWidth="1"/>
+    <col min="5383" max="5632" width="8.88671875" style="29"/>
+    <col min="5633" max="5633" width="7.44140625" style="29" customWidth="1"/>
+    <col min="5634" max="5634" width="29.88671875" style="29" customWidth="1"/>
+    <col min="5635" max="5635" width="35.6640625" style="29" customWidth="1"/>
+    <col min="5636" max="5636" width="31.44140625" style="29" customWidth="1"/>
+    <col min="5637" max="5637" width="31.21875" style="29" customWidth="1"/>
+    <col min="5638" max="5638" width="18.21875" style="29" customWidth="1"/>
+    <col min="5639" max="5888" width="8.88671875" style="29"/>
+    <col min="5889" max="5889" width="7.44140625" style="29" customWidth="1"/>
+    <col min="5890" max="5890" width="29.88671875" style="29" customWidth="1"/>
+    <col min="5891" max="5891" width="35.6640625" style="29" customWidth="1"/>
+    <col min="5892" max="5892" width="31.44140625" style="29" customWidth="1"/>
+    <col min="5893" max="5893" width="31.21875" style="29" customWidth="1"/>
+    <col min="5894" max="5894" width="18.21875" style="29" customWidth="1"/>
+    <col min="5895" max="6144" width="8.88671875" style="29"/>
+    <col min="6145" max="6145" width="7.44140625" style="29" customWidth="1"/>
+    <col min="6146" max="6146" width="29.88671875" style="29" customWidth="1"/>
+    <col min="6147" max="6147" width="35.6640625" style="29" customWidth="1"/>
+    <col min="6148" max="6148" width="31.44140625" style="29" customWidth="1"/>
+    <col min="6149" max="6149" width="31.21875" style="29" customWidth="1"/>
+    <col min="6150" max="6150" width="18.21875" style="29" customWidth="1"/>
+    <col min="6151" max="6400" width="8.88671875" style="29"/>
+    <col min="6401" max="6401" width="7.44140625" style="29" customWidth="1"/>
+    <col min="6402" max="6402" width="29.88671875" style="29" customWidth="1"/>
+    <col min="6403" max="6403" width="35.6640625" style="29" customWidth="1"/>
+    <col min="6404" max="6404" width="31.44140625" style="29" customWidth="1"/>
+    <col min="6405" max="6405" width="31.21875" style="29" customWidth="1"/>
+    <col min="6406" max="6406" width="18.21875" style="29" customWidth="1"/>
+    <col min="6407" max="6656" width="8.88671875" style="29"/>
+    <col min="6657" max="6657" width="7.44140625" style="29" customWidth="1"/>
+    <col min="6658" max="6658" width="29.88671875" style="29" customWidth="1"/>
+    <col min="6659" max="6659" width="35.6640625" style="29" customWidth="1"/>
+    <col min="6660" max="6660" width="31.44140625" style="29" customWidth="1"/>
+    <col min="6661" max="6661" width="31.21875" style="29" customWidth="1"/>
+    <col min="6662" max="6662" width="18.21875" style="29" customWidth="1"/>
+    <col min="6663" max="6912" width="8.88671875" style="29"/>
+    <col min="6913" max="6913" width="7.44140625" style="29" customWidth="1"/>
+    <col min="6914" max="6914" width="29.88671875" style="29" customWidth="1"/>
+    <col min="6915" max="6915" width="35.6640625" style="29" customWidth="1"/>
+    <col min="6916" max="6916" width="31.44140625" style="29" customWidth="1"/>
+    <col min="6917" max="6917" width="31.21875" style="29" customWidth="1"/>
+    <col min="6918" max="6918" width="18.21875" style="29" customWidth="1"/>
+    <col min="6919" max="7168" width="8.88671875" style="29"/>
+    <col min="7169" max="7169" width="7.44140625" style="29" customWidth="1"/>
+    <col min="7170" max="7170" width="29.88671875" style="29" customWidth="1"/>
+    <col min="7171" max="7171" width="35.6640625" style="29" customWidth="1"/>
+    <col min="7172" max="7172" width="31.44140625" style="29" customWidth="1"/>
+    <col min="7173" max="7173" width="31.21875" style="29" customWidth="1"/>
+    <col min="7174" max="7174" width="18.21875" style="29" customWidth="1"/>
+    <col min="7175" max="7424" width="8.88671875" style="29"/>
+    <col min="7425" max="7425" width="7.44140625" style="29" customWidth="1"/>
+    <col min="7426" max="7426" width="29.88671875" style="29" customWidth="1"/>
+    <col min="7427" max="7427" width="35.6640625" style="29" customWidth="1"/>
+    <col min="7428" max="7428" width="31.44140625" style="29" customWidth="1"/>
+    <col min="7429" max="7429" width="31.21875" style="29" customWidth="1"/>
+    <col min="7430" max="7430" width="18.21875" style="29" customWidth="1"/>
+    <col min="7431" max="7680" width="8.88671875" style="29"/>
+    <col min="7681" max="7681" width="7.44140625" style="29" customWidth="1"/>
+    <col min="7682" max="7682" width="29.88671875" style="29" customWidth="1"/>
+    <col min="7683" max="7683" width="35.6640625" style="29" customWidth="1"/>
+    <col min="7684" max="7684" width="31.44140625" style="29" customWidth="1"/>
+    <col min="7685" max="7685" width="31.21875" style="29" customWidth="1"/>
+    <col min="7686" max="7686" width="18.21875" style="29" customWidth="1"/>
+    <col min="7687" max="7936" width="8.88671875" style="29"/>
+    <col min="7937" max="7937" width="7.44140625" style="29" customWidth="1"/>
+    <col min="7938" max="7938" width="29.88671875" style="29" customWidth="1"/>
+    <col min="7939" max="7939" width="35.6640625" style="29" customWidth="1"/>
+    <col min="7940" max="7940" width="31.44140625" style="29" customWidth="1"/>
+    <col min="7941" max="7941" width="31.21875" style="29" customWidth="1"/>
+    <col min="7942" max="7942" width="18.21875" style="29" customWidth="1"/>
+    <col min="7943" max="8192" width="8.88671875" style="29"/>
+    <col min="8193" max="8193" width="7.44140625" style="29" customWidth="1"/>
+    <col min="8194" max="8194" width="29.88671875" style="29" customWidth="1"/>
+    <col min="8195" max="8195" width="35.6640625" style="29" customWidth="1"/>
+    <col min="8196" max="8196" width="31.44140625" style="29" customWidth="1"/>
+    <col min="8197" max="8197" width="31.21875" style="29" customWidth="1"/>
+    <col min="8198" max="8198" width="18.21875" style="29" customWidth="1"/>
+    <col min="8199" max="8448" width="8.88671875" style="29"/>
+    <col min="8449" max="8449" width="7.44140625" style="29" customWidth="1"/>
+    <col min="8450" max="8450" width="29.88671875" style="29" customWidth="1"/>
+    <col min="8451" max="8451" width="35.6640625" style="29" customWidth="1"/>
+    <col min="8452" max="8452" width="31.44140625" style="29" customWidth="1"/>
+    <col min="8453" max="8453" width="31.21875" style="29" customWidth="1"/>
+    <col min="8454" max="8454" width="18.21875" style="29" customWidth="1"/>
+    <col min="8455" max="8704" width="8.88671875" style="29"/>
+    <col min="8705" max="8705" width="7.44140625" style="29" customWidth="1"/>
+    <col min="8706" max="8706" width="29.88671875" style="29" customWidth="1"/>
+    <col min="8707" max="8707" width="35.6640625" style="29" customWidth="1"/>
+    <col min="8708" max="8708" width="31.44140625" style="29" customWidth="1"/>
+    <col min="8709" max="8709" width="31.21875" style="29" customWidth="1"/>
+    <col min="8710" max="8710" width="18.21875" style="29" customWidth="1"/>
+    <col min="8711" max="8960" width="8.88671875" style="29"/>
+    <col min="8961" max="8961" width="7.44140625" style="29" customWidth="1"/>
+    <col min="8962" max="8962" width="29.88671875" style="29" customWidth="1"/>
+    <col min="8963" max="8963" width="35.6640625" style="29" customWidth="1"/>
+    <col min="8964" max="8964" width="31.44140625" style="29" customWidth="1"/>
+    <col min="8965" max="8965" width="31.21875" style="29" customWidth="1"/>
+    <col min="8966" max="8966" width="18.21875" style="29" customWidth="1"/>
+    <col min="8967" max="9216" width="8.88671875" style="29"/>
+    <col min="9217" max="9217" width="7.44140625" style="29" customWidth="1"/>
+    <col min="9218" max="9218" width="29.88671875" style="29" customWidth="1"/>
+    <col min="9219" max="9219" width="35.6640625" style="29" customWidth="1"/>
+    <col min="9220" max="9220" width="31.44140625" style="29" customWidth="1"/>
+    <col min="9221" max="9221" width="31.21875" style="29" customWidth="1"/>
+    <col min="9222" max="9222" width="18.21875" style="29" customWidth="1"/>
+    <col min="9223" max="9472" width="8.88671875" style="29"/>
+    <col min="9473" max="9473" width="7.44140625" style="29" customWidth="1"/>
+    <col min="9474" max="9474" width="29.88671875" style="29" customWidth="1"/>
+    <col min="9475" max="9475" width="35.6640625" style="29" customWidth="1"/>
+    <col min="9476" max="9476" width="31.44140625" style="29" customWidth="1"/>
+    <col min="9477" max="9477" width="31.21875" style="29" customWidth="1"/>
+    <col min="9478" max="9478" width="18.21875" style="29" customWidth="1"/>
+    <col min="9479" max="9728" width="8.88671875" style="29"/>
+    <col min="9729" max="9729" width="7.44140625" style="29" customWidth="1"/>
+    <col min="9730" max="9730" width="29.88671875" style="29" customWidth="1"/>
+    <col min="9731" max="9731" width="35.6640625" style="29" customWidth="1"/>
+    <col min="9732" max="9732" width="31.44140625" style="29" customWidth="1"/>
+    <col min="9733" max="9733" width="31.21875" style="29" customWidth="1"/>
+    <col min="9734" max="9734" width="18.21875" style="29" customWidth="1"/>
+    <col min="9735" max="9984" width="8.88671875" style="29"/>
+    <col min="9985" max="9985" width="7.44140625" style="29" customWidth="1"/>
+    <col min="9986" max="9986" width="29.88671875" style="29" customWidth="1"/>
+    <col min="9987" max="9987" width="35.6640625" style="29" customWidth="1"/>
+    <col min="9988" max="9988" width="31.44140625" style="29" customWidth="1"/>
+    <col min="9989" max="9989" width="31.21875" style="29" customWidth="1"/>
+    <col min="9990" max="9990" width="18.21875" style="29" customWidth="1"/>
+    <col min="9991" max="10240" width="8.88671875" style="29"/>
+    <col min="10241" max="10241" width="7.44140625" style="29" customWidth="1"/>
+    <col min="10242" max="10242" width="29.88671875" style="29" customWidth="1"/>
+    <col min="10243" max="10243" width="35.6640625" style="29" customWidth="1"/>
+    <col min="10244" max="10244" width="31.44140625" style="29" customWidth="1"/>
+    <col min="10245" max="10245" width="31.21875" style="29" customWidth="1"/>
+    <col min="10246" max="10246" width="18.21875" style="29" customWidth="1"/>
+    <col min="10247" max="10496" width="8.88671875" style="29"/>
+    <col min="10497" max="10497" width="7.44140625" style="29" customWidth="1"/>
+    <col min="10498" max="10498" width="29.88671875" style="29" customWidth="1"/>
+    <col min="10499" max="10499" width="35.6640625" style="29" customWidth="1"/>
+    <col min="10500" max="10500" width="31.44140625" style="29" customWidth="1"/>
+    <col min="10501" max="10501" width="31.21875" style="29" customWidth="1"/>
+    <col min="10502" max="10502" width="18.21875" style="29" customWidth="1"/>
+    <col min="10503" max="10752" width="8.88671875" style="29"/>
+    <col min="10753" max="10753" width="7.44140625" style="29" customWidth="1"/>
+    <col min="10754" max="10754" width="29.88671875" style="29" customWidth="1"/>
+    <col min="10755" max="10755" width="35.6640625" style="29" customWidth="1"/>
+    <col min="10756" max="10756" width="31.44140625" style="29" customWidth="1"/>
+    <col min="10757" max="10757" width="31.21875" style="29" customWidth="1"/>
+    <col min="10758" max="10758" width="18.21875" style="29" customWidth="1"/>
+    <col min="10759" max="11008" width="8.88671875" style="29"/>
+    <col min="11009" max="11009" width="7.44140625" style="29" customWidth="1"/>
+    <col min="11010" max="11010" width="29.88671875" style="29" customWidth="1"/>
+    <col min="11011" max="11011" width="35.6640625" style="29" customWidth="1"/>
+    <col min="11012" max="11012" width="31.44140625" style="29" customWidth="1"/>
+    <col min="11013" max="11013" width="31.21875" style="29" customWidth="1"/>
+    <col min="11014" max="11014" width="18.21875" style="29" customWidth="1"/>
+    <col min="11015" max="11264" width="8.88671875" style="29"/>
+    <col min="11265" max="11265" width="7.44140625" style="29" customWidth="1"/>
+    <col min="11266" max="11266" width="29.88671875" style="29" customWidth="1"/>
+    <col min="11267" max="11267" width="35.6640625" style="29" customWidth="1"/>
+    <col min="11268" max="11268" width="31.44140625" style="29" customWidth="1"/>
+    <col min="11269" max="11269" width="31.21875" style="29" customWidth="1"/>
+    <col min="11270" max="11270" width="18.21875" style="29" customWidth="1"/>
+    <col min="11271" max="11520" width="8.88671875" style="29"/>
+    <col min="11521" max="11521" width="7.44140625" style="29" customWidth="1"/>
+    <col min="11522" max="11522" width="29.88671875" style="29" customWidth="1"/>
+    <col min="11523" max="11523" width="35.6640625" style="29" customWidth="1"/>
+    <col min="11524" max="11524" width="31.44140625" style="29" customWidth="1"/>
+    <col min="11525" max="11525" width="31.21875" style="29" customWidth="1"/>
+    <col min="11526" max="11526" width="18.21875" style="29" customWidth="1"/>
+    <col min="11527" max="11776" width="8.88671875" style="29"/>
+    <col min="11777" max="11777" width="7.44140625" style="29" customWidth="1"/>
+    <col min="11778" max="11778" width="29.88671875" style="29" customWidth="1"/>
+    <col min="11779" max="11779" width="35.6640625" style="29" customWidth="1"/>
+    <col min="11780" max="11780" width="31.44140625" style="29" customWidth="1"/>
+    <col min="11781" max="11781" width="31.21875" style="29" customWidth="1"/>
+    <col min="11782" max="11782" width="18.21875" style="29" customWidth="1"/>
+    <col min="11783" max="12032" width="8.88671875" style="29"/>
+    <col min="12033" max="12033" width="7.44140625" style="29" customWidth="1"/>
+    <col min="12034" max="12034" width="29.88671875" style="29" customWidth="1"/>
+    <col min="12035" max="12035" width="35.6640625" style="29" customWidth="1"/>
+    <col min="12036" max="12036" width="31.44140625" style="29" customWidth="1"/>
+    <col min="12037" max="12037" width="31.21875" style="29" customWidth="1"/>
+    <col min="12038" max="12038" width="18.21875" style="29" customWidth="1"/>
+    <col min="12039" max="12288" width="8.88671875" style="29"/>
+    <col min="12289" max="12289" width="7.44140625" style="29" customWidth="1"/>
+    <col min="12290" max="12290" width="29.88671875" style="29" customWidth="1"/>
+    <col min="12291" max="12291" width="35.6640625" style="29" customWidth="1"/>
+    <col min="12292" max="12292" width="31.44140625" style="29" customWidth="1"/>
+    <col min="12293" max="12293" width="31.21875" style="29" customWidth="1"/>
+    <col min="12294" max="12294" width="18.21875" style="29" customWidth="1"/>
+    <col min="12295" max="12544" width="8.88671875" style="29"/>
+    <col min="12545" max="12545" width="7.44140625" style="29" customWidth="1"/>
+    <col min="12546" max="12546" width="29.88671875" style="29" customWidth="1"/>
+    <col min="12547" max="12547" width="35.6640625" style="29" customWidth="1"/>
+    <col min="12548" max="12548" width="31.44140625" style="29" customWidth="1"/>
+    <col min="12549" max="12549" width="31.21875" style="29" customWidth="1"/>
+    <col min="12550" max="12550" width="18.21875" style="29" customWidth="1"/>
+    <col min="12551" max="12800" width="8.88671875" style="29"/>
+    <col min="12801" max="12801" width="7.44140625" style="29" customWidth="1"/>
+    <col min="12802" max="12802" width="29.88671875" style="29" customWidth="1"/>
+    <col min="12803" max="12803" width="35.6640625" style="29" customWidth="1"/>
+    <col min="12804" max="12804" width="31.44140625" style="29" customWidth="1"/>
+    <col min="12805" max="12805" width="31.21875" style="29" customWidth="1"/>
+    <col min="12806" max="12806" width="18.21875" style="29" customWidth="1"/>
+    <col min="12807" max="13056" width="8.88671875" style="29"/>
+    <col min="13057" max="13057" width="7.44140625" style="29" customWidth="1"/>
+    <col min="13058" max="13058" width="29.88671875" style="29" customWidth="1"/>
+    <col min="13059" max="13059" width="35.6640625" style="29" customWidth="1"/>
+    <col min="13060" max="13060" width="31.44140625" style="29" customWidth="1"/>
+    <col min="13061" max="13061" width="31.21875" style="29" customWidth="1"/>
+    <col min="13062" max="13062" width="18.21875" style="29" customWidth="1"/>
+    <col min="13063" max="13312" width="8.88671875" style="29"/>
+    <col min="13313" max="13313" width="7.44140625" style="29" customWidth="1"/>
+    <col min="13314" max="13314" width="29.88671875" style="29" customWidth="1"/>
+    <col min="13315" max="13315" width="35.6640625" style="29" customWidth="1"/>
+    <col min="13316" max="13316" width="31.44140625" style="29" customWidth="1"/>
+    <col min="13317" max="13317" width="31.21875" style="29" customWidth="1"/>
+    <col min="13318" max="13318" width="18.21875" style="29" customWidth="1"/>
+    <col min="13319" max="13568" width="8.88671875" style="29"/>
+    <col min="13569" max="13569" width="7.44140625" style="29" customWidth="1"/>
+    <col min="13570" max="13570" width="29.88671875" style="29" customWidth="1"/>
+    <col min="13571" max="13571" width="35.6640625" style="29" customWidth="1"/>
+    <col min="13572" max="13572" width="31.44140625" style="29" customWidth="1"/>
+    <col min="13573" max="13573" width="31.21875" style="29" customWidth="1"/>
+    <col min="13574" max="13574" width="18.21875" style="29" customWidth="1"/>
+    <col min="13575" max="13824" width="8.88671875" style="29"/>
+    <col min="13825" max="13825" width="7.44140625" style="29" customWidth="1"/>
+    <col min="13826" max="13826" width="29.88671875" style="29" customWidth="1"/>
+    <col min="13827" max="13827" width="35.6640625" style="29" customWidth="1"/>
+    <col min="13828" max="13828" width="31.44140625" style="29" customWidth="1"/>
+    <col min="13829" max="13829" width="31.21875" style="29" customWidth="1"/>
+    <col min="13830" max="13830" width="18.21875" style="29" customWidth="1"/>
+    <col min="13831" max="14080" width="8.88671875" style="29"/>
+    <col min="14081" max="14081" width="7.44140625" style="29" customWidth="1"/>
+    <col min="14082" max="14082" width="29.88671875" style="29" customWidth="1"/>
+    <col min="14083" max="14083" width="35.6640625" style="29" customWidth="1"/>
+    <col min="14084" max="14084" width="31.44140625" style="29" customWidth="1"/>
+    <col min="14085" max="14085" width="31.21875" style="29" customWidth="1"/>
+    <col min="14086" max="14086" width="18.21875" style="29" customWidth="1"/>
+    <col min="14087" max="14336" width="8.88671875" style="29"/>
+    <col min="14337" max="14337" width="7.44140625" style="29" customWidth="1"/>
+    <col min="14338" max="14338" width="29.88671875" style="29" customWidth="1"/>
+    <col min="14339" max="14339" width="35.6640625" style="29" customWidth="1"/>
+    <col min="14340" max="14340" width="31.44140625" style="29" customWidth="1"/>
+    <col min="14341" max="14341" width="31.21875" style="29" customWidth="1"/>
+    <col min="14342" max="14342" width="18.21875" style="29" customWidth="1"/>
+    <col min="14343" max="14592" width="8.88671875" style="29"/>
+    <col min="14593" max="14593" width="7.44140625" style="29" customWidth="1"/>
+    <col min="14594" max="14594" width="29.88671875" style="29" customWidth="1"/>
+    <col min="14595" max="14595" width="35.6640625" style="29" customWidth="1"/>
+    <col min="14596" max="14596" width="31.44140625" style="29" customWidth="1"/>
+    <col min="14597" max="14597" width="31.21875" style="29" customWidth="1"/>
+    <col min="14598" max="14598" width="18.21875" style="29" customWidth="1"/>
+    <col min="14599" max="14848" width="8.88671875" style="29"/>
+    <col min="14849" max="14849" width="7.44140625" style="29" customWidth="1"/>
+    <col min="14850" max="14850" width="29.88671875" style="29" customWidth="1"/>
+    <col min="14851" max="14851" width="35.6640625" style="29" customWidth="1"/>
+    <col min="14852" max="14852" width="31.44140625" style="29" customWidth="1"/>
+    <col min="14853" max="14853" width="31.21875" style="29" customWidth="1"/>
+    <col min="14854" max="14854" width="18.21875" style="29" customWidth="1"/>
+    <col min="14855" max="15104" width="8.88671875" style="29"/>
+    <col min="15105" max="15105" width="7.44140625" style="29" customWidth="1"/>
+    <col min="15106" max="15106" width="29.88671875" style="29" customWidth="1"/>
+    <col min="15107" max="15107" width="35.6640625" style="29" customWidth="1"/>
+    <col min="15108" max="15108" width="31.44140625" style="29" customWidth="1"/>
+    <col min="15109" max="15109" width="31.21875" style="29" customWidth="1"/>
+    <col min="15110" max="15110" width="18.21875" style="29" customWidth="1"/>
+    <col min="15111" max="15360" width="8.88671875" style="29"/>
+    <col min="15361" max="15361" width="7.44140625" style="29" customWidth="1"/>
+    <col min="15362" max="15362" width="29.88671875" style="29" customWidth="1"/>
+    <col min="15363" max="15363" width="35.6640625" style="29" customWidth="1"/>
+    <col min="15364" max="15364" width="31.44140625" style="29" customWidth="1"/>
+    <col min="15365" max="15365" width="31.21875" style="29" customWidth="1"/>
+    <col min="15366" max="15366" width="18.21875" style="29" customWidth="1"/>
+    <col min="15367" max="15616" width="8.88671875" style="29"/>
+    <col min="15617" max="15617" width="7.44140625" style="29" customWidth="1"/>
+    <col min="15618" max="15618" width="29.88671875" style="29" customWidth="1"/>
+    <col min="15619" max="15619" width="35.6640625" style="29" customWidth="1"/>
+    <col min="15620" max="15620" width="31.44140625" style="29" customWidth="1"/>
+    <col min="15621" max="15621" width="31.21875" style="29" customWidth="1"/>
+    <col min="15622" max="15622" width="18.21875" style="29" customWidth="1"/>
+    <col min="15623" max="15872" width="8.88671875" style="29"/>
+    <col min="15873" max="15873" width="7.44140625" style="29" customWidth="1"/>
+    <col min="15874" max="15874" width="29.88671875" style="29" customWidth="1"/>
+    <col min="15875" max="15875" width="35.6640625" style="29" customWidth="1"/>
+    <col min="15876" max="15876" width="31.44140625" style="29" customWidth="1"/>
+    <col min="15877" max="15877" width="31.21875" style="29" customWidth="1"/>
+    <col min="15878" max="15878" width="18.21875" style="29" customWidth="1"/>
+    <col min="15879" max="16128" width="8.88671875" style="29"/>
+    <col min="16129" max="16129" width="7.44140625" style="29" customWidth="1"/>
+    <col min="16130" max="16130" width="29.88671875" style="29" customWidth="1"/>
+    <col min="16131" max="16131" width="35.6640625" style="29" customWidth="1"/>
+    <col min="16132" max="16132" width="31.44140625" style="29" customWidth="1"/>
+    <col min="16133" max="16133" width="31.21875" style="29" customWidth="1"/>
+    <col min="16134" max="16134" width="18.21875" style="29" customWidth="1"/>
+    <col min="16135" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="60"/>
     </row>
-    <row r="2" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
         <v>29</v>
       </c>
@@ -1760,13 +1724,13 @@
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
     </row>
-    <row r="3" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
     </row>
-    <row r="4" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>30</v>
       </c>
@@ -1780,7 +1744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>34</v>
       </c>
@@ -1794,7 +1758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>38</v>
       </c>
@@ -1808,7 +1772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
         <v>41</v>
       </c>
@@ -1822,7 +1786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>45</v>
       </c>
@@ -1832,17 +1796,17 @@
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
     </row>
-    <row r="9" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40"/>
       <c r="C9" s="41"/>
       <c r="D9" s="42"/>
       <c r="E9" s="43"/>
     </row>
-    <row r="10" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
     </row>
-    <row r="11" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="61" t="s">
         <v>11</v>
       </c>
@@ -1850,7 +1814,7 @@
       <c r="D11" s="45"/>
       <c r="E11" s="46"/>
     </row>
-    <row r="12" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="63" t="s">
         <v>12</v>
       </c>
@@ -1858,10 +1822,10 @@
       <c r="D12" s="47"/>
       <c r="E12" s="48"/>
     </row>
-    <row r="13" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="49"/>
     </row>
-    <row r="14" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
         <v>47</v>
       </c>
@@ -1884,7 +1848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52">
         <v>1</v>
       </c>
@@ -1905,7 +1869,7 @@
       </c>
       <c r="G15" s="53"/>
     </row>
-    <row r="16" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="52">
         <v>2</v>
       </c>
@@ -1926,7 +1890,7 @@
       </c>
       <c r="G16" s="53"/>
     </row>
-    <row r="17" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="52">
         <v>3</v>
       </c>
@@ -1947,7 +1911,7 @@
       </c>
       <c r="G17" s="53"/>
     </row>
-    <row r="18" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="52">
         <v>4</v>
       </c>
@@ -1966,7 +1930,7 @@
       </c>
       <c r="G18" s="53"/>
     </row>
-    <row r="19" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="52">
         <v>5</v>
       </c>
@@ -1985,7 +1949,7 @@
       </c>
       <c r="G19" s="53"/>
     </row>
-    <row r="20" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="54"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -1994,10 +1958,10 @@
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
     </row>
-    <row r="21" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="49"/>
     </row>
-    <row r="22" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="s">
         <v>71</v>
       </c>
@@ -2005,7 +1969,7 @@
       <c r="D22" s="68"/>
       <c r="E22" s="69"/>
     </row>
-    <row r="23" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="55" t="s">
         <v>72</v>
       </c>
@@ -2013,9 +1977,9 @@
       <c r="D23" s="47"/>
       <c r="E23" s="48"/>
     </row>
-    <row r="24" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
@@ -2026,26 +1990,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="57.5" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="70" t="s">
         <v>75</v>
@@ -2060,7 +2025,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="71" t="s">
         <v>0</v>
@@ -2075,7 +2040,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
@@ -2088,7 +2053,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>1</v>
@@ -2109,7 +2074,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
@@ -2130,7 +2095,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="17" t="s">
         <v>6</v>
@@ -2151,7 +2116,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="17" t="s">
         <v>8</v>
@@ -2172,7 +2137,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="49.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>10</v>
@@ -2189,7 +2154,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2202,7 +2167,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2215,7 +2180,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="73" t="s">
         <v>26</v>
@@ -2230,7 +2195,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="75" t="s">
         <v>12</v>
@@ -2245,7 +2210,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="1"/>
       <c r="C13" s="14"/>
@@ -2258,7 +2223,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2285,7 +2250,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2310,7 +2275,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -2335,7 +2300,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2360,7 +2325,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -2385,7 +2350,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -2410,7 +2375,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -2435,7 +2400,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -2460,7 +2425,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -2485,7 +2450,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>9</v>
       </c>
@@ -2510,7 +2475,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -2535,7 +2500,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="77" t="s">
         <v>21</v>
@@ -2550,7 +2515,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="8" t="s">
         <v>24</v>
@@ -2565,7 +2530,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2578,7 +2543,7 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2591,7 +2556,7 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2614,7 +2579,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2622,35 +2587,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7602792-E590-44DD-9950-AF2B762E7A24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="57.5" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="70" t="s">
         <v>75</v>
@@ -2665,7 +2617,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="71" t="s">
         <v>0</v>
@@ -2680,7 +2632,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
@@ -2693,7 +2645,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>1</v>
@@ -2714,7 +2666,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
@@ -2735,7 +2687,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="17" t="s">
         <v>6</v>
@@ -2756,7 +2708,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="17" t="s">
         <v>8</v>
@@ -2777,7 +2729,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="49.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>10</v>
@@ -2794,7 +2746,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2807,7 +2759,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2820,7 +2772,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="73" t="s">
         <v>26</v>
@@ -2835,7 +2787,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="75" t="s">
         <v>12</v>
@@ -2850,7 +2802,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="1"/>
       <c r="C13" s="14"/>
@@ -2863,7 +2815,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2890,7 +2842,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2915,7 +2867,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -2940,7 +2892,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2948,7 +2900,7 @@
         <v>108</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>81</v>
@@ -2965,21 +2917,21 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>7</v>
       </c>
       <c r="B18" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="D18" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>112</v>
-      </c>
       <c r="E18" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>20</v>
@@ -2990,21 +2942,21 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>8</v>
       </c>
       <c r="B19" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="D19" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>115</v>
-      </c>
       <c r="E19" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>20</v>
@@ -3015,7 +2967,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="77" t="s">
         <v>21</v>
@@ -3030,7 +2982,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="8" t="s">
         <v>24</v>
@@ -3045,7 +2997,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -3058,7 +3010,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -3071,7 +3023,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -3094,8 +3046,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{C276F963-82C9-4E3A-9EFF-0E183BFEA8B9}"/>
-    <hyperlink ref="C16" r:id="rId2" xr:uid="{C8D2A07A-6030-4617-A035-22D48C0D8399}"/>
+    <hyperlink ref="C15" r:id="rId1"/>
+    <hyperlink ref="C16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/01.Document/08.Test Case/Geosensing Test Case .xlsx
+++ b/01.Document/08.Test Case/Geosensing Test Case .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19416" windowHeight="11016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19416" windowHeight="11016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login Test Case" sheetId="1" r:id="rId1"/>
@@ -471,11 +471,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -515,7 +515,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -553,7 +553,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1254,11 +1254,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.44140625" style="29" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" style="29" customWidth="1"/>
@@ -1710,13 +1710,13 @@
     <col min="16135" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1">
       <c r="B1" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="60"/>
     </row>
-    <row r="2" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.2" customHeight="1">
       <c r="B2" s="65" t="s">
         <v>29</v>
       </c>
@@ -1724,13 +1724,13 @@
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
     </row>
-    <row r="3" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
     </row>
-    <row r="4" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.2" customHeight="1">
       <c r="B4" s="30" t="s">
         <v>30</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="22.95" customHeight="1">
       <c r="B5" s="34" t="s">
         <v>34</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.2" customHeight="1">
       <c r="B6" s="34" t="s">
         <v>38</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="33" customHeight="1">
       <c r="B7" s="34" t="s">
         <v>41</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19.2" customHeight="1">
       <c r="B8" s="34" t="s">
         <v>45</v>
       </c>
@@ -1796,17 +1796,17 @@
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
     </row>
-    <row r="9" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="B9" s="40"/>
       <c r="C9" s="41"/>
       <c r="D9" s="42"/>
       <c r="E9" s="43"/>
     </row>
-    <row r="10" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
     </row>
-    <row r="11" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19.2" customHeight="1">
       <c r="B11" s="61" t="s">
         <v>11</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="D11" s="45"/>
       <c r="E11" s="46"/>
     </row>
-    <row r="12" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="B12" s="63" t="s">
         <v>12</v>
       </c>
@@ -1822,10 +1822,10 @@
       <c r="D12" s="47"/>
       <c r="E12" s="48"/>
     </row>
-    <row r="13" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="B13" s="49"/>
     </row>
-    <row r="14" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="A14" s="50" t="s">
         <v>47</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="A15" s="52">
         <v>1</v>
       </c>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G15" s="53"/>
     </row>
-    <row r="16" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="A16" s="52">
         <v>2</v>
       </c>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="G16" s="53"/>
     </row>
-    <row r="17" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="A17" s="52">
         <v>3</v>
       </c>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="G17" s="53"/>
     </row>
-    <row r="18" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="A18" s="52">
         <v>4</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G18" s="53"/>
     </row>
-    <row r="19" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="A19" s="52">
         <v>5</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="G19" s="53"/>
     </row>
-    <row r="20" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="A20" s="54"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -1958,10 +1958,10 @@
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
     </row>
-    <row r="21" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="B21" s="49"/>
     </row>
-    <row r="22" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="19.2" customHeight="1">
       <c r="B22" s="67" t="s">
         <v>71</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="D22" s="68"/>
       <c r="E22" s="69"/>
     </row>
-    <row r="23" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="B23" s="55" t="s">
         <v>72</v>
       </c>
@@ -1977,9 +1977,9 @@
       <c r="D23" s="47"/>
       <c r="E23" s="48"/>
     </row>
-    <row r="24" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" ht="19.2" customHeight="1"/>
+    <row r="25" spans="1:7" ht="19.2" customHeight="1"/>
+    <row r="26" spans="1:7" ht="19.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
@@ -1998,11 +1998,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.88671875" customWidth="1"/>
     <col min="3" max="3" width="36.21875" customWidth="1"/>
@@ -2010,7 +2010,7 @@
     <col min="5" max="5" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.4" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="70" t="s">
         <v>75</v>
@@ -2025,7 +2025,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="23.4" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="71" t="s">
         <v>0</v>
@@ -2040,7 +2040,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A3" s="14"/>
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
@@ -2053,7 +2053,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="23.4" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>1</v>
@@ -2074,7 +2074,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="23.4" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
@@ -2095,7 +2095,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="31.2" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="17" t="s">
         <v>6</v>
@@ -2116,7 +2116,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="43.2" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="17" t="s">
         <v>8</v>
@@ -2137,7 +2137,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="21" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>10</v>
@@ -2154,7 +2154,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2167,7 +2167,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="9" customHeight="1" thickBot="1">
       <c r="A10" s="14"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2180,7 +2180,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="23.4" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="73" t="s">
         <v>26</v>
@@ -2195,7 +2195,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A12" s="14"/>
       <c r="B12" s="75" t="s">
         <v>12</v>
@@ -2210,7 +2210,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="8.4" customHeight="1" thickBot="1">
       <c r="A13" s="14"/>
       <c r="B13" s="1"/>
       <c r="C13" s="14"/>
@@ -2223,7 +2223,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="42" customHeight="1" thickBot="1">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="43.2" customHeight="1" thickBot="1">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="33.6" customHeight="1" thickBot="1">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -2450,7 +2450,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1">
       <c r="A23" s="4">
         <v>9</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="23.4" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="77" t="s">
         <v>21</v>
@@ -2515,7 +2515,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A26" s="14"/>
       <c r="B26" s="8" t="s">
         <v>24</v>
@@ -2530,7 +2530,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="23.4" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2543,7 +2543,7 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="23.4" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2556,7 +2556,7 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="23.4" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2590,11 +2590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.88671875" customWidth="1"/>
     <col min="3" max="3" width="36.21875" customWidth="1"/>
@@ -2602,7 +2602,7 @@
     <col min="5" max="5" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.4" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="70" t="s">
         <v>75</v>
@@ -2617,7 +2617,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="23.4" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="71" t="s">
         <v>0</v>
@@ -2632,7 +2632,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A3" s="14"/>
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
@@ -2645,7 +2645,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="23.4" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>1</v>
@@ -2666,7 +2666,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="23.4" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
@@ -2687,7 +2687,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="31.2" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="17" t="s">
         <v>6</v>
@@ -2708,7 +2708,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="43.2" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="17" t="s">
         <v>8</v>
@@ -2729,7 +2729,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="49.2" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>10</v>
@@ -2746,7 +2746,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2759,7 +2759,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="8.4" customHeight="1" thickBot="1">
       <c r="A10" s="14"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2772,7 +2772,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="23.4" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="73" t="s">
         <v>26</v>
@@ -2787,7 +2787,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A12" s="14"/>
       <c r="B12" s="75" t="s">
         <v>12</v>
@@ -2802,7 +2802,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="10.199999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="14"/>
       <c r="B13" s="1"/>
       <c r="C13" s="14"/>
@@ -2815,7 +2815,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="46.8" customHeight="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2867,7 +2867,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="33.6" customHeight="1" thickBot="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="43.2" customHeight="1" thickBot="1">
       <c r="A18" s="4">
         <v>7</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="33.6" customHeight="1" thickBot="1">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="23.4" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="77" t="s">
         <v>21</v>
@@ -2982,7 +2982,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A21" s="14"/>
       <c r="B21" s="8" t="s">
         <v>24</v>
@@ -2997,7 +2997,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="23.4" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -3010,7 +3010,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="23.4" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -3023,7 +3023,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="23.4" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
